--- a/Code/Results/Cases/Case_3_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9840748456159701</v>
+        <v>0.9840748456159707</v>
       </c>
       <c r="D2">
-        <v>1.002612785356736</v>
+        <v>1.002612785356737</v>
       </c>
       <c r="E2">
-        <v>0.9919774539658502</v>
+        <v>0.9919774539658506</v>
       </c>
       <c r="F2">
-        <v>0.9591001101859644</v>
+        <v>0.9591001101859646</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>1.006742537309517</v>
       </c>
       <c r="K2">
-        <v>1.014035839551482</v>
+        <v>1.014035839551483</v>
       </c>
       <c r="L2">
         <v>1.003549698779961</v>
       </c>
       <c r="M2">
-        <v>0.9711602664455821</v>
+        <v>0.9711602664455824</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9920923666848281</v>
+        <v>0.992092366684828</v>
       </c>
       <c r="D3">
         <v>1.008942565855247</v>
       </c>
       <c r="E3">
-        <v>0.9986825905868548</v>
+        <v>0.9986825905868543</v>
       </c>
       <c r="F3">
-        <v>0.9707286891801493</v>
+        <v>0.9707286891801484</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>1.039530264690619</v>
       </c>
       <c r="J3">
-        <v>1.012800947888246</v>
+        <v>1.012800947888245</v>
       </c>
       <c r="K3">
         <v>1.019462289397791</v>
@@ -486,7 +486,7 @@
         <v>1.009332355711584</v>
       </c>
       <c r="M3">
-        <v>0.9817503280529312</v>
+        <v>0.9817503280529305</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,25 +497,25 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9970946898189819</v>
+        <v>0.9970946898189823</v>
       </c>
       <c r="D4">
-        <v>1.012890098672456</v>
+        <v>1.012890098672457</v>
       </c>
       <c r="E4">
-        <v>1.002871663565418</v>
+        <v>1.002871663565419</v>
       </c>
       <c r="F4">
-        <v>0.9779501552551493</v>
+        <v>0.9779501552551501</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041354173955093</v>
+        <v>1.041354173955094</v>
       </c>
       <c r="J4">
-        <v>1.016573006838949</v>
+        <v>1.01657300683895</v>
       </c>
       <c r="K4">
         <v>1.022835401572034</v>
@@ -524,7 +524,7 @@
         <v>1.012935553258416</v>
       </c>
       <c r="M4">
-        <v>0.9883221947729895</v>
+        <v>0.9883221947729903</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.999156231358419</v>
+        <v>0.9991562313584194</v>
       </c>
       <c r="D5">
-        <v>1.014516472490075</v>
+        <v>1.014516472490076</v>
       </c>
       <c r="E5">
         <v>1.004599286972268</v>
       </c>
       <c r="F5">
-        <v>0.9809192688323219</v>
+        <v>0.9809192688323226</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042101413644105</v>
+        <v>1.042101413644104</v>
       </c>
       <c r="J5">
         <v>1.018125613562419</v>
       </c>
       <c r="K5">
-        <v>1.024222509333006</v>
+        <v>1.024222509333007</v>
       </c>
       <c r="L5">
         <v>1.014419302364428</v>
       </c>
       <c r="M5">
-        <v>0.991023032672904</v>
+        <v>0.9910230326729047</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9995000242811065</v>
+        <v>0.9995000242811081</v>
       </c>
       <c r="D6">
-        <v>1.01478766561281</v>
+        <v>1.014787665612811</v>
       </c>
       <c r="E6">
-        <v>1.004887463934798</v>
+        <v>1.004887463934799</v>
       </c>
       <c r="F6">
-        <v>0.981414033456549</v>
+        <v>0.98141403345655</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042225766044711</v>
+        <v>1.042225766044712</v>
       </c>
       <c r="J6">
-        <v>1.018384420280108</v>
+        <v>1.01838442028011</v>
       </c>
       <c r="K6">
-        <v>1.024453653484981</v>
+        <v>1.024453653484982</v>
       </c>
       <c r="L6">
-        <v>1.014666668313291</v>
+        <v>1.014666668313292</v>
       </c>
       <c r="M6">
-        <v>0.9914730205358642</v>
+        <v>0.9914730205358653</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9971223953438508</v>
+        <v>0.9971223953438502</v>
       </c>
       <c r="D7">
-        <v>1.012911957807516</v>
+        <v>1.012911957807515</v>
       </c>
       <c r="E7">
-        <v>1.002894876720067</v>
+        <v>1.002894876720066</v>
       </c>
       <c r="F7">
-        <v>0.9779900840674297</v>
+        <v>0.9779900840674293</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.041364233844333</v>
       </c>
       <c r="J7">
-        <v>1.016593880318806</v>
+        <v>1.016593880318805</v>
       </c>
       <c r="K7">
-        <v>1.022854055142951</v>
+        <v>1.022854055142949</v>
       </c>
       <c r="L7">
-        <v>1.012955498479527</v>
+        <v>1.012955498479526</v>
       </c>
       <c r="M7">
-        <v>0.9883585206153099</v>
+        <v>0.9883585206153095</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9868247291318412</v>
+        <v>0.9868247291318422</v>
       </c>
       <c r="D8">
-        <v>1.004784146775769</v>
+        <v>1.00478414677577</v>
       </c>
       <c r="E8">
-        <v>0.9942759617673422</v>
+        <v>0.9942759617673432</v>
       </c>
       <c r="F8">
-        <v>0.9630964795920612</v>
+        <v>0.9630964795920621</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037594179454578</v>
+        <v>1.037594179454579</v>
       </c>
       <c r="J8">
-        <v>1.008822145648434</v>
+        <v>1.008822145648435</v>
       </c>
       <c r="K8">
         <v>1.015899701394394</v>
       </c>
       <c r="L8">
-        <v>1.0055340311443</v>
+        <v>1.005534031144301</v>
       </c>
       <c r="M8">
-        <v>0.9748006758517769</v>
+        <v>0.9748006758517777</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9671032205234903</v>
+        <v>0.9671032205234896</v>
       </c>
       <c r="D9">
-        <v>0.9892058021726929</v>
+        <v>0.9892058021726926</v>
       </c>
       <c r="E9">
-        <v>0.9778209421850725</v>
+        <v>0.977820942185072</v>
       </c>
       <c r="F9">
-        <v>0.9342272567358154</v>
+        <v>0.9342272567358152</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.030223769458861</v>
       </c>
       <c r="J9">
-        <v>0.9938736333871023</v>
+        <v>0.9938736333871014</v>
       </c>
       <c r="K9">
         <v>1.002476469549639</v>
       </c>
       <c r="L9">
-        <v>0.99128440950523</v>
+        <v>0.9912844095052294</v>
       </c>
       <c r="M9">
-        <v>0.9484859156355583</v>
+        <v>0.948485915635558</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.952639256727256</v>
+        <v>0.9526392567272557</v>
       </c>
       <c r="D10">
-        <v>0.9777747306414548</v>
+        <v>0.9777747306414546</v>
       </c>
       <c r="E10">
-        <v>0.9657969382868407</v>
+        <v>0.96579693828684</v>
       </c>
       <c r="F10">
-        <v>0.9126968313483295</v>
+        <v>0.9126968313483287</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.024715803778443</v>
       </c>
       <c r="J10">
-        <v>0.9828666541037449</v>
+        <v>0.9828666541037444</v>
       </c>
       <c r="K10">
-        <v>0.9925572087520117</v>
+        <v>0.9925572087520113</v>
       </c>
       <c r="L10">
-        <v>0.9808124759459776</v>
+        <v>0.980812475945977</v>
       </c>
       <c r="M10">
-        <v>0.9288441181849313</v>
+        <v>0.9288441181849306</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9459909722736217</v>
+        <v>0.9459909722736209</v>
       </c>
       <c r="D11">
-        <v>0.9725195841131035</v>
+        <v>0.9725195841131026</v>
       </c>
       <c r="E11">
-        <v>0.9602831013944926</v>
+        <v>0.9602831013944918</v>
       </c>
       <c r="F11">
-        <v>0.9026786258447022</v>
+        <v>0.9026786258447008</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.022159672803708</v>
       </c>
       <c r="J11">
-        <v>0.9777969662162487</v>
+        <v>0.9777969662162478</v>
       </c>
       <c r="K11">
-        <v>0.9879790394664194</v>
+        <v>0.9879790394664186</v>
       </c>
       <c r="L11">
-        <v>0.9759950091183015</v>
+        <v>0.9759950091183007</v>
       </c>
       <c r="M11">
-        <v>0.9197030778649705</v>
+        <v>0.9197030778649691</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.94345583186722</v>
+        <v>0.9434558318672221</v>
       </c>
       <c r="D12">
-        <v>0.9705155578338763</v>
+        <v>0.9705155578338784</v>
       </c>
       <c r="E12">
-        <v>0.9581827316448256</v>
+        <v>0.9581827316448274</v>
       </c>
       <c r="F12">
-        <v>0.898836011133559</v>
+        <v>0.8988360111335613</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02118126938784</v>
+        <v>1.021181269387841</v>
       </c>
       <c r="J12">
-        <v>0.9758621987405592</v>
+        <v>0.9758621987405615</v>
       </c>
       <c r="K12">
-        <v>0.9862303057554718</v>
+        <v>0.9862303057554737</v>
       </c>
       <c r="L12">
-        <v>0.9741574662192545</v>
+        <v>0.9741574662192564</v>
       </c>
       <c r="M12">
-        <v>0.9161969268150978</v>
+        <v>0.9161969268151</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9440027426650641</v>
+        <v>0.944002742665064</v>
       </c>
       <c r="D13">
-        <v>0.9709478957962232</v>
+        <v>0.9709478957962233</v>
       </c>
       <c r="E13">
-        <v>0.9586357460926856</v>
+        <v>0.9586357460926854</v>
       </c>
       <c r="F13">
-        <v>0.899666075600132</v>
+        <v>0.8996660756001316</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.021392509361353</v>
       </c>
       <c r="J13">
-        <v>0.9762796617680093</v>
+        <v>0.9762796617680092</v>
       </c>
       <c r="K13">
         <v>0.9866077005256507</v>
       </c>
       <c r="L13">
-        <v>0.9745539057264814</v>
+        <v>0.9745539057264813</v>
       </c>
       <c r="M13">
-        <v>0.9169543043543897</v>
+        <v>0.9169543043543893</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9457828072721345</v>
+        <v>0.9457828072721335</v>
       </c>
       <c r="D14">
-        <v>0.9723550322977716</v>
+        <v>0.9723550322977709</v>
       </c>
       <c r="E14">
-        <v>0.9601105906311015</v>
+        <v>0.9601105906311006</v>
       </c>
       <c r="F14">
-        <v>0.9023635832804299</v>
+        <v>0.902363583280429</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.022079409226974</v>
       </c>
       <c r="J14">
-        <v>0.977638131113917</v>
+        <v>0.977638131113916</v>
       </c>
       <c r="K14">
-        <v>0.9878355089525253</v>
+        <v>0.9878355089525246</v>
       </c>
       <c r="L14">
-        <v>0.975844135461717</v>
+        <v>0.9758441354617162</v>
       </c>
       <c r="M14">
-        <v>0.9194156187553936</v>
+        <v>0.9194156187553927</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9468706014154487</v>
+        <v>0.9468706014154495</v>
       </c>
       <c r="D15">
-        <v>0.973214915029384</v>
+        <v>0.973214915029385</v>
       </c>
       <c r="E15">
-        <v>0.9610121585880476</v>
+        <v>0.9610121585880484</v>
       </c>
       <c r="F15">
-        <v>0.9040089438053858</v>
+        <v>0.9040089438053869</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022498687497556</v>
+        <v>1.022498687497557</v>
       </c>
       <c r="J15">
-        <v>0.978468081003127</v>
+        <v>0.978468081003128</v>
       </c>
       <c r="K15">
-        <v>0.9885854253884742</v>
+        <v>0.9885854253884749</v>
       </c>
       <c r="L15">
-        <v>0.9766325248274658</v>
+        <v>0.9766325248274667</v>
       </c>
       <c r="M15">
-        <v>0.9209169225682864</v>
+        <v>0.9209169225682875</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9530717345450547</v>
+        <v>0.9530717345450558</v>
       </c>
       <c r="D16">
-        <v>0.9781165665047027</v>
+        <v>0.9781165665047032</v>
       </c>
       <c r="E16">
-        <v>0.9661559040215525</v>
+        <v>0.9661559040215533</v>
       </c>
       <c r="F16">
-        <v>0.9133456986034958</v>
+        <v>0.9133456986034966</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.024881579204599</v>
       </c>
       <c r="J16">
-        <v>0.9831962277716095</v>
+        <v>0.9831962277716105</v>
       </c>
       <c r="K16">
-        <v>0.9928546253722073</v>
+        <v>0.9928546253722079</v>
       </c>
       <c r="L16">
-        <v>0.9811257796879438</v>
+        <v>0.9811257796879447</v>
       </c>
       <c r="M16">
-        <v>0.9294361594405272</v>
+        <v>0.9294361594405282</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9568533641879041</v>
+        <v>0.9568533641879037</v>
       </c>
       <c r="D17">
-        <v>0.9811055162775736</v>
+        <v>0.9811055162775734</v>
       </c>
       <c r="E17">
-        <v>0.9692962082166309</v>
+        <v>0.9692962082166303</v>
       </c>
       <c r="F17">
-        <v>0.9190054478539553</v>
+        <v>0.9190054478539548</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.026328403794025</v>
       </c>
       <c r="J17">
-        <v>0.9860768910731598</v>
+        <v>0.9860768910731595</v>
       </c>
       <c r="K17">
-        <v>0.9954531483163472</v>
+        <v>0.995453148316347</v>
       </c>
       <c r="L17">
-        <v>0.9838648904995576</v>
+        <v>0.9838648904995572</v>
       </c>
       <c r="M17">
-        <v>0.9346000870827036</v>
+        <v>0.934600087082703</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9590225495133913</v>
+        <v>0.9590225495133903</v>
       </c>
       <c r="D18">
-        <v>0.9828199262811447</v>
+        <v>0.982819926281144</v>
       </c>
       <c r="E18">
-        <v>0.9710987087830356</v>
+        <v>0.9710987087830351</v>
       </c>
       <c r="F18">
-        <v>0.9222409145725861</v>
+        <v>0.9222409145725849</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.027156048466795</v>
       </c>
       <c r="J18">
-        <v>0.9877283075591764</v>
+        <v>0.9877283075591755</v>
       </c>
       <c r="K18">
-        <v>0.9969419494838948</v>
+        <v>0.9969419494838941</v>
       </c>
       <c r="L18">
-        <v>0.985435688679756</v>
+        <v>0.9854356886797553</v>
       </c>
       <c r="M18">
-        <v>0.937551942219649</v>
+        <v>0.9375519422196479</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9597561935381641</v>
+        <v>0.9597561935381645</v>
       </c>
       <c r="D19">
-        <v>0.983399744634022</v>
+        <v>0.9833997446340224</v>
       </c>
       <c r="E19">
-        <v>0.9717085305793224</v>
+        <v>0.9717085305793226</v>
       </c>
       <c r="F19">
-        <v>0.9233334219939647</v>
+        <v>0.9233334219939655</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.027435582919874</v>
       </c>
       <c r="J19">
-        <v>0.9882866727640086</v>
+        <v>0.9882866727640088</v>
       </c>
       <c r="K19">
-        <v>0.9974451877002617</v>
+        <v>0.9974451877002621</v>
       </c>
       <c r="L19">
-        <v>0.9859668831913708</v>
+        <v>0.9859668831913712</v>
       </c>
       <c r="M19">
-        <v>0.9385486484128239</v>
+        <v>0.9385486484128245</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9564514655605099</v>
+        <v>0.956451465560508</v>
       </c>
       <c r="D20">
-        <v>0.9807878696295456</v>
+        <v>0.9807878696295436</v>
       </c>
       <c r="E20">
-        <v>0.9689623423578388</v>
+        <v>0.9689623423578372</v>
       </c>
       <c r="F20">
-        <v>0.9184051230815025</v>
+        <v>0.9184051230814999</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026174876666838</v>
+        <v>1.026174876666837</v>
       </c>
       <c r="J20">
-        <v>0.9857708445337502</v>
+        <v>0.9857708445337483</v>
       </c>
       <c r="K20">
-        <v>0.99517716828295</v>
+        <v>0.9951771682829481</v>
       </c>
       <c r="L20">
-        <v>0.9835738268783276</v>
+        <v>0.9835738268783258</v>
       </c>
       <c r="M20">
-        <v>0.9340523696842734</v>
+        <v>0.9340523696842711</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9452605061236558</v>
+        <v>0.9452605061236569</v>
       </c>
       <c r="D21">
-        <v>0.9719421578831891</v>
+        <v>0.9719421578831897</v>
       </c>
       <c r="E21">
-        <v>0.9596777844141259</v>
+        <v>0.9596777844141275</v>
       </c>
       <c r="F21">
-        <v>0.9015727423572236</v>
+        <v>0.9015727423572242</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.021877962680689</v>
       </c>
       <c r="J21">
-        <v>0.9772395767865388</v>
+        <v>0.9772395767865402</v>
       </c>
       <c r="K21">
-        <v>0.98747533210847</v>
+        <v>0.9874753321084707</v>
       </c>
       <c r="L21">
-        <v>0.9754655741701338</v>
+        <v>0.975465574170135</v>
       </c>
       <c r="M21">
-        <v>0.9186940209079938</v>
+        <v>0.9186940209079942</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9378392060905225</v>
+        <v>0.9378392060905218</v>
       </c>
       <c r="D22">
         <v>0.9660753890362752</v>
       </c>
       <c r="E22">
-        <v>0.953533674350284</v>
+        <v>0.9535336743502834</v>
       </c>
       <c r="F22">
-        <v>0.8902754745465769</v>
+        <v>0.8902754745465762</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019006722375433</v>
+        <v>1.019006722375432</v>
       </c>
       <c r="J22">
-        <v>0.971572731600427</v>
+        <v>0.9715727316004266</v>
       </c>
       <c r="K22">
-        <v>0.9823502468849467</v>
+        <v>0.9823502468849464</v>
       </c>
       <c r="L22">
-        <v>0.970085474381413</v>
+        <v>0.9700854743814125</v>
       </c>
       <c r="M22">
-        <v>0.9083863412410692</v>
+        <v>0.9083863412410687</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9418129319949615</v>
+        <v>0.9418129319949612</v>
       </c>
       <c r="D23">
-        <v>0.9692168125181615</v>
+        <v>0.9692168125181611</v>
       </c>
       <c r="E23">
-        <v>0.9568222327628945</v>
+        <v>0.9568222327628939</v>
       </c>
       <c r="F23">
-        <v>0.8963388542360744</v>
+        <v>0.8963388542360736</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.020546167628295</v>
       </c>
       <c r="J23">
-        <v>0.974607920376902</v>
+        <v>0.9746079203769015</v>
       </c>
       <c r="K23">
-        <v>0.9850961750256134</v>
+        <v>0.985096175025613</v>
       </c>
       <c r="L23">
-        <v>0.9729665044434355</v>
+        <v>0.972966504443435</v>
       </c>
       <c r="M23">
-        <v>0.9139184666187724</v>
+        <v>0.9139184666187717</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.956633178706688</v>
+        <v>0.9566331787066904</v>
       </c>
       <c r="D24">
-        <v>0.9809314896250183</v>
+        <v>0.9809314896250204</v>
       </c>
       <c r="E24">
-        <v>0.9691132917121162</v>
+        <v>0.9691132917121186</v>
       </c>
       <c r="F24">
-        <v>0.9186765860128473</v>
+        <v>0.9186765860128498</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026244298989146</v>
+        <v>1.026244298989147</v>
       </c>
       <c r="J24">
-        <v>0.9859092224267139</v>
+        <v>0.9859092224267163</v>
       </c>
       <c r="K24">
-        <v>0.995301954410539</v>
+        <v>0.9953019544105413</v>
       </c>
       <c r="L24">
-        <v>0.9837054286522989</v>
+        <v>0.9837054286523012</v>
       </c>
       <c r="M24">
-        <v>0.9343000444502116</v>
+        <v>0.9343000444502143</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9724123519922061</v>
+        <v>0.9724123519922064</v>
       </c>
       <c r="D25">
-        <v>0.9934007153683704</v>
+        <v>0.9934007153683713</v>
       </c>
       <c r="E25">
         <v>0.9822439594867001</v>
       </c>
       <c r="F25">
-        <v>0.9420493221084643</v>
+        <v>0.9420493221084654</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.032225165611075</v>
       </c>
       <c r="J25">
-        <v>0.9979052054440917</v>
+        <v>0.997905205444092</v>
       </c>
       <c r="K25">
         <v>1.006102347922194</v>
       </c>
       <c r="L25">
-        <v>0.9951243143044735</v>
+        <v>0.9951243143044738</v>
       </c>
       <c r="M25">
-        <v>0.9556192030371314</v>
+        <v>0.9556192030371324</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9840748456159707</v>
+        <v>0.9840748456159701</v>
       </c>
       <c r="D2">
-        <v>1.002612785356737</v>
+        <v>1.002612785356736</v>
       </c>
       <c r="E2">
-        <v>0.9919774539658506</v>
+        <v>0.9919774539658502</v>
       </c>
       <c r="F2">
-        <v>0.9591001101859646</v>
+        <v>0.9591001101859644</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>1.006742537309517</v>
       </c>
       <c r="K2">
-        <v>1.014035839551483</v>
+        <v>1.014035839551482</v>
       </c>
       <c r="L2">
         <v>1.003549698779961</v>
       </c>
       <c r="M2">
-        <v>0.9711602664455824</v>
+        <v>0.9711602664455821</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.992092366684828</v>
+        <v>0.9920923666848281</v>
       </c>
       <c r="D3">
         <v>1.008942565855247</v>
       </c>
       <c r="E3">
-        <v>0.9986825905868543</v>
+        <v>0.9986825905868548</v>
       </c>
       <c r="F3">
-        <v>0.9707286891801484</v>
+        <v>0.9707286891801493</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>1.039530264690619</v>
       </c>
       <c r="J3">
-        <v>1.012800947888245</v>
+        <v>1.012800947888246</v>
       </c>
       <c r="K3">
         <v>1.019462289397791</v>
@@ -486,7 +486,7 @@
         <v>1.009332355711584</v>
       </c>
       <c r="M3">
-        <v>0.9817503280529305</v>
+        <v>0.9817503280529312</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,25 +497,25 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9970946898189823</v>
+        <v>0.9970946898189819</v>
       </c>
       <c r="D4">
-        <v>1.012890098672457</v>
+        <v>1.012890098672456</v>
       </c>
       <c r="E4">
-        <v>1.002871663565419</v>
+        <v>1.002871663565418</v>
       </c>
       <c r="F4">
-        <v>0.9779501552551501</v>
+        <v>0.9779501552551493</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041354173955094</v>
+        <v>1.041354173955093</v>
       </c>
       <c r="J4">
-        <v>1.01657300683895</v>
+        <v>1.016573006838949</v>
       </c>
       <c r="K4">
         <v>1.022835401572034</v>
@@ -524,7 +524,7 @@
         <v>1.012935553258416</v>
       </c>
       <c r="M4">
-        <v>0.9883221947729903</v>
+        <v>0.9883221947729895</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9991562313584194</v>
+        <v>0.999156231358419</v>
       </c>
       <c r="D5">
-        <v>1.014516472490076</v>
+        <v>1.014516472490075</v>
       </c>
       <c r="E5">
         <v>1.004599286972268</v>
       </c>
       <c r="F5">
-        <v>0.9809192688323226</v>
+        <v>0.9809192688323219</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042101413644104</v>
+        <v>1.042101413644105</v>
       </c>
       <c r="J5">
         <v>1.018125613562419</v>
       </c>
       <c r="K5">
-        <v>1.024222509333007</v>
+        <v>1.024222509333006</v>
       </c>
       <c r="L5">
         <v>1.014419302364428</v>
       </c>
       <c r="M5">
-        <v>0.9910230326729047</v>
+        <v>0.991023032672904</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9995000242811081</v>
+        <v>0.9995000242811065</v>
       </c>
       <c r="D6">
-        <v>1.014787665612811</v>
+        <v>1.01478766561281</v>
       </c>
       <c r="E6">
-        <v>1.004887463934799</v>
+        <v>1.004887463934798</v>
       </c>
       <c r="F6">
-        <v>0.98141403345655</v>
+        <v>0.981414033456549</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042225766044712</v>
+        <v>1.042225766044711</v>
       </c>
       <c r="J6">
-        <v>1.01838442028011</v>
+        <v>1.018384420280108</v>
       </c>
       <c r="K6">
-        <v>1.024453653484982</v>
+        <v>1.024453653484981</v>
       </c>
       <c r="L6">
-        <v>1.014666668313292</v>
+        <v>1.014666668313291</v>
       </c>
       <c r="M6">
-        <v>0.9914730205358653</v>
+        <v>0.9914730205358642</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9971223953438502</v>
+        <v>0.9971223953438508</v>
       </c>
       <c r="D7">
-        <v>1.012911957807515</v>
+        <v>1.012911957807516</v>
       </c>
       <c r="E7">
-        <v>1.002894876720066</v>
+        <v>1.002894876720067</v>
       </c>
       <c r="F7">
-        <v>0.9779900840674293</v>
+        <v>0.9779900840674297</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.041364233844333</v>
       </c>
       <c r="J7">
-        <v>1.016593880318805</v>
+        <v>1.016593880318806</v>
       </c>
       <c r="K7">
-        <v>1.022854055142949</v>
+        <v>1.022854055142951</v>
       </c>
       <c r="L7">
-        <v>1.012955498479526</v>
+        <v>1.012955498479527</v>
       </c>
       <c r="M7">
-        <v>0.9883585206153095</v>
+        <v>0.9883585206153099</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9868247291318422</v>
+        <v>0.9868247291318412</v>
       </c>
       <c r="D8">
-        <v>1.00478414677577</v>
+        <v>1.004784146775769</v>
       </c>
       <c r="E8">
-        <v>0.9942759617673432</v>
+        <v>0.9942759617673422</v>
       </c>
       <c r="F8">
-        <v>0.9630964795920621</v>
+        <v>0.9630964795920612</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037594179454579</v>
+        <v>1.037594179454578</v>
       </c>
       <c r="J8">
-        <v>1.008822145648435</v>
+        <v>1.008822145648434</v>
       </c>
       <c r="K8">
         <v>1.015899701394394</v>
       </c>
       <c r="L8">
-        <v>1.005534031144301</v>
+        <v>1.0055340311443</v>
       </c>
       <c r="M8">
-        <v>0.9748006758517777</v>
+        <v>0.9748006758517769</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9671032205234896</v>
+        <v>0.9671032205234903</v>
       </c>
       <c r="D9">
-        <v>0.9892058021726926</v>
+        <v>0.9892058021726929</v>
       </c>
       <c r="E9">
-        <v>0.977820942185072</v>
+        <v>0.9778209421850725</v>
       </c>
       <c r="F9">
-        <v>0.9342272567358152</v>
+        <v>0.9342272567358154</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.030223769458861</v>
       </c>
       <c r="J9">
-        <v>0.9938736333871014</v>
+        <v>0.9938736333871023</v>
       </c>
       <c r="K9">
         <v>1.002476469549639</v>
       </c>
       <c r="L9">
-        <v>0.9912844095052294</v>
+        <v>0.99128440950523</v>
       </c>
       <c r="M9">
-        <v>0.948485915635558</v>
+        <v>0.9484859156355583</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9526392567272557</v>
+        <v>0.952639256727256</v>
       </c>
       <c r="D10">
-        <v>0.9777747306414546</v>
+        <v>0.9777747306414548</v>
       </c>
       <c r="E10">
-        <v>0.96579693828684</v>
+        <v>0.9657969382868407</v>
       </c>
       <c r="F10">
-        <v>0.9126968313483287</v>
+        <v>0.9126968313483295</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.024715803778443</v>
       </c>
       <c r="J10">
-        <v>0.9828666541037444</v>
+        <v>0.9828666541037449</v>
       </c>
       <c r="K10">
-        <v>0.9925572087520113</v>
+        <v>0.9925572087520117</v>
       </c>
       <c r="L10">
-        <v>0.980812475945977</v>
+        <v>0.9808124759459776</v>
       </c>
       <c r="M10">
-        <v>0.9288441181849306</v>
+        <v>0.9288441181849313</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9459909722736209</v>
+        <v>0.9459909722736217</v>
       </c>
       <c r="D11">
-        <v>0.9725195841131026</v>
+        <v>0.9725195841131035</v>
       </c>
       <c r="E11">
-        <v>0.9602831013944918</v>
+        <v>0.9602831013944926</v>
       </c>
       <c r="F11">
-        <v>0.9026786258447008</v>
+        <v>0.9026786258447022</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.022159672803708</v>
       </c>
       <c r="J11">
-        <v>0.9777969662162478</v>
+        <v>0.9777969662162487</v>
       </c>
       <c r="K11">
-        <v>0.9879790394664186</v>
+        <v>0.9879790394664194</v>
       </c>
       <c r="L11">
-        <v>0.9759950091183007</v>
+        <v>0.9759950091183015</v>
       </c>
       <c r="M11">
-        <v>0.9197030778649691</v>
+        <v>0.9197030778649705</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9434558318672221</v>
+        <v>0.94345583186722</v>
       </c>
       <c r="D12">
-        <v>0.9705155578338784</v>
+        <v>0.9705155578338763</v>
       </c>
       <c r="E12">
-        <v>0.9581827316448274</v>
+        <v>0.9581827316448256</v>
       </c>
       <c r="F12">
-        <v>0.8988360111335613</v>
+        <v>0.898836011133559</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021181269387841</v>
+        <v>1.02118126938784</v>
       </c>
       <c r="J12">
-        <v>0.9758621987405615</v>
+        <v>0.9758621987405592</v>
       </c>
       <c r="K12">
-        <v>0.9862303057554737</v>
+        <v>0.9862303057554718</v>
       </c>
       <c r="L12">
-        <v>0.9741574662192564</v>
+        <v>0.9741574662192545</v>
       </c>
       <c r="M12">
-        <v>0.9161969268151</v>
+        <v>0.9161969268150978</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.944002742665064</v>
+        <v>0.9440027426650641</v>
       </c>
       <c r="D13">
-        <v>0.9709478957962233</v>
+        <v>0.9709478957962232</v>
       </c>
       <c r="E13">
-        <v>0.9586357460926854</v>
+        <v>0.9586357460926856</v>
       </c>
       <c r="F13">
-        <v>0.8996660756001316</v>
+        <v>0.899666075600132</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.021392509361353</v>
       </c>
       <c r="J13">
-        <v>0.9762796617680092</v>
+        <v>0.9762796617680093</v>
       </c>
       <c r="K13">
         <v>0.9866077005256507</v>
       </c>
       <c r="L13">
-        <v>0.9745539057264813</v>
+        <v>0.9745539057264814</v>
       </c>
       <c r="M13">
-        <v>0.9169543043543893</v>
+        <v>0.9169543043543897</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9457828072721335</v>
+        <v>0.9457828072721345</v>
       </c>
       <c r="D14">
-        <v>0.9723550322977709</v>
+        <v>0.9723550322977716</v>
       </c>
       <c r="E14">
-        <v>0.9601105906311006</v>
+        <v>0.9601105906311015</v>
       </c>
       <c r="F14">
-        <v>0.902363583280429</v>
+        <v>0.9023635832804299</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.022079409226974</v>
       </c>
       <c r="J14">
-        <v>0.977638131113916</v>
+        <v>0.977638131113917</v>
       </c>
       <c r="K14">
-        <v>0.9878355089525246</v>
+        <v>0.9878355089525253</v>
       </c>
       <c r="L14">
-        <v>0.9758441354617162</v>
+        <v>0.975844135461717</v>
       </c>
       <c r="M14">
-        <v>0.9194156187553927</v>
+        <v>0.9194156187553936</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9468706014154495</v>
+        <v>0.9468706014154487</v>
       </c>
       <c r="D15">
-        <v>0.973214915029385</v>
+        <v>0.973214915029384</v>
       </c>
       <c r="E15">
-        <v>0.9610121585880484</v>
+        <v>0.9610121585880476</v>
       </c>
       <c r="F15">
-        <v>0.9040089438053869</v>
+        <v>0.9040089438053858</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022498687497557</v>
+        <v>1.022498687497556</v>
       </c>
       <c r="J15">
-        <v>0.978468081003128</v>
+        <v>0.978468081003127</v>
       </c>
       <c r="K15">
-        <v>0.9885854253884749</v>
+        <v>0.9885854253884742</v>
       </c>
       <c r="L15">
-        <v>0.9766325248274667</v>
+        <v>0.9766325248274658</v>
       </c>
       <c r="M15">
-        <v>0.9209169225682875</v>
+        <v>0.9209169225682864</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9530717345450558</v>
+        <v>0.9530717345450547</v>
       </c>
       <c r="D16">
-        <v>0.9781165665047032</v>
+        <v>0.9781165665047027</v>
       </c>
       <c r="E16">
-        <v>0.9661559040215533</v>
+        <v>0.9661559040215525</v>
       </c>
       <c r="F16">
-        <v>0.9133456986034966</v>
+        <v>0.9133456986034958</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.024881579204599</v>
       </c>
       <c r="J16">
-        <v>0.9831962277716105</v>
+        <v>0.9831962277716095</v>
       </c>
       <c r="K16">
-        <v>0.9928546253722079</v>
+        <v>0.9928546253722073</v>
       </c>
       <c r="L16">
-        <v>0.9811257796879447</v>
+        <v>0.9811257796879438</v>
       </c>
       <c r="M16">
-        <v>0.9294361594405282</v>
+        <v>0.9294361594405272</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9568533641879037</v>
+        <v>0.9568533641879041</v>
       </c>
       <c r="D17">
-        <v>0.9811055162775734</v>
+        <v>0.9811055162775736</v>
       </c>
       <c r="E17">
-        <v>0.9692962082166303</v>
+        <v>0.9692962082166309</v>
       </c>
       <c r="F17">
-        <v>0.9190054478539548</v>
+        <v>0.9190054478539553</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.026328403794025</v>
       </c>
       <c r="J17">
-        <v>0.9860768910731595</v>
+        <v>0.9860768910731598</v>
       </c>
       <c r="K17">
-        <v>0.995453148316347</v>
+        <v>0.9954531483163472</v>
       </c>
       <c r="L17">
-        <v>0.9838648904995572</v>
+        <v>0.9838648904995576</v>
       </c>
       <c r="M17">
-        <v>0.934600087082703</v>
+        <v>0.9346000870827036</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9590225495133903</v>
+        <v>0.9590225495133913</v>
       </c>
       <c r="D18">
-        <v>0.982819926281144</v>
+        <v>0.9828199262811447</v>
       </c>
       <c r="E18">
-        <v>0.9710987087830351</v>
+        <v>0.9710987087830356</v>
       </c>
       <c r="F18">
-        <v>0.9222409145725849</v>
+        <v>0.9222409145725861</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.027156048466795</v>
       </c>
       <c r="J18">
-        <v>0.9877283075591755</v>
+        <v>0.9877283075591764</v>
       </c>
       <c r="K18">
-        <v>0.9969419494838941</v>
+        <v>0.9969419494838948</v>
       </c>
       <c r="L18">
-        <v>0.9854356886797553</v>
+        <v>0.985435688679756</v>
       </c>
       <c r="M18">
-        <v>0.9375519422196479</v>
+        <v>0.937551942219649</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9597561935381645</v>
+        <v>0.9597561935381641</v>
       </c>
       <c r="D19">
-        <v>0.9833997446340224</v>
+        <v>0.983399744634022</v>
       </c>
       <c r="E19">
-        <v>0.9717085305793226</v>
+        <v>0.9717085305793224</v>
       </c>
       <c r="F19">
-        <v>0.9233334219939655</v>
+        <v>0.9233334219939647</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.027435582919874</v>
       </c>
       <c r="J19">
-        <v>0.9882866727640088</v>
+        <v>0.9882866727640086</v>
       </c>
       <c r="K19">
-        <v>0.9974451877002621</v>
+        <v>0.9974451877002617</v>
       </c>
       <c r="L19">
-        <v>0.9859668831913712</v>
+        <v>0.9859668831913708</v>
       </c>
       <c r="M19">
-        <v>0.9385486484128245</v>
+        <v>0.9385486484128239</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.956451465560508</v>
+        <v>0.9564514655605099</v>
       </c>
       <c r="D20">
-        <v>0.9807878696295436</v>
+        <v>0.9807878696295456</v>
       </c>
       <c r="E20">
-        <v>0.9689623423578372</v>
+        <v>0.9689623423578388</v>
       </c>
       <c r="F20">
-        <v>0.9184051230814999</v>
+        <v>0.9184051230815025</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026174876666837</v>
+        <v>1.026174876666838</v>
       </c>
       <c r="J20">
-        <v>0.9857708445337483</v>
+        <v>0.9857708445337502</v>
       </c>
       <c r="K20">
-        <v>0.9951771682829481</v>
+        <v>0.99517716828295</v>
       </c>
       <c r="L20">
-        <v>0.9835738268783258</v>
+        <v>0.9835738268783276</v>
       </c>
       <c r="M20">
-        <v>0.9340523696842711</v>
+        <v>0.9340523696842734</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9452605061236569</v>
+        <v>0.9452605061236558</v>
       </c>
       <c r="D21">
-        <v>0.9719421578831897</v>
+        <v>0.9719421578831891</v>
       </c>
       <c r="E21">
-        <v>0.9596777844141275</v>
+        <v>0.9596777844141259</v>
       </c>
       <c r="F21">
-        <v>0.9015727423572242</v>
+        <v>0.9015727423572236</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.021877962680689</v>
       </c>
       <c r="J21">
-        <v>0.9772395767865402</v>
+        <v>0.9772395767865388</v>
       </c>
       <c r="K21">
-        <v>0.9874753321084707</v>
+        <v>0.98747533210847</v>
       </c>
       <c r="L21">
-        <v>0.975465574170135</v>
+        <v>0.9754655741701338</v>
       </c>
       <c r="M21">
-        <v>0.9186940209079942</v>
+        <v>0.9186940209079938</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9378392060905218</v>
+        <v>0.9378392060905225</v>
       </c>
       <c r="D22">
         <v>0.9660753890362752</v>
       </c>
       <c r="E22">
-        <v>0.9535336743502834</v>
+        <v>0.953533674350284</v>
       </c>
       <c r="F22">
-        <v>0.8902754745465762</v>
+        <v>0.8902754745465769</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019006722375432</v>
+        <v>1.019006722375433</v>
       </c>
       <c r="J22">
-        <v>0.9715727316004266</v>
+        <v>0.971572731600427</v>
       </c>
       <c r="K22">
-        <v>0.9823502468849464</v>
+        <v>0.9823502468849467</v>
       </c>
       <c r="L22">
-        <v>0.9700854743814125</v>
+        <v>0.970085474381413</v>
       </c>
       <c r="M22">
-        <v>0.9083863412410687</v>
+        <v>0.9083863412410692</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9418129319949612</v>
+        <v>0.9418129319949615</v>
       </c>
       <c r="D23">
-        <v>0.9692168125181611</v>
+        <v>0.9692168125181615</v>
       </c>
       <c r="E23">
-        <v>0.9568222327628939</v>
+        <v>0.9568222327628945</v>
       </c>
       <c r="F23">
-        <v>0.8963388542360736</v>
+        <v>0.8963388542360744</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.020546167628295</v>
       </c>
       <c r="J23">
-        <v>0.9746079203769015</v>
+        <v>0.974607920376902</v>
       </c>
       <c r="K23">
-        <v>0.985096175025613</v>
+        <v>0.9850961750256134</v>
       </c>
       <c r="L23">
-        <v>0.972966504443435</v>
+        <v>0.9729665044434355</v>
       </c>
       <c r="M23">
-        <v>0.9139184666187717</v>
+        <v>0.9139184666187724</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9566331787066904</v>
+        <v>0.956633178706688</v>
       </c>
       <c r="D24">
-        <v>0.9809314896250204</v>
+        <v>0.9809314896250183</v>
       </c>
       <c r="E24">
-        <v>0.9691132917121186</v>
+        <v>0.9691132917121162</v>
       </c>
       <c r="F24">
-        <v>0.9186765860128498</v>
+        <v>0.9186765860128473</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026244298989147</v>
+        <v>1.026244298989146</v>
       </c>
       <c r="J24">
-        <v>0.9859092224267163</v>
+        <v>0.9859092224267139</v>
       </c>
       <c r="K24">
-        <v>0.9953019544105413</v>
+        <v>0.995301954410539</v>
       </c>
       <c r="L24">
-        <v>0.9837054286523012</v>
+        <v>0.9837054286522989</v>
       </c>
       <c r="M24">
-        <v>0.9343000444502143</v>
+        <v>0.9343000444502116</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9724123519922064</v>
+        <v>0.9724123519922061</v>
       </c>
       <c r="D25">
-        <v>0.9934007153683713</v>
+        <v>0.9934007153683704</v>
       </c>
       <c r="E25">
         <v>0.9822439594867001</v>
       </c>
       <c r="F25">
-        <v>0.9420493221084654</v>
+        <v>0.9420493221084643</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.032225165611075</v>
       </c>
       <c r="J25">
-        <v>0.997905205444092</v>
+        <v>0.9979052054440917</v>
       </c>
       <c r="K25">
         <v>1.006102347922194</v>
       </c>
       <c r="L25">
-        <v>0.9951243143044738</v>
+        <v>0.9951243143044735</v>
       </c>
       <c r="M25">
-        <v>0.9556192030371324</v>
+        <v>0.9556192030371314</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9840748456159701</v>
+        <v>0.9862703685505565</v>
       </c>
       <c r="D2">
-        <v>1.002612785356736</v>
+        <v>1.004312322019514</v>
       </c>
       <c r="E2">
-        <v>0.9919774539658502</v>
+        <v>0.9938672921368897</v>
       </c>
       <c r="F2">
-        <v>0.9591001101859644</v>
+        <v>0.9609745734745486</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036577581543747</v>
+        <v>1.037537088199782</v>
       </c>
       <c r="J2">
-        <v>1.006742537309517</v>
+        <v>1.008869631479112</v>
       </c>
       <c r="K2">
-        <v>1.014035839551482</v>
+        <v>1.015711904502956</v>
       </c>
       <c r="L2">
-        <v>1.003549698779961</v>
+        <v>1.005412731733274</v>
       </c>
       <c r="M2">
-        <v>0.9711602664455821</v>
+        <v>0.973005766506813</v>
+      </c>
+      <c r="N2">
+        <v>1.010302342074777</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9920923666848281</v>
+        <v>0.9942695926672767</v>
       </c>
       <c r="D3">
-        <v>1.008942565855247</v>
+        <v>1.010629141407156</v>
       </c>
       <c r="E3">
-        <v>0.9986825905868548</v>
+        <v>1.000559245267268</v>
       </c>
       <c r="F3">
-        <v>0.9707286891801493</v>
+        <v>0.9725684090788149</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039530264690619</v>
+        <v>1.040483896848226</v>
       </c>
       <c r="J3">
-        <v>1.012800947888246</v>
+        <v>1.014917702799207</v>
       </c>
       <c r="K3">
-        <v>1.019462289397791</v>
+        <v>1.021127803106754</v>
       </c>
       <c r="L3">
-        <v>1.009332355711584</v>
+        <v>1.011184975443502</v>
       </c>
       <c r="M3">
-        <v>0.9817503280529312</v>
+        <v>0.9835647463295248</v>
+      </c>
+      <c r="N3">
+        <v>1.016359002349869</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9970946898189819</v>
+        <v>0.9992613766484804</v>
       </c>
       <c r="D4">
-        <v>1.012890098672456</v>
+        <v>1.014569262183815</v>
       </c>
       <c r="E4">
-        <v>1.002871663565418</v>
+        <v>1.004740769968489</v>
       </c>
       <c r="F4">
-        <v>0.9779501552551493</v>
+        <v>0.9797698599005911</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041354173955093</v>
+        <v>1.042304521346678</v>
       </c>
       <c r="J4">
-        <v>1.016573006838949</v>
+        <v>1.018683995376882</v>
       </c>
       <c r="K4">
-        <v>1.022835401572034</v>
+        <v>1.024494972473303</v>
       </c>
       <c r="L4">
-        <v>1.012935553258416</v>
+        <v>1.014782312843449</v>
       </c>
       <c r="M4">
-        <v>0.9883221947729895</v>
+        <v>0.9901187368143168</v>
+      </c>
+      <c r="N4">
+        <v>1.020130643495004</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.999156231358419</v>
+        <v>1.001318765130069</v>
       </c>
       <c r="D5">
-        <v>1.014516472490075</v>
+        <v>1.016192727880662</v>
       </c>
       <c r="E5">
-        <v>1.004599286972268</v>
+        <v>1.006465429884284</v>
       </c>
       <c r="F5">
-        <v>0.9809192688323219</v>
+        <v>0.9827310770335834</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042101413644105</v>
+        <v>1.043050490603936</v>
       </c>
       <c r="J5">
-        <v>1.018125613562419</v>
+        <v>1.020234374619027</v>
       </c>
       <c r="K5">
-        <v>1.024222509333006</v>
+        <v>1.025879770393469</v>
       </c>
       <c r="L5">
-        <v>1.014419302364428</v>
+        <v>1.016263785642224</v>
       </c>
       <c r="M5">
-        <v>0.991023032672904</v>
+        <v>0.9928125298509926</v>
+      </c>
+      <c r="N5">
+        <v>1.021683224453504</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9995000242811065</v>
+        <v>1.001661876135345</v>
       </c>
       <c r="D6">
-        <v>1.01478766561281</v>
+        <v>1.016463444246056</v>
       </c>
       <c r="E6">
-        <v>1.004887463934798</v>
+        <v>1.006753120904637</v>
       </c>
       <c r="F6">
-        <v>0.981414033456549</v>
+        <v>0.9832245443157761</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042225766044711</v>
+        <v>1.04317463583016</v>
       </c>
       <c r="J6">
-        <v>1.018384420280108</v>
+        <v>1.020492818230684</v>
       </c>
       <c r="K6">
-        <v>1.024453653484981</v>
+        <v>1.026110537162919</v>
       </c>
       <c r="L6">
-        <v>1.014666668313291</v>
+        <v>1.016510779776252</v>
       </c>
       <c r="M6">
-        <v>0.9914730205358642</v>
+        <v>0.9932613607527516</v>
+      </c>
+      <c r="N6">
+        <v>1.021942035084734</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9971223953438508</v>
+        <v>0.9992890256296844</v>
       </c>
       <c r="D7">
-        <v>1.012911957807516</v>
+        <v>1.014591081674021</v>
       </c>
       <c r="E7">
-        <v>1.002894876720067</v>
+        <v>1.004763942730915</v>
       </c>
       <c r="F7">
-        <v>0.9779900840674297</v>
+        <v>0.9798096812510748</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041364233844333</v>
+        <v>1.042314563841979</v>
       </c>
       <c r="J7">
-        <v>1.016593880318806</v>
+        <v>1.018704838349446</v>
       </c>
       <c r="K7">
-        <v>1.022854055142951</v>
+        <v>1.02451359446713</v>
       </c>
       <c r="L7">
-        <v>1.012955498479527</v>
+        <v>1.014802226939926</v>
       </c>
       <c r="M7">
-        <v>0.9883585206153099</v>
+        <v>0.9901549667521469</v>
+      </c>
+      <c r="N7">
+        <v>1.02015151606698</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9868247291318412</v>
+        <v>0.9890137772176864</v>
       </c>
       <c r="D8">
-        <v>1.004784146775769</v>
+        <v>1.006479084630545</v>
       </c>
       <c r="E8">
-        <v>0.9942759617673422</v>
+        <v>0.9961611244640615</v>
       </c>
       <c r="F8">
-        <v>0.9630964795920612</v>
+        <v>0.9649586426045986</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037594179454578</v>
+        <v>1.038551585211217</v>
       </c>
       <c r="J8">
-        <v>1.008822145648434</v>
+        <v>1.010945538239988</v>
       </c>
       <c r="K8">
-        <v>1.015899701394394</v>
+        <v>1.017572002046682</v>
       </c>
       <c r="L8">
-        <v>1.0055340311443</v>
+        <v>1.007393348088447</v>
       </c>
       <c r="M8">
-        <v>0.9748006758517769</v>
+        <v>0.9766351657466634</v>
+      </c>
+      <c r="N8">
+        <v>1.012381196861363</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9671032205234903</v>
+        <v>0.9693436084018315</v>
       </c>
       <c r="D9">
-        <v>0.9892058021726929</v>
+        <v>0.9909374994330242</v>
       </c>
       <c r="E9">
-        <v>0.9778209421850725</v>
+        <v>0.9797434107500586</v>
       </c>
       <c r="F9">
-        <v>0.9342272567358154</v>
+        <v>0.9361874628761307</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030223769458861</v>
+        <v>1.031198338719761</v>
       </c>
       <c r="J9">
-        <v>0.9938736333871023</v>
+        <v>0.9960273873731098</v>
       </c>
       <c r="K9">
-        <v>1.002476469549639</v>
+        <v>1.004179340777002</v>
       </c>
       <c r="L9">
-        <v>0.99128440950523</v>
+        <v>0.9931739152702772</v>
       </c>
       <c r="M9">
-        <v>0.9484859156355583</v>
+        <v>0.9504082830032127</v>
+      </c>
+      <c r="N9">
+        <v>0.9974418605091178</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.952639256727256</v>
+        <v>0.95492525787939</v>
       </c>
       <c r="D10">
-        <v>0.9777747306414548</v>
+        <v>0.979539541487972</v>
       </c>
       <c r="E10">
-        <v>0.9657969382868407</v>
+        <v>0.9677528832776938</v>
       </c>
       <c r="F10">
-        <v>0.9126968313483295</v>
+        <v>0.9147457245777912</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024715803778443</v>
+        <v>1.02570633624799</v>
       </c>
       <c r="J10">
-        <v>0.9828666541037449</v>
+        <v>0.9850488610762672</v>
       </c>
       <c r="K10">
-        <v>0.9925572087520117</v>
+        <v>0.9942883107241149</v>
       </c>
       <c r="L10">
-        <v>0.9808124759459776</v>
+        <v>0.9827298454161463</v>
       </c>
       <c r="M10">
-        <v>0.9288441181849313</v>
+        <v>0.9308460864568985</v>
+      </c>
+      <c r="N10">
+        <v>0.9864477434456791</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9459909722736217</v>
+        <v>0.948300530138445</v>
       </c>
       <c r="D11">
-        <v>0.9725195841131035</v>
+        <v>0.9743016315230837</v>
       </c>
       <c r="E11">
-        <v>0.9602831013944926</v>
+        <v>0.9622564222779934</v>
       </c>
       <c r="F11">
-        <v>0.9026786258447022</v>
+        <v>0.9047740952987385</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022159672803708</v>
+        <v>1.023158635389357</v>
       </c>
       <c r="J11">
-        <v>0.9777969662162487</v>
+        <v>0.9799942662491332</v>
       </c>
       <c r="K11">
-        <v>0.9879790394664194</v>
+        <v>0.9897250177497735</v>
       </c>
       <c r="L11">
-        <v>0.9759950091183015</v>
+        <v>0.9779270442231389</v>
       </c>
       <c r="M11">
-        <v>0.9197030778649705</v>
+        <v>0.9217468541385484</v>
+      </c>
+      <c r="N11">
+        <v>0.9813859705141204</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.94345583186722</v>
+        <v>0.9457748427097511</v>
       </c>
       <c r="D12">
-        <v>0.9705155578338763</v>
+        <v>0.9723045457732408</v>
       </c>
       <c r="E12">
-        <v>0.9581827316448256</v>
+        <v>0.9601630394023299</v>
       </c>
       <c r="F12">
-        <v>0.898836011133559</v>
+        <v>0.9009503348413598</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02118126938784</v>
+        <v>1.022183644856823</v>
       </c>
       <c r="J12">
-        <v>0.9758621987405592</v>
+        <v>0.9780656204302829</v>
       </c>
       <c r="K12">
-        <v>0.9862303057554718</v>
+        <v>0.9879823032272023</v>
       </c>
       <c r="L12">
-        <v>0.9741574662192545</v>
+        <v>0.9760954309400368</v>
       </c>
       <c r="M12">
-        <v>0.9161969268150978</v>
+        <v>0.9182576250680327</v>
+      </c>
+      <c r="N12">
+        <v>0.9794545857969887</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9440027426650641</v>
+        <v>0.9463196914455321</v>
       </c>
       <c r="D13">
-        <v>0.9709478957962232</v>
+        <v>0.9727353686064798</v>
       </c>
       <c r="E13">
-        <v>0.9586357460926856</v>
+        <v>0.9606145290854173</v>
       </c>
       <c r="F13">
-        <v>0.899666075600132</v>
+        <v>0.9017762782149555</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021392509361353</v>
+        <v>1.022394138964811</v>
       </c>
       <c r="J13">
-        <v>0.9762796617680093</v>
+        <v>0.9784817450817923</v>
       </c>
       <c r="K13">
-        <v>0.9866077005256507</v>
+        <v>0.9883583826667972</v>
       </c>
       <c r="L13">
-        <v>0.9745539057264814</v>
+        <v>0.9764905749177639</v>
       </c>
       <c r="M13">
-        <v>0.9169543043543897</v>
+        <v>0.9190113040059268</v>
+      </c>
+      <c r="N13">
+        <v>0.9798713013932336</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9457828072721345</v>
+        <v>0.9480931312778837</v>
       </c>
       <c r="D14">
-        <v>0.9723550322977716</v>
+        <v>0.9741376417249847</v>
       </c>
       <c r="E14">
-        <v>0.9601105906311015</v>
+        <v>0.9620844774942864</v>
       </c>
       <c r="F14">
-        <v>0.9023635832804299</v>
+        <v>0.9044605772461304</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022079409226974</v>
+        <v>1.023078647807548</v>
       </c>
       <c r="J14">
-        <v>0.977638131113917</v>
+        <v>0.9798359259652757</v>
       </c>
       <c r="K14">
-        <v>0.9878355089525253</v>
+        <v>0.9895819740577652</v>
       </c>
       <c r="L14">
-        <v>0.975844135461717</v>
+        <v>0.9777766502417197</v>
       </c>
       <c r="M14">
-        <v>0.9194156187553936</v>
+        <v>0.9214607633598287</v>
+      </c>
+      <c r="N14">
+        <v>0.981227405368898</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9468706014154487</v>
+        <v>0.9491769414413449</v>
       </c>
       <c r="D15">
-        <v>0.973214915029384</v>
+        <v>0.9749946028972578</v>
       </c>
       <c r="E15">
-        <v>0.9610121585880476</v>
+        <v>0.9629831028917272</v>
       </c>
       <c r="F15">
-        <v>0.9040089438053858</v>
+        <v>0.9060980170316896</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022498687497556</v>
+        <v>1.023496492091489</v>
       </c>
       <c r="J15">
-        <v>0.978468081003127</v>
+        <v>0.9806633053807866</v>
       </c>
       <c r="K15">
-        <v>0.9885854253884742</v>
+        <v>0.9903293609878741</v>
       </c>
       <c r="L15">
-        <v>0.9766325248274658</v>
+        <v>0.9785625470529298</v>
       </c>
       <c r="M15">
-        <v>0.9209169225682864</v>
+        <v>0.9229549577858306</v>
+      </c>
+      <c r="N15">
+        <v>0.9820559597580806</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9530717345450547</v>
+        <v>0.9553562628219172</v>
       </c>
       <c r="D16">
-        <v>0.9781165665047027</v>
+        <v>0.9798803025369645</v>
       </c>
       <c r="E16">
-        <v>0.9661559040215525</v>
+        <v>0.9681107643748469</v>
       </c>
       <c r="F16">
-        <v>0.9133456986034958</v>
+        <v>0.9153916983203263</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024881579204599</v>
+        <v>1.025871588374178</v>
       </c>
       <c r="J16">
-        <v>0.9831962277716095</v>
+        <v>0.9853774992446841</v>
       </c>
       <c r="K16">
-        <v>0.9928546253722073</v>
+        <v>0.9945848033818191</v>
       </c>
       <c r="L16">
-        <v>0.9811257796879438</v>
+        <v>0.9830422378200742</v>
       </c>
       <c r="M16">
-        <v>0.9294361594405272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9314355302998124</v>
+      </c>
+      <c r="N16">
+        <v>0.9867768483179906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9568533641879041</v>
+        <v>0.9591253104604859</v>
       </c>
       <c r="D17">
-        <v>0.9811055162775736</v>
+        <v>0.9828600852024626</v>
       </c>
       <c r="E17">
-        <v>0.9692962082166309</v>
+        <v>0.9712418123131316</v>
       </c>
       <c r="F17">
-        <v>0.9190054478539553</v>
+        <v>0.9210268150644387</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026328403794025</v>
+        <v>1.027313962375857</v>
       </c>
       <c r="J17">
-        <v>0.9860768910731598</v>
+        <v>0.9882502133909024</v>
       </c>
       <c r="K17">
-        <v>0.9954531483163472</v>
+        <v>0.9971754649690771</v>
       </c>
       <c r="L17">
-        <v>0.9838648904995576</v>
+        <v>0.9857735927567893</v>
       </c>
       <c r="M17">
-        <v>0.9346000870827036</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9365773462890647</v>
+      </c>
+      <c r="N17">
+        <v>0.9896536420478014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9590225495133913</v>
+        <v>0.9612875135258075</v>
       </c>
       <c r="D18">
-        <v>0.9828199262811447</v>
+        <v>0.9845694194870436</v>
       </c>
       <c r="E18">
-        <v>0.9710987087830356</v>
+        <v>0.9730391836884614</v>
       </c>
       <c r="F18">
-        <v>0.9222409145725861</v>
+        <v>0.9242486760264557</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027156048466795</v>
+        <v>1.028139153211377</v>
       </c>
       <c r="J18">
-        <v>0.9877283075591764</v>
+        <v>0.989897252778648</v>
       </c>
       <c r="K18">
-        <v>0.9969419494838948</v>
+        <v>0.9986599289239991</v>
       </c>
       <c r="L18">
-        <v>0.985435688679756</v>
+        <v>0.9873401105625085</v>
       </c>
       <c r="M18">
-        <v>0.937551942219649</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9395169885474506</v>
+      </c>
+      <c r="N18">
+        <v>0.9913030204203958</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9597561935381641</v>
+        <v>0.9620188338922769</v>
       </c>
       <c r="D19">
-        <v>0.983399744634022</v>
+        <v>0.9851475505396829</v>
       </c>
       <c r="E19">
-        <v>0.9717085305793224</v>
+        <v>0.973647299763424</v>
       </c>
       <c r="F19">
-        <v>0.9233334219939647</v>
+        <v>0.9253366652654711</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027435582919874</v>
+        <v>1.028417873706041</v>
       </c>
       <c r="J19">
-        <v>0.9882866727640086</v>
+        <v>0.9904541669924</v>
       </c>
       <c r="K19">
-        <v>0.9974451877002617</v>
+        <v>0.9991617279311874</v>
       </c>
       <c r="L19">
-        <v>0.9859668831913708</v>
+        <v>0.9878698845335467</v>
       </c>
       <c r="M19">
-        <v>0.9385486484128239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9405096392462122</v>
+      </c>
+      <c r="N19">
+        <v>0.9918607255162099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9564514655605099</v>
+        <v>0.9587247240524015</v>
       </c>
       <c r="D20">
-        <v>0.9807878696295456</v>
+        <v>0.9825433933936987</v>
       </c>
       <c r="E20">
-        <v>0.9689623423578388</v>
+        <v>0.9709089110261467</v>
       </c>
       <c r="F20">
-        <v>0.9184051230815025</v>
+        <v>0.9204290522995336</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026174876666838</v>
+        <v>1.027160897720224</v>
       </c>
       <c r="J20">
-        <v>0.9857708445337502</v>
+        <v>0.9879449922593678</v>
       </c>
       <c r="K20">
-        <v>0.99517716828295</v>
+        <v>0.9969003021201047</v>
       </c>
       <c r="L20">
-        <v>0.9835738268783276</v>
+        <v>0.9854833355083021</v>
       </c>
       <c r="M20">
-        <v>0.9340523696842734</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9360319286700343</v>
+      </c>
+      <c r="N20">
+        <v>0.9893479874672507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9452605061236558</v>
+        <v>0.947572760296888</v>
       </c>
       <c r="D21">
-        <v>0.9719421578831891</v>
+        <v>0.9737261836112054</v>
       </c>
       <c r="E21">
-        <v>0.9596777844141259</v>
+        <v>0.9616530974000136</v>
       </c>
       <c r="F21">
-        <v>0.9015727423572236</v>
+        <v>0.9036735798641772</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021877962680689</v>
+        <v>1.022877897069111</v>
       </c>
       <c r="J21">
-        <v>0.9772395767865388</v>
+        <v>0.9794386193023072</v>
       </c>
       <c r="K21">
-        <v>0.98747533210847</v>
+        <v>0.9892230244864616</v>
       </c>
       <c r="L21">
-        <v>0.9754655741701338</v>
+        <v>0.9773992981307593</v>
       </c>
       <c r="M21">
-        <v>0.9186940209079938</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9207426152536399</v>
+      </c>
+      <c r="N21">
+        <v>0.9808295344848963</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9378392060905225</v>
+        <v>0.9401801439421388</v>
       </c>
       <c r="D22">
-        <v>0.9660753890362752</v>
+        <v>0.9678805263087403</v>
       </c>
       <c r="E22">
-        <v>0.953533674350284</v>
+        <v>0.9555302173232627</v>
       </c>
       <c r="F22">
-        <v>0.8902754745465769</v>
+        <v>0.8924339121658463</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019006722375433</v>
+        <v>1.020017074343377</v>
       </c>
       <c r="J22">
-        <v>0.971572731600427</v>
+        <v>0.9737904834883967</v>
       </c>
       <c r="K22">
-        <v>0.9823502468849467</v>
+        <v>0.9841163075472606</v>
       </c>
       <c r="L22">
-        <v>0.970085474381413</v>
+        <v>0.9720372821903648</v>
       </c>
       <c r="M22">
-        <v>0.9083863412410692</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9104866247257247</v>
+      </c>
+      <c r="N22">
+        <v>0.97517337767028</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9418129319949615</v>
+        <v>0.9441382138165457</v>
       </c>
       <c r="D23">
-        <v>0.9692168125181615</v>
+        <v>0.9710104119770073</v>
       </c>
       <c r="E23">
-        <v>0.9568222327628945</v>
+        <v>0.9588071797069811</v>
       </c>
       <c r="F23">
-        <v>0.8963388542360744</v>
+        <v>0.8984657393464239</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020546167628295</v>
+        <v>1.021550815979853</v>
       </c>
       <c r="J23">
-        <v>0.974607920376902</v>
+        <v>0.9768154222631568</v>
       </c>
       <c r="K23">
-        <v>0.9850961750256134</v>
+        <v>0.9868521803351133</v>
       </c>
       <c r="L23">
-        <v>0.9729665044434355</v>
+        <v>0.9749084158606118</v>
       </c>
       <c r="M23">
-        <v>0.9139184666187724</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9159904379364944</v>
+      </c>
+      <c r="N23">
+        <v>0.9782026122050653</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.956633178706688</v>
+        <v>0.9589058431706137</v>
       </c>
       <c r="D24">
-        <v>0.9809314896250183</v>
+        <v>0.9826865811074218</v>
       </c>
       <c r="E24">
-        <v>0.9691132917121162</v>
+        <v>0.9710594237053226</v>
       </c>
       <c r="F24">
-        <v>0.9186765860128473</v>
+        <v>0.9206993552385867</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026244298989146</v>
+        <v>1.027230110636226</v>
       </c>
       <c r="J24">
-        <v>0.9859092224267139</v>
+        <v>0.988082996391217</v>
       </c>
       <c r="K24">
-        <v>0.995301954410539</v>
+        <v>0.9970247182371172</v>
       </c>
       <c r="L24">
-        <v>0.9837054286522989</v>
+        <v>0.9856145721712716</v>
       </c>
       <c r="M24">
-        <v>0.9343000444502116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9362785621702094</v>
+      </c>
+      <c r="N24">
+        <v>0.9894861875807961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9724123519922061</v>
+        <v>0.9746377616863694</v>
       </c>
       <c r="D25">
-        <v>0.9934007153683704</v>
+        <v>0.9951216244644767</v>
       </c>
       <c r="E25">
-        <v>0.9822439594867001</v>
+        <v>0.9841554951279337</v>
       </c>
       <c r="F25">
-        <v>0.9420493221084643</v>
+        <v>0.9439807728429815</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032225165611075</v>
+        <v>1.033194621476873</v>
       </c>
       <c r="J25">
-        <v>0.9979052054440917</v>
+        <v>1.000049886411913</v>
       </c>
       <c r="K25">
-        <v>1.006102347922194</v>
+        <v>1.007796145941582</v>
       </c>
       <c r="L25">
-        <v>0.9951243143044735</v>
+        <v>0.9970048594163226</v>
       </c>
       <c r="M25">
-        <v>0.9556192030371314</v>
+        <v>0.957515774853932</v>
+      </c>
+      <c r="N25">
+        <v>1.001470071957943</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9862703685505565</v>
+        <v>0.9894726026997565</v>
       </c>
       <c r="D2">
-        <v>1.004312322019514</v>
+        <v>1.008029426074179</v>
       </c>
       <c r="E2">
-        <v>0.9938672921368897</v>
+        <v>0.9967996060028258</v>
       </c>
       <c r="F2">
-        <v>0.9609745734745486</v>
+        <v>0.9594795708320395</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037537088199782</v>
+        <v>1.034858258747677</v>
       </c>
       <c r="J2">
-        <v>1.008869631479112</v>
+        <v>1.011972811277876</v>
       </c>
       <c r="K2">
-        <v>1.015711904502956</v>
+        <v>1.019378020261305</v>
       </c>
       <c r="L2">
-        <v>1.005412731733274</v>
+        <v>1.008303708204515</v>
       </c>
       <c r="M2">
-        <v>0.973005766506813</v>
+        <v>0.9715338521955592</v>
       </c>
       <c r="N2">
-        <v>1.010302342074777</v>
+        <v>1.013409928744794</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9942695926672767</v>
+        <v>0.9969222948492283</v>
       </c>
       <c r="D3">
-        <v>1.010629141407156</v>
+        <v>1.013777908546507</v>
       </c>
       <c r="E3">
-        <v>1.000559245267268</v>
+        <v>1.002996149918947</v>
       </c>
       <c r="F3">
-        <v>0.9725684090788149</v>
+        <v>0.9724459075669849</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040483896848226</v>
+        <v>1.037523930800597</v>
       </c>
       <c r="J3">
-        <v>1.014917702799207</v>
+        <v>1.017497214298242</v>
       </c>
       <c r="K3">
-        <v>1.021127803106754</v>
+        <v>1.02423748215868</v>
       </c>
       <c r="L3">
-        <v>1.011184975443502</v>
+        <v>1.013590837455644</v>
       </c>
       <c r="M3">
-        <v>0.9835647463295248</v>
+        <v>0.9834439258298996</v>
       </c>
       <c r="N3">
-        <v>1.016359002349869</v>
+        <v>1.018942177051107</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9992613766484804</v>
+        <v>1.001585041051294</v>
       </c>
       <c r="D4">
-        <v>1.014569262183815</v>
+        <v>1.017375627867116</v>
       </c>
       <c r="E4">
-        <v>1.004740769968489</v>
+        <v>1.006880451978592</v>
       </c>
       <c r="F4">
-        <v>0.9797698599005911</v>
+        <v>0.9804351040650072</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042304521346678</v>
+        <v>1.039172043974717</v>
       </c>
       <c r="J4">
-        <v>1.018683995376882</v>
+        <v>1.020948288038197</v>
       </c>
       <c r="K4">
-        <v>1.024494972473303</v>
+        <v>1.027268771656916</v>
       </c>
       <c r="L4">
-        <v>1.014782312843449</v>
+        <v>1.016896539281249</v>
       </c>
       <c r="M4">
-        <v>0.9901187368143168</v>
+        <v>0.990775540032835</v>
       </c>
       <c r="N4">
-        <v>1.020130643495004</v>
+        <v>1.022398151711617</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001318765130069</v>
+        <v>1.003509914442178</v>
       </c>
       <c r="D5">
-        <v>1.016192727880662</v>
+        <v>1.018860736982131</v>
       </c>
       <c r="E5">
-        <v>1.006465429884284</v>
+        <v>1.008485293915621</v>
       </c>
       <c r="F5">
-        <v>0.9827310770335834</v>
+        <v>0.9837066364180083</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043050490603936</v>
+        <v>1.039847672495778</v>
       </c>
       <c r="J5">
-        <v>1.020234374619027</v>
+        <v>1.022371357971437</v>
       </c>
       <c r="K5">
-        <v>1.025879770393469</v>
+        <v>1.028517705969869</v>
       </c>
       <c r="L5">
-        <v>1.016263785642224</v>
+        <v>1.018260317432627</v>
       </c>
       <c r="M5">
-        <v>0.9928125298509926</v>
+        <v>0.9937761183088309</v>
       </c>
       <c r="N5">
-        <v>1.021683224453504</v>
+        <v>1.02382324256739</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001661876135345</v>
+        <v>1.003831101803148</v>
       </c>
       <c r="D6">
-        <v>1.016463444246056</v>
+        <v>1.019108537411874</v>
       </c>
       <c r="E6">
-        <v>1.006753120904637</v>
+        <v>1.008753155805816</v>
       </c>
       <c r="F6">
-        <v>0.9832245443157761</v>
+        <v>0.9842510648336419</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04317463583016</v>
+        <v>1.039960133112058</v>
       </c>
       <c r="J6">
-        <v>1.020492818230684</v>
+        <v>1.022608719095564</v>
       </c>
       <c r="K6">
-        <v>1.026110537162919</v>
+        <v>1.028725961692752</v>
       </c>
       <c r="L6">
-        <v>1.016510779776252</v>
+        <v>1.018487826573524</v>
       </c>
       <c r="M6">
-        <v>0.9932613607527516</v>
+        <v>0.9942753560301264</v>
       </c>
       <c r="N6">
-        <v>1.021942035084734</v>
+        <v>1.024060940771539</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9992890256296844</v>
+        <v>1.001610897191005</v>
       </c>
       <c r="D7">
-        <v>1.014591081674021</v>
+        <v>1.017395577264654</v>
       </c>
       <c r="E7">
-        <v>1.004763942730915</v>
+        <v>1.006902004114038</v>
       </c>
       <c r="F7">
-        <v>0.9798096812510748</v>
+        <v>0.9804791500740474</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042314563841979</v>
+        <v>1.03918113809095</v>
       </c>
       <c r="J7">
-        <v>1.018704838349446</v>
+        <v>1.02096740998708</v>
       </c>
       <c r="K7">
-        <v>1.02451359446713</v>
+        <v>1.027285557805628</v>
       </c>
       <c r="L7">
-        <v>1.014802226939926</v>
+        <v>1.016914861970087</v>
       </c>
       <c r="M7">
-        <v>0.9901549667521469</v>
+        <v>0.9908159448037931</v>
       </c>
       <c r="N7">
-        <v>1.02015151606698</v>
+        <v>1.02241730081586</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9890137772176864</v>
+        <v>0.9920244505063197</v>
       </c>
       <c r="D8">
-        <v>1.006479084630545</v>
+        <v>1.009998561735702</v>
       </c>
       <c r="E8">
-        <v>0.9961611244640615</v>
+        <v>0.9989208903892105</v>
       </c>
       <c r="F8">
-        <v>0.9649586426045986</v>
+        <v>0.963950388021536</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038551585211217</v>
+        <v>1.035775759264262</v>
       </c>
       <c r="J8">
-        <v>1.010945538239988</v>
+        <v>1.013866563509538</v>
       </c>
       <c r="K8">
-        <v>1.017572002046682</v>
+        <v>1.021044778243943</v>
       </c>
       <c r="L8">
-        <v>1.007393348088447</v>
+        <v>1.010115498768342</v>
       </c>
       <c r="M8">
-        <v>0.9766351657466634</v>
+        <v>0.9756418776966889</v>
       </c>
       <c r="N8">
-        <v>1.012381196861363</v>
+        <v>1.015306370321842</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9693436084018315</v>
+        <v>0.9737995225885262</v>
       </c>
       <c r="D9">
-        <v>0.9909374994330242</v>
+        <v>0.9959356288641195</v>
       </c>
       <c r="E9">
-        <v>0.9797434107500586</v>
+        <v>0.9838008137539325</v>
       </c>
       <c r="F9">
-        <v>0.9361874628761307</v>
+        <v>0.9312662046130303</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031198338719761</v>
+        <v>1.029126906972137</v>
       </c>
       <c r="J9">
-        <v>0.9960273873731098</v>
+        <v>1.000312665006105</v>
       </c>
       <c r="K9">
-        <v>1.004179340777002</v>
+        <v>1.009094993647177</v>
       </c>
       <c r="L9">
-        <v>0.9931739152702772</v>
+        <v>0.997162295399268</v>
       </c>
       <c r="M9">
-        <v>0.9504082830032127</v>
+        <v>0.9455824183042664</v>
       </c>
       <c r="N9">
-        <v>0.9974418605091178</v>
+        <v>1.00173322372788</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.95492525787939</v>
+        <v>0.9605463639706513</v>
       </c>
       <c r="D10">
-        <v>0.979539541487972</v>
+        <v>0.9857100652417421</v>
       </c>
       <c r="E10">
-        <v>0.9677528832776938</v>
+        <v>0.9728490868487656</v>
       </c>
       <c r="F10">
-        <v>0.9147457245777912</v>
+        <v>0.9061994893901303</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02570633624799</v>
+        <v>1.024154660521931</v>
       </c>
       <c r="J10">
-        <v>0.9850488610762672</v>
+        <v>0.9904177501723048</v>
       </c>
       <c r="K10">
-        <v>0.9942883107241149</v>
+        <v>1.0003422128273</v>
       </c>
       <c r="L10">
-        <v>0.9827298454161463</v>
+        <v>0.9877264956729973</v>
       </c>
       <c r="M10">
-        <v>0.9308460864568985</v>
+        <v>0.9224974617040657</v>
       </c>
       <c r="N10">
-        <v>0.9864477434456791</v>
+        <v>0.9918242569800532</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.948300530138445</v>
+        <v>0.9544863779624743</v>
       </c>
       <c r="D11">
-        <v>0.9743016315230837</v>
+        <v>0.9810343819117704</v>
       </c>
       <c r="E11">
-        <v>0.9622564222779934</v>
+        <v>0.9678536348744058</v>
       </c>
       <c r="F11">
-        <v>0.9047740952987385</v>
+        <v>0.8942819685977755</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023158635389357</v>
+        <v>1.02184221768041</v>
       </c>
       <c r="J11">
-        <v>0.9799942662491332</v>
+        <v>0.985883296765985</v>
       </c>
       <c r="K11">
-        <v>0.9897250177497735</v>
+        <v>0.9963230495619853</v>
       </c>
       <c r="L11">
-        <v>0.9779270442231389</v>
+        <v>0.9834083605248503</v>
       </c>
       <c r="M11">
-        <v>0.9217468541385484</v>
+        <v>0.9115168425202432</v>
       </c>
       <c r="N11">
-        <v>0.9813859705141204</v>
+        <v>0.9872833641297875</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9457748427097511</v>
+        <v>0.9521806925781698</v>
       </c>
       <c r="D12">
-        <v>0.9723045457732408</v>
+        <v>0.9792552831281152</v>
       </c>
       <c r="E12">
-        <v>0.9601630394023299</v>
+        <v>0.9659549841519786</v>
       </c>
       <c r="F12">
-        <v>0.9009503348413598</v>
+        <v>0.8896610129139442</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022183644856823</v>
+        <v>1.020955743447246</v>
       </c>
       <c r="J12">
-        <v>0.9780656204302829</v>
+        <v>0.9841563947966752</v>
       </c>
       <c r="K12">
-        <v>0.9879823032272023</v>
+        <v>0.9947910112222125</v>
       </c>
       <c r="L12">
-        <v>0.9760954309400368</v>
+        <v>0.981764849826064</v>
       </c>
       <c r="M12">
-        <v>0.9182576250680327</v>
+        <v>0.9072586381346603</v>
       </c>
       <c r="N12">
-        <v>0.9794545857969887</v>
+        <v>0.9855540097616028</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9463196914455321</v>
+        <v>0.9526778673805018</v>
       </c>
       <c r="D13">
-        <v>0.9727353686064798</v>
+        <v>0.9796389175891845</v>
       </c>
       <c r="E13">
-        <v>0.9606145290854173</v>
+        <v>0.9663642969118497</v>
       </c>
       <c r="F13">
-        <v>0.9017762782149555</v>
+        <v>0.8906616959569957</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022394138964811</v>
+        <v>1.021147209557915</v>
       </c>
       <c r="J13">
-        <v>0.9784817450817923</v>
+        <v>0.984528843976881</v>
       </c>
       <c r="K13">
-        <v>0.9883583826667972</v>
+        <v>0.9951214987527932</v>
       </c>
       <c r="L13">
-        <v>0.9764905749177639</v>
+        <v>0.9821192658624665</v>
       </c>
       <c r="M13">
-        <v>0.9190113040059268</v>
+        <v>0.9081807846367939</v>
       </c>
       <c r="N13">
-        <v>0.9798713013932336</v>
+        <v>0.9859269878623652</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9480931312778837</v>
+        <v>0.9542969487189807</v>
       </c>
       <c r="D14">
-        <v>0.9741376417249847</v>
+        <v>0.9808882187794954</v>
       </c>
       <c r="E14">
-        <v>0.9620844774942864</v>
+        <v>0.9676976049932973</v>
       </c>
       <c r="F14">
-        <v>0.9044605772461304</v>
+        <v>0.8939042027946089</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023078647807548</v>
+        <v>1.021769527357564</v>
       </c>
       <c r="J14">
-        <v>0.9798359259652757</v>
+        <v>0.9857414533269302</v>
       </c>
       <c r="K14">
-        <v>0.9895819740577652</v>
+        <v>0.9961972408174177</v>
       </c>
       <c r="L14">
-        <v>0.9777766502417197</v>
+        <v>0.9832733454255814</v>
       </c>
       <c r="M14">
-        <v>0.9214607633598287</v>
+        <v>0.9111687406011756</v>
       </c>
       <c r="N14">
-        <v>0.981227405368898</v>
+        <v>0.9871413192567795</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9491769414413449</v>
+        <v>0.9552870460206049</v>
       </c>
       <c r="D15">
-        <v>0.9749946028972578</v>
+        <v>0.9816521701622323</v>
       </c>
       <c r="E15">
-        <v>0.9629831028917272</v>
+        <v>0.9685132148206953</v>
       </c>
       <c r="F15">
-        <v>0.9060980170316896</v>
+        <v>0.8958750503070499</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023496492091489</v>
+        <v>1.022149185850471</v>
       </c>
       <c r="J15">
-        <v>0.9806633053807866</v>
+        <v>0.9864827642113632</v>
       </c>
       <c r="K15">
-        <v>0.9903293609878741</v>
+        <v>0.9968546931522977</v>
       </c>
       <c r="L15">
-        <v>0.9785625470529298</v>
+        <v>0.9839790112942686</v>
       </c>
       <c r="M15">
-        <v>0.9229549577858306</v>
+        <v>0.9129848088236293</v>
       </c>
       <c r="N15">
-        <v>0.9820559597580806</v>
+        <v>0.9878836828876977</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9553562628219172</v>
+        <v>0.9609412567619254</v>
       </c>
       <c r="D16">
-        <v>0.9798803025369645</v>
+        <v>0.9860147436446611</v>
       </c>
       <c r="E16">
-        <v>0.9681107643748469</v>
+        <v>0.9731748757809725</v>
       </c>
       <c r="F16">
-        <v>0.9153916983203263</v>
+        <v>0.906965313094275</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025871588374178</v>
+        <v>1.024304486986721</v>
       </c>
       <c r="J16">
-        <v>0.9853774992446841</v>
+        <v>0.990713016682943</v>
       </c>
       <c r="K16">
-        <v>0.9945848033818191</v>
+        <v>1.000603746657849</v>
       </c>
       <c r="L16">
-        <v>0.9830422378200742</v>
+        <v>0.9880078074357661</v>
       </c>
       <c r="M16">
-        <v>0.9314355302998124</v>
+        <v>0.9232029928244641</v>
       </c>
       <c r="N16">
-        <v>0.9867768483179906</v>
+        <v>0.9921199428030041</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9591253104604859</v>
+        <v>0.9643978448872748</v>
       </c>
       <c r="D17">
-        <v>0.9828600852024626</v>
+        <v>0.9886816552027551</v>
       </c>
       <c r="E17">
-        <v>0.9712418123131316</v>
+        <v>0.9760279705006591</v>
       </c>
       <c r="F17">
-        <v>0.9210268150644387</v>
+        <v>0.9136161273291947</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027313962375857</v>
+        <v>1.025611527126591</v>
       </c>
       <c r="J17">
-        <v>0.9882502133909024</v>
+        <v>0.9932964207388938</v>
       </c>
       <c r="K17">
-        <v>0.9971754649690771</v>
+        <v>1.00289108967403</v>
       </c>
       <c r="L17">
-        <v>0.9857735927567893</v>
+        <v>0.9904697900670074</v>
       </c>
       <c r="M17">
-        <v>0.9365773462890647</v>
+        <v>0.9293296362893358</v>
       </c>
       <c r="N17">
-        <v>0.9896536420478014</v>
+        <v>0.994707015589035</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9612875135258075</v>
+        <v>0.966383517779664</v>
       </c>
       <c r="D18">
-        <v>0.9845694194870436</v>
+        <v>0.990213694295064</v>
       </c>
       <c r="E18">
-        <v>0.9730391836884614</v>
+        <v>0.9776680883768376</v>
       </c>
       <c r="F18">
-        <v>0.9242486760264557</v>
+        <v>0.9173956272405609</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028139153211377</v>
+        <v>1.026358803055445</v>
       </c>
       <c r="J18">
-        <v>0.989897252778648</v>
+        <v>0.9947795609307614</v>
       </c>
       <c r="K18">
-        <v>0.9986599289239991</v>
+        <v>1.004203517701784</v>
       </c>
       <c r="L18">
-        <v>0.9873401105625085</v>
+        <v>0.9918837650533536</v>
       </c>
       <c r="M18">
-        <v>0.9395169885474506</v>
+        <v>0.9328107604741006</v>
       </c>
       <c r="N18">
-        <v>0.9913030204203958</v>
+        <v>0.9961922620100937</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9620188338922769</v>
+        <v>0.9670555819241748</v>
       </c>
       <c r="D19">
-        <v>0.9851475505396829</v>
+        <v>0.9907322254418873</v>
       </c>
       <c r="E19">
-        <v>0.973647299763424</v>
+        <v>0.9782233836894237</v>
       </c>
       <c r="F19">
-        <v>0.9253366652654711</v>
+        <v>0.9186682869173021</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028417873706041</v>
+        <v>1.026611137561416</v>
       </c>
       <c r="J19">
-        <v>0.9904541669924</v>
+        <v>0.995281385975135</v>
       </c>
       <c r="K19">
-        <v>0.9991617279311874</v>
+        <v>1.004647459580505</v>
       </c>
       <c r="L19">
-        <v>0.9878698845335467</v>
+        <v>0.9923622770124565</v>
       </c>
       <c r="M19">
-        <v>0.9405096392462122</v>
+        <v>0.933982857465925</v>
       </c>
       <c r="N19">
-        <v>0.9918607255162099</v>
+        <v>0.9966947997035903</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9587247240524015</v>
+        <v>0.9640301822505131</v>
       </c>
       <c r="D20">
-        <v>0.9825433933936987</v>
+        <v>0.9883979871343208</v>
       </c>
       <c r="E20">
-        <v>0.9709089110261467</v>
+        <v>0.9757243803833291</v>
       </c>
       <c r="F20">
-        <v>0.9204290522995336</v>
+        <v>0.9129130960577269</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027160897720224</v>
+        <v>1.025472878618436</v>
       </c>
       <c r="J20">
-        <v>0.9879449922593678</v>
+        <v>0.9930217317860003</v>
       </c>
       <c r="K20">
-        <v>0.9969003021201047</v>
+        <v>1.002647958608812</v>
       </c>
       <c r="L20">
-        <v>0.9854833355083021</v>
+        <v>0.9902079543887176</v>
       </c>
       <c r="M20">
-        <v>0.9360319286700343</v>
+        <v>0.9286820638902026</v>
       </c>
       <c r="N20">
-        <v>0.9893479874672507</v>
+        <v>0.9944319365463209</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.947572760296888</v>
+        <v>0.9538217401556534</v>
       </c>
       <c r="D21">
-        <v>0.9737261836112054</v>
+        <v>0.9805215467895166</v>
       </c>
       <c r="E21">
-        <v>0.9616530974000136</v>
+        <v>0.9673062159628044</v>
       </c>
       <c r="F21">
-        <v>0.9036735798641772</v>
+        <v>0.8929550629829821</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022877897069111</v>
+        <v>1.021587064042308</v>
       </c>
       <c r="J21">
-        <v>0.9794386193023072</v>
+        <v>0.985385593044949</v>
       </c>
       <c r="K21">
-        <v>0.9892230244864616</v>
+        <v>0.9958815859541865</v>
       </c>
       <c r="L21">
-        <v>0.9773992981307593</v>
+        <v>0.9829346329045215</v>
       </c>
       <c r="M21">
-        <v>0.9207426152536399</v>
+        <v>0.9102941241948347</v>
       </c>
       <c r="N21">
-        <v>0.9808295344848963</v>
+        <v>0.9867849536123802</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9401801439421388</v>
+        <v>0.9470821626584209</v>
       </c>
       <c r="D22">
-        <v>0.9678805263087403</v>
+        <v>0.9753207823233188</v>
       </c>
       <c r="E22">
-        <v>0.9555302173232627</v>
+        <v>0.9617604271409391</v>
       </c>
       <c r="F22">
-        <v>0.8924339121658463</v>
+        <v>0.8792559646913968</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020017074343377</v>
+        <v>1.018982011289155</v>
       </c>
       <c r="J22">
-        <v>0.9737904834883967</v>
+        <v>0.980334435017149</v>
       </c>
       <c r="K22">
-        <v>0.9841163075472606</v>
+        <v>0.9913975219171569</v>
       </c>
       <c r="L22">
-        <v>0.9720372821903648</v>
+        <v>0.9781294831634633</v>
       </c>
       <c r="M22">
-        <v>0.9104866247257247</v>
+        <v>0.8976698066299168</v>
       </c>
       <c r="N22">
-        <v>0.97517337767028</v>
+        <v>0.9817266223608049</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9441382138165457</v>
+        <v>0.9506879677998533</v>
       </c>
       <c r="D23">
-        <v>0.9710104119770073</v>
+        <v>0.9781034242129871</v>
       </c>
       <c r="E23">
-        <v>0.9588071797069811</v>
+        <v>0.9647263650038362</v>
       </c>
       <c r="F23">
-        <v>0.8984657393464239</v>
+        <v>0.8866420563979291</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021550815979853</v>
+        <v>1.020379828359052</v>
       </c>
       <c r="J23">
-        <v>0.9768154222631568</v>
+        <v>0.9830378906393349</v>
       </c>
       <c r="K23">
-        <v>0.9868521803351133</v>
+        <v>0.9937983034884121</v>
       </c>
       <c r="L23">
-        <v>0.9749084158606118</v>
+        <v>0.9807006602266658</v>
       </c>
       <c r="M23">
-        <v>0.9159904379364944</v>
+        <v>0.9044765670021899</v>
       </c>
       <c r="N23">
-        <v>0.9782026122050653</v>
+        <v>0.9844339172000649</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9589058431706137</v>
+        <v>0.9641964069413654</v>
       </c>
       <c r="D24">
-        <v>0.9826865811074218</v>
+        <v>0.9885262368539788</v>
       </c>
       <c r="E24">
-        <v>0.9710594237053226</v>
+        <v>0.9758616336235177</v>
       </c>
       <c r="F24">
-        <v>0.9206993552385867</v>
+        <v>0.9132310715909596</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027230110636226</v>
+        <v>1.025535574311012</v>
       </c>
       <c r="J24">
-        <v>0.988082996391217</v>
+        <v>0.993145924819942</v>
       </c>
       <c r="K24">
-        <v>0.9970247182371172</v>
+        <v>1.002757885913339</v>
       </c>
       <c r="L24">
-        <v>0.9856145721712716</v>
+        <v>0.990326334487544</v>
       </c>
       <c r="M24">
-        <v>0.9362785621702094</v>
+        <v>0.9289749573963124</v>
       </c>
       <c r="N24">
-        <v>0.9894861875807961</v>
+        <v>0.9945563059486159</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9746377616863694</v>
+        <v>0.9786882684480246</v>
       </c>
       <c r="D25">
-        <v>0.9951216244644767</v>
+        <v>0.9997077935287093</v>
       </c>
       <c r="E25">
-        <v>0.9841554951279337</v>
+        <v>0.987849888361282</v>
       </c>
       <c r="F25">
-        <v>0.9439807728429815</v>
+        <v>0.940215864417854</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033194621476873</v>
+        <v>1.030932067783455</v>
       </c>
       <c r="J25">
-        <v>1.000049886411913</v>
+        <v>1.003954777141065</v>
       </c>
       <c r="K25">
-        <v>1.007796145941582</v>
+        <v>1.012310647320469</v>
       </c>
       <c r="L25">
-        <v>0.9970048594163226</v>
+        <v>1.000639793636968</v>
       </c>
       <c r="M25">
-        <v>0.957515774853932</v>
+        <v>0.953819027187002</v>
       </c>
       <c r="N25">
-        <v>1.001470071957943</v>
+        <v>1.005380508079828</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9894726026997565</v>
+        <v>1.009179166518331</v>
       </c>
       <c r="D2">
-        <v>1.008029426074179</v>
+        <v>1.026602245588375</v>
       </c>
       <c r="E2">
-        <v>0.9967996060028258</v>
+        <v>1.014292931686042</v>
       </c>
       <c r="F2">
-        <v>0.9594795708320395</v>
+        <v>1.02737553154326</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034858258747677</v>
+        <v>1.045438625049947</v>
       </c>
       <c r="J2">
-        <v>1.011972811277876</v>
+        <v>1.031088754145884</v>
       </c>
       <c r="K2">
-        <v>1.019378020261305</v>
+        <v>1.037703003545679</v>
       </c>
       <c r="L2">
-        <v>1.008303708204515</v>
+        <v>1.025556670755549</v>
       </c>
       <c r="M2">
-        <v>0.9715338521955592</v>
+        <v>1.038466214115277</v>
       </c>
       <c r="N2">
-        <v>1.013409928744794</v>
+        <v>1.014001351413192</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9969222948492283</v>
+        <v>1.013725673981627</v>
       </c>
       <c r="D3">
-        <v>1.013777908546507</v>
+        <v>1.030077927462655</v>
       </c>
       <c r="E3">
-        <v>1.002996149918947</v>
+        <v>1.017938535784318</v>
       </c>
       <c r="F3">
-        <v>0.9724459075669849</v>
+        <v>1.031765896789533</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037523930800597</v>
+        <v>1.046821041278712</v>
       </c>
       <c r="J3">
-        <v>1.017497214298242</v>
+        <v>1.033849030498231</v>
       </c>
       <c r="K3">
-        <v>1.02423748215868</v>
+        <v>1.040339893338008</v>
       </c>
       <c r="L3">
-        <v>1.013590837455644</v>
+        <v>1.028346921541947</v>
       </c>
       <c r="M3">
-        <v>0.9834439258298996</v>
+        <v>1.04200784121023</v>
       </c>
       <c r="N3">
-        <v>1.018942177051107</v>
+        <v>1.014944217042353</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001585041051294</v>
+        <v>1.016607858296338</v>
       </c>
       <c r="D4">
-        <v>1.017375627867116</v>
+        <v>1.032284594072538</v>
       </c>
       <c r="E4">
-        <v>1.006880451978592</v>
+        <v>1.020255398124341</v>
       </c>
       <c r="F4">
-        <v>0.9804351040650072</v>
+        <v>1.034555456003476</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039172043974717</v>
+        <v>1.047688908084933</v>
       </c>
       <c r="J4">
-        <v>1.020948288038197</v>
+        <v>1.035596067280933</v>
       </c>
       <c r="K4">
-        <v>1.027268771656916</v>
+        <v>1.042008382009557</v>
       </c>
       <c r="L4">
-        <v>1.016896539281249</v>
+        <v>1.030115353555189</v>
       </c>
       <c r="M4">
-        <v>0.990775540032835</v>
+        <v>1.044253975431927</v>
       </c>
       <c r="N4">
-        <v>1.022398151711617</v>
+        <v>1.015540637579583</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003509914442178</v>
+        <v>1.017805739821742</v>
       </c>
       <c r="D5">
-        <v>1.018860736982131</v>
+        <v>1.033202466463641</v>
       </c>
       <c r="E5">
-        <v>1.008485293915621</v>
+        <v>1.021219668983124</v>
       </c>
       <c r="F5">
-        <v>0.9837066364180083</v>
+        <v>1.035716333166098</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039847672495778</v>
+        <v>1.048047534413822</v>
       </c>
       <c r="J5">
-        <v>1.022371357971437</v>
+        <v>1.036321458943737</v>
       </c>
       <c r="K5">
-        <v>1.028517705969869</v>
+        <v>1.04270104352719</v>
       </c>
       <c r="L5">
-        <v>1.018260317432627</v>
+        <v>1.030850209438593</v>
       </c>
       <c r="M5">
-        <v>0.9937761183088309</v>
+        <v>1.045187700868945</v>
       </c>
       <c r="N5">
-        <v>1.02382324256739</v>
+        <v>1.015788192648194</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003831101803148</v>
+        <v>1.018006075065678</v>
       </c>
       <c r="D6">
-        <v>1.019108537411874</v>
+        <v>1.033356015137306</v>
       </c>
       <c r="E6">
-        <v>1.008753155805816</v>
+        <v>1.021381012781068</v>
       </c>
       <c r="F6">
-        <v>0.9842510648336419</v>
+        <v>1.035910566518566</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039960133112058</v>
+        <v>1.048107388684281</v>
       </c>
       <c r="J6">
-        <v>1.022608719095564</v>
+        <v>1.036442731994917</v>
       </c>
       <c r="K6">
-        <v>1.028725961692752</v>
+        <v>1.042816837639966</v>
       </c>
       <c r="L6">
-        <v>1.018487826573524</v>
+        <v>1.030973098862334</v>
       </c>
       <c r="M6">
-        <v>0.9942753560301264</v>
+        <v>1.045343868774491</v>
       </c>
       <c r="N6">
-        <v>1.024060940771539</v>
+        <v>1.015829574398457</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001610897191005</v>
+        <v>1.016623917976309</v>
       </c>
       <c r="D7">
-        <v>1.017395577264654</v>
+        <v>1.032296896857326</v>
       </c>
       <c r="E7">
-        <v>1.006902004114038</v>
+        <v>1.020268320586575</v>
       </c>
       <c r="F7">
-        <v>0.9804791500740474</v>
+        <v>1.034571013724808</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03918113809095</v>
+        <v>1.047693724326963</v>
       </c>
       <c r="J7">
-        <v>1.02096740998708</v>
+        <v>1.035605795241597</v>
       </c>
       <c r="K7">
-        <v>1.027285557805628</v>
+        <v>1.04201767150574</v>
       </c>
       <c r="L7">
-        <v>1.016914861970087</v>
+        <v>1.030125206143372</v>
       </c>
       <c r="M7">
-        <v>0.9908159448037931</v>
+        <v>1.044266492914598</v>
       </c>
       <c r="N7">
-        <v>1.02241730081586</v>
+        <v>1.015543957796832</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9920244505063197</v>
+        <v>1.010728356112808</v>
       </c>
       <c r="D8">
-        <v>1.009998561735702</v>
+        <v>1.027785833790187</v>
       </c>
       <c r="E8">
-        <v>0.9989208903892105</v>
+        <v>1.015533903617599</v>
       </c>
       <c r="F8">
-        <v>0.963950388021536</v>
+        <v>1.028870162434563</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035775759264262</v>
+        <v>1.045911432704256</v>
       </c>
       <c r="J8">
-        <v>1.013866563509538</v>
+        <v>1.032029863569756</v>
       </c>
       <c r="K8">
-        <v>1.021044778243943</v>
+        <v>1.038602135614388</v>
       </c>
       <c r="L8">
-        <v>1.010115498768342</v>
+        <v>1.026507490456154</v>
       </c>
       <c r="M8">
-        <v>0.9756418776966889</v>
+        <v>1.039672769281526</v>
       </c>
       <c r="N8">
-        <v>1.015306370321842</v>
+        <v>1.014322887236711</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9737995225885262</v>
+        <v>0.9998582419749115</v>
       </c>
       <c r="D9">
-        <v>0.9959356288641195</v>
+        <v>1.019497174654452</v>
       </c>
       <c r="E9">
-        <v>0.9838008137539325</v>
+        <v>1.006852897776317</v>
       </c>
       <c r="F9">
-        <v>0.9312662046130303</v>
+        <v>1.018411324863935</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029126906972137</v>
+        <v>1.042559336337283</v>
       </c>
       <c r="J9">
-        <v>1.000312665006105</v>
+        <v>1.025416007076583</v>
       </c>
       <c r="K9">
-        <v>1.009094993647177</v>
+        <v>1.03228165008492</v>
       </c>
       <c r="L9">
-        <v>0.997162295399268</v>
+        <v>1.019835761408537</v>
       </c>
       <c r="M9">
-        <v>0.9455824183042664</v>
+        <v>1.03121259023676</v>
       </c>
       <c r="N9">
-        <v>1.00173322372788</v>
+        <v>1.0120619845568</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9605463639706513</v>
+        <v>0.9922519914620319</v>
       </c>
       <c r="D10">
-        <v>0.9857100652417421</v>
+        <v>1.013720255807018</v>
       </c>
       <c r="E10">
-        <v>0.9728490868487656</v>
+        <v>1.000814291851576</v>
       </c>
       <c r="F10">
-        <v>0.9061994893901303</v>
+        <v>1.011130796820366</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024154660521931</v>
+        <v>1.040171449804165</v>
       </c>
       <c r="J10">
-        <v>0.9904177501723048</v>
+        <v>1.020776424176433</v>
       </c>
       <c r="K10">
-        <v>1.0003422128273</v>
+        <v>1.027846128110252</v>
       </c>
       <c r="L10">
-        <v>0.9877264956729973</v>
+        <v>1.01516885955557</v>
       </c>
       <c r="M10">
-        <v>0.9224974617040657</v>
+        <v>1.025301948030925</v>
       </c>
       <c r="N10">
-        <v>0.9918242569800532</v>
+        <v>1.010474624065414</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9544863779624743</v>
+        <v>0.9888644365364209</v>
       </c>
       <c r="D11">
-        <v>0.9810343819117704</v>
+        <v>1.011153709210792</v>
       </c>
       <c r="E11">
-        <v>0.9678536348744058</v>
+        <v>0.9981341739624062</v>
       </c>
       <c r="F11">
-        <v>0.8942819685977755</v>
+        <v>1.007897921328227</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02184221768041</v>
+        <v>1.039098484337747</v>
       </c>
       <c r="J11">
-        <v>0.985883296765985</v>
+        <v>1.018707919321474</v>
       </c>
       <c r="K11">
-        <v>0.9963230495619853</v>
+        <v>1.02586830431169</v>
       </c>
       <c r="L11">
-        <v>0.9834083605248503</v>
+        <v>1.013091363018032</v>
       </c>
       <c r="M11">
-        <v>0.9115168425202432</v>
+        <v>1.022672415729311</v>
       </c>
       <c r="N11">
-        <v>0.9872833641297875</v>
+        <v>1.009766670537659</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9521806925781698</v>
+        <v>0.9875912243286586</v>
       </c>
       <c r="D12">
-        <v>0.9792552831281152</v>
+        <v>1.010190092876007</v>
       </c>
       <c r="E12">
-        <v>0.9659549841519786</v>
+        <v>0.9971283122981263</v>
       </c>
       <c r="F12">
-        <v>0.8896610129139442</v>
+        <v>1.00668434575743</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020955743447246</v>
+        <v>1.03869383396396</v>
       </c>
       <c r="J12">
-        <v>0.9841563947966752</v>
+        <v>1.017930191153143</v>
       </c>
       <c r="K12">
-        <v>0.9947910112222125</v>
+        <v>1.025124636548179</v>
       </c>
       <c r="L12">
-        <v>0.981764849826064</v>
+        <v>1.0123107368902</v>
       </c>
       <c r="M12">
-        <v>0.9072586381346603</v>
+        <v>1.021684595014874</v>
       </c>
       <c r="N12">
-        <v>0.9855540097616028</v>
+        <v>1.009500459366869</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9526778673805018</v>
+        <v>0.9878650214863082</v>
       </c>
       <c r="D13">
-        <v>0.9796389175891845</v>
+        <v>1.010397265843246</v>
       </c>
       <c r="E13">
-        <v>0.9663642969118497</v>
+        <v>0.9973445500952056</v>
       </c>
       <c r="F13">
-        <v>0.8906616959569957</v>
+        <v>1.006945249666878</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021147209557915</v>
+        <v>1.038780913143289</v>
       </c>
       <c r="J13">
-        <v>0.984528843976881</v>
+        <v>1.018097449108095</v>
       </c>
       <c r="K13">
-        <v>0.9951214987527932</v>
+        <v>1.025284570866579</v>
       </c>
       <c r="L13">
-        <v>0.9821192658624665</v>
+        <v>1.01247859620225</v>
       </c>
       <c r="M13">
-        <v>0.9081807846367939</v>
+        <v>1.021896997260379</v>
       </c>
       <c r="N13">
-        <v>0.9859269878623652</v>
+        <v>1.009557711938853</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9542969487189807</v>
+        <v>0.9887595016888483</v>
       </c>
       <c r="D14">
-        <v>0.9808882187794954</v>
+        <v>1.01107426927435</v>
       </c>
       <c r="E14">
-        <v>0.9676976049932973</v>
+        <v>0.9980512433621409</v>
       </c>
       <c r="F14">
-        <v>0.8939042027946089</v>
+        <v>1.007797870747778</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021769527357564</v>
+        <v>1.039065161790639</v>
       </c>
       <c r="J14">
-        <v>0.9857414533269302</v>
+        <v>1.018643826396707</v>
       </c>
       <c r="K14">
-        <v>0.9961972408174177</v>
+        <v>1.025807018957603</v>
       </c>
       <c r="L14">
-        <v>0.9832733454255814</v>
+        <v>1.013027021436176</v>
       </c>
       <c r="M14">
-        <v>0.9111687406011756</v>
+        <v>1.02259099182117</v>
       </c>
       <c r="N14">
-        <v>0.9871413192567795</v>
+        <v>1.009744732545419</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9552870460206049</v>
+        <v>0.9893086180215107</v>
       </c>
       <c r="D15">
-        <v>0.9816521701622323</v>
+        <v>1.011490014643824</v>
       </c>
       <c r="E15">
-        <v>0.9685132148206953</v>
+        <v>0.9984852730306815</v>
       </c>
       <c r="F15">
-        <v>0.8958750503070499</v>
+        <v>1.008321489566215</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022149185850471</v>
+        <v>1.039239480420702</v>
       </c>
       <c r="J15">
-        <v>0.9864827642113632</v>
+        <v>1.018979208809054</v>
       </c>
       <c r="K15">
-        <v>0.9968546931522977</v>
+        <v>1.026127708709045</v>
       </c>
       <c r="L15">
-        <v>0.9839790112942686</v>
+        <v>1.013363724708491</v>
       </c>
       <c r="M15">
-        <v>0.9129848088236293</v>
+        <v>1.023017097420904</v>
       </c>
       <c r="N15">
-        <v>0.9878836828876977</v>
+        <v>1.009859527412096</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9609412567619254</v>
+        <v>0.9924747647834039</v>
       </c>
       <c r="D16">
-        <v>0.9860147436446611</v>
+        <v>1.013889175021559</v>
       </c>
       <c r="E16">
-        <v>0.9731748757809725</v>
+        <v>1.000990741203313</v>
       </c>
       <c r="F16">
-        <v>0.906965313094275</v>
+        <v>1.011343603008494</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024304486986721</v>
+        <v>1.040241816908976</v>
       </c>
       <c r="J16">
-        <v>0.990713016682943</v>
+        <v>1.020912412085087</v>
       </c>
       <c r="K16">
-        <v>1.000603746657849</v>
+        <v>1.027976149120532</v>
       </c>
       <c r="L16">
-        <v>0.9880078074357661</v>
+        <v>1.015305505301869</v>
       </c>
       <c r="M16">
-        <v>0.9232029928244641</v>
+        <v>1.025474936544682</v>
       </c>
       <c r="N16">
-        <v>0.9921199428030041</v>
+        <v>1.010521161821611</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9643978448872748</v>
+        <v>0.9944350909329059</v>
       </c>
       <c r="D17">
-        <v>0.9886816552027551</v>
+        <v>1.015376328683433</v>
       </c>
       <c r="E17">
-        <v>0.9760279705006591</v>
+        <v>1.002544495220751</v>
       </c>
       <c r="F17">
-        <v>0.9136161273291947</v>
+        <v>1.013217322649807</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025611527126591</v>
+        <v>1.040859948577096</v>
       </c>
       <c r="J17">
-        <v>0.9932964207388938</v>
+        <v>1.022108812953103</v>
       </c>
       <c r="K17">
-        <v>1.00289108967403</v>
+        <v>1.029120021522845</v>
       </c>
       <c r="L17">
-        <v>0.9904697900670074</v>
+        <v>1.016508056825586</v>
       </c>
       <c r="M17">
-        <v>0.9293296362893358</v>
+        <v>1.026997506316017</v>
       </c>
       <c r="N17">
-        <v>0.994707015589035</v>
+        <v>1.010930566556563</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.966383517779664</v>
+        <v>0.9955695035914776</v>
       </c>
       <c r="D18">
-        <v>0.990213694295064</v>
+        <v>1.016237514710715</v>
       </c>
       <c r="E18">
-        <v>0.9776680883768376</v>
+        <v>1.003444504603407</v>
       </c>
       <c r="F18">
-        <v>0.9173956272405609</v>
+        <v>1.014302525662143</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026358803055445</v>
+        <v>1.041216749284541</v>
       </c>
       <c r="J18">
-        <v>0.9947795609307614</v>
+        <v>1.022800941010395</v>
       </c>
       <c r="K18">
-        <v>1.004203517701784</v>
+        <v>1.029781732539107</v>
       </c>
       <c r="L18">
-        <v>0.9918837650533536</v>
+        <v>1.017204045118774</v>
       </c>
       <c r="M18">
-        <v>0.9328107604741006</v>
+        <v>1.027878862784827</v>
       </c>
       <c r="N18">
-        <v>0.9961922620100937</v>
+        <v>1.011167386824205</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9670555819241748</v>
+        <v>0.9959548037394745</v>
       </c>
       <c r="D19">
-        <v>0.9907322254418873</v>
+        <v>1.016530112340919</v>
       </c>
       <c r="E19">
-        <v>0.9782233836894237</v>
+        <v>1.003750336621034</v>
       </c>
       <c r="F19">
-        <v>0.9186682869173021</v>
+        <v>1.014671264347567</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026611137561416</v>
+        <v>1.04133778103775</v>
       </c>
       <c r="J19">
-        <v>0.995281385975135</v>
+        <v>1.023035983010079</v>
       </c>
       <c r="K19">
-        <v>1.004647459580505</v>
+        <v>1.030006439921292</v>
       </c>
       <c r="L19">
-        <v>0.9923622770124565</v>
+        <v>1.017440449154274</v>
       </c>
       <c r="M19">
-        <v>0.933982857465925</v>
+        <v>1.02817825669408</v>
       </c>
       <c r="N19">
-        <v>0.9966947997035903</v>
+        <v>1.011247805151777</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9640301822505131</v>
+        <v>0.9942257042959209</v>
       </c>
       <c r="D20">
-        <v>0.9883979871343208</v>
+        <v>1.01521742072199</v>
       </c>
       <c r="E20">
-        <v>0.9757243803833291</v>
+        <v>1.002378444249636</v>
       </c>
       <c r="F20">
-        <v>0.9129130960577269</v>
+        <v>1.013017092015554</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025472878618436</v>
+        <v>1.040794017980506</v>
       </c>
       <c r="J20">
-        <v>0.9930217317860003</v>
+        <v>1.021981044461129</v>
       </c>
       <c r="K20">
-        <v>1.002647958608812</v>
+        <v>1.028997865683331</v>
       </c>
       <c r="L20">
-        <v>0.9902079543887176</v>
+        <v>1.016379600114975</v>
       </c>
       <c r="M20">
-        <v>0.9286820638902026</v>
+        <v>1.026834849246881</v>
       </c>
       <c r="N20">
-        <v>0.9944319365463209</v>
+        <v>1.010886846997441</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9538217401556534</v>
+        <v>0.9884965182485319</v>
       </c>
       <c r="D21">
-        <v>0.9805215467895166</v>
+        <v>1.010875196834396</v>
       </c>
       <c r="E21">
-        <v>0.9673062159628044</v>
+        <v>0.9978434298347271</v>
       </c>
       <c r="F21">
-        <v>0.8929550629829821</v>
+        <v>1.007547152424002</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021587064042308</v>
+        <v>1.038981628178469</v>
       </c>
       <c r="J21">
-        <v>0.985385593044949</v>
+        <v>1.018483194969015</v>
       </c>
       <c r="K21">
-        <v>0.9958815859541865</v>
+        <v>1.025653423421977</v>
       </c>
       <c r="L21">
-        <v>0.9829346329045215</v>
+        <v>1.012865774607281</v>
       </c>
       <c r="M21">
-        <v>0.9102941241948347</v>
+        <v>1.022386938620151</v>
       </c>
       <c r="N21">
-        <v>0.9867849536123802</v>
+        <v>1.009689750479549</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9470821626584209</v>
+        <v>0.9848075693202005</v>
       </c>
       <c r="D22">
-        <v>0.9753207823233188</v>
+        <v>1.008085276858095</v>
       </c>
       <c r="E22">
-        <v>0.9617604271409391</v>
+        <v>0.9949319367879849</v>
       </c>
       <c r="F22">
-        <v>0.8792559646913968</v>
+        <v>1.004033899592936</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018982011289155</v>
+        <v>1.037806661532939</v>
       </c>
       <c r="J22">
-        <v>0.980334435017149</v>
+        <v>1.016229365410013</v>
       </c>
       <c r="K22">
-        <v>0.9913975219171569</v>
+        <v>1.023498246600455</v>
       </c>
       <c r="L22">
-        <v>0.9781294831634633</v>
+        <v>1.010604466038721</v>
       </c>
       <c r="M22">
-        <v>0.8976698066299168</v>
+        <v>1.01952586548038</v>
       </c>
       <c r="N22">
-        <v>0.9817266223608049</v>
+        <v>1.008918228501257</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9506879677998533</v>
+        <v>0.9867716597532437</v>
       </c>
       <c r="D23">
-        <v>0.9781034242129871</v>
+        <v>1.009570111787956</v>
       </c>
       <c r="E23">
-        <v>0.9647263650038362</v>
+        <v>0.996481261232814</v>
       </c>
       <c r="F23">
-        <v>0.8866420563979291</v>
+        <v>1.005903599259903</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020379828359052</v>
+        <v>1.038432979620077</v>
       </c>
       <c r="J23">
-        <v>0.9830378906393349</v>
+        <v>1.017429496099213</v>
       </c>
       <c r="K23">
-        <v>0.9937983034884121</v>
+        <v>1.024645860947634</v>
       </c>
       <c r="L23">
-        <v>0.9807006602266658</v>
+        <v>1.011808312709719</v>
       </c>
       <c r="M23">
-        <v>0.9044765670021899</v>
+        <v>1.021048881885126</v>
       </c>
       <c r="N23">
-        <v>0.9844339172000649</v>
+        <v>1.009329066909409</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9641964069413654</v>
+        <v>0.9943203448967998</v>
       </c>
       <c r="D24">
-        <v>0.9885262368539788</v>
+        <v>1.015289243653654</v>
       </c>
       <c r="E24">
-        <v>0.9758616336235177</v>
+        <v>1.002453494871037</v>
       </c>
       <c r="F24">
-        <v>0.9132310715909596</v>
+        <v>1.013107591385544</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025535574311012</v>
+        <v>1.040823820734573</v>
       </c>
       <c r="J24">
-        <v>0.993145924819942</v>
+        <v>1.022038795163063</v>
       </c>
       <c r="K24">
-        <v>1.002757885913339</v>
+        <v>1.029053079585514</v>
       </c>
       <c r="L24">
-        <v>0.990326334487544</v>
+        <v>1.016437660951884</v>
       </c>
       <c r="M24">
-        <v>0.9289749573963124</v>
+        <v>1.026908367741055</v>
       </c>
       <c r="N24">
-        <v>0.9945563059486159</v>
+        <v>1.010906608087972</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9786882684480246</v>
+        <v>1.002729020427103</v>
       </c>
       <c r="D25">
-        <v>0.9997077935287093</v>
+        <v>1.021682497315934</v>
       </c>
       <c r="E25">
-        <v>0.987849888361282</v>
+        <v>1.009139599849902</v>
       </c>
       <c r="F25">
-        <v>0.940215864417854</v>
+        <v>1.021167140492089</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030932067783455</v>
+        <v>1.043452080322827</v>
       </c>
       <c r="J25">
-        <v>1.003954777141065</v>
+        <v>1.027164889899674</v>
       </c>
       <c r="K25">
-        <v>1.012310647320469</v>
+        <v>1.033953292915825</v>
       </c>
       <c r="L25">
-        <v>1.000639793636968</v>
+        <v>1.021597672941964</v>
       </c>
       <c r="M25">
-        <v>0.953819027187002</v>
+        <v>1.033445515762342</v>
       </c>
       <c r="N25">
-        <v>1.005380508079828</v>
+        <v>1.012660084418364</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009179166518331</v>
+        <v>1.037278529888334</v>
       </c>
       <c r="D2">
-        <v>1.026602245588375</v>
+        <v>1.043896643453357</v>
       </c>
       <c r="E2">
-        <v>1.014292931686042</v>
+        <v>1.036084749279061</v>
       </c>
       <c r="F2">
-        <v>1.02737553154326</v>
+        <v>1.052647421909903</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045438625049947</v>
+        <v>1.039039805171452</v>
       </c>
       <c r="J2">
-        <v>1.031088754145884</v>
+        <v>1.042382269688147</v>
       </c>
       <c r="K2">
-        <v>1.037703003545679</v>
+        <v>1.046669217456616</v>
       </c>
       <c r="L2">
-        <v>1.025556670755549</v>
+        <v>1.038879501990603</v>
       </c>
       <c r="M2">
-        <v>1.038466214115277</v>
+        <v>1.055395575432976</v>
       </c>
       <c r="N2">
-        <v>1.014001351413192</v>
+        <v>1.018030650475702</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013725673981627</v>
+        <v>1.038236254006643</v>
       </c>
       <c r="D3">
-        <v>1.030077927462655</v>
+        <v>1.0446549255685</v>
       </c>
       <c r="E3">
-        <v>1.017938535784318</v>
+        <v>1.03689961089894</v>
       </c>
       <c r="F3">
-        <v>1.031765896789533</v>
+        <v>1.05363866180943</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046821041278712</v>
+        <v>1.039280819455312</v>
       </c>
       <c r="J3">
-        <v>1.033849030498231</v>
+        <v>1.042984265356505</v>
       </c>
       <c r="K3">
-        <v>1.040339893338008</v>
+        <v>1.04723876573907</v>
       </c>
       <c r="L3">
-        <v>1.028346921541947</v>
+        <v>1.039503877975598</v>
       </c>
       <c r="M3">
-        <v>1.04200784121023</v>
+        <v>1.05619924513287</v>
       </c>
       <c r="N3">
-        <v>1.014944217042353</v>
+        <v>1.018233852474666</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016607858296338</v>
+        <v>1.038856374692977</v>
       </c>
       <c r="D4">
-        <v>1.032284594072538</v>
+        <v>1.045145957218835</v>
       </c>
       <c r="E4">
-        <v>1.020255398124341</v>
+        <v>1.037427589661962</v>
       </c>
       <c r="F4">
-        <v>1.034555456003476</v>
+        <v>1.054280957339708</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047688908084933</v>
+        <v>1.039435790063998</v>
       </c>
       <c r="J4">
-        <v>1.035596067280933</v>
+        <v>1.043373591488271</v>
       </c>
       <c r="K4">
-        <v>1.042008382009557</v>
+        <v>1.047607010653035</v>
       </c>
       <c r="L4">
-        <v>1.030115353555189</v>
+        <v>1.03990794948473</v>
       </c>
       <c r="M4">
-        <v>1.044253975431927</v>
+        <v>1.056719553776026</v>
       </c>
       <c r="N4">
-        <v>1.015540637579583</v>
+        <v>1.018365182562633</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017805739821742</v>
+        <v>1.039117170542377</v>
       </c>
       <c r="D5">
-        <v>1.033202466463641</v>
+        <v>1.045352474857227</v>
       </c>
       <c r="E5">
-        <v>1.021219668983124</v>
+        <v>1.037649720378461</v>
       </c>
       <c r="F5">
-        <v>1.035716333166098</v>
+        <v>1.054551191948855</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048047534413822</v>
+        <v>1.039500704189225</v>
       </c>
       <c r="J5">
-        <v>1.036321458943737</v>
+        <v>1.0435372141769</v>
       </c>
       <c r="K5">
-        <v>1.04270104352719</v>
+        <v>1.047761750282291</v>
       </c>
       <c r="L5">
-        <v>1.030850209438593</v>
+        <v>1.040077834204238</v>
       </c>
       <c r="M5">
-        <v>1.045187700868945</v>
+        <v>1.056938357653175</v>
       </c>
       <c r="N5">
-        <v>1.015788192648194</v>
+        <v>1.018420356208726</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018006075065678</v>
+        <v>1.039160964983603</v>
       </c>
       <c r="D6">
-        <v>1.033356015137306</v>
+        <v>1.045387155198258</v>
       </c>
       <c r="E6">
-        <v>1.021381012781068</v>
+        <v>1.037687026944672</v>
       </c>
       <c r="F6">
-        <v>1.035910566518566</v>
+        <v>1.054596578018245</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048107388684281</v>
+        <v>1.039511589731483</v>
       </c>
       <c r="J6">
-        <v>1.036442731994917</v>
+        <v>1.04356468418822</v>
       </c>
       <c r="K6">
-        <v>1.042816837639966</v>
+        <v>1.047787727585086</v>
       </c>
       <c r="L6">
-        <v>1.030973098862334</v>
+        <v>1.040106359334347</v>
       </c>
       <c r="M6">
-        <v>1.045343868774491</v>
+        <v>1.056975099633863</v>
       </c>
       <c r="N6">
-        <v>1.015829574398457</v>
+        <v>1.018429617895589</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016623917976309</v>
+        <v>1.038859859079327</v>
       </c>
       <c r="D7">
-        <v>1.032296896857326</v>
+        <v>1.045148716373645</v>
       </c>
       <c r="E7">
-        <v>1.020268320586575</v>
+        <v>1.037430557123156</v>
       </c>
       <c r="F7">
-        <v>1.034571013724808</v>
+        <v>1.054284567390079</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047693724326963</v>
+        <v>1.039436658375745</v>
       </c>
       <c r="J7">
-        <v>1.035605795241597</v>
+        <v>1.043375778020254</v>
       </c>
       <c r="K7">
-        <v>1.04201767150574</v>
+        <v>1.047609078569788</v>
       </c>
       <c r="L7">
-        <v>1.030125206143372</v>
+        <v>1.039910219442545</v>
       </c>
       <c r="M7">
-        <v>1.044266492914598</v>
+        <v>1.056722477185636</v>
       </c>
       <c r="N7">
-        <v>1.015543957796832</v>
+        <v>1.018365919943493</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010728356112808</v>
+        <v>1.037602112018745</v>
       </c>
       <c r="D8">
-        <v>1.027785833790187</v>
+        <v>1.044152830596516</v>
       </c>
       <c r="E8">
-        <v>1.015533903617599</v>
+        <v>1.036359988066714</v>
       </c>
       <c r="F8">
-        <v>1.028870162434563</v>
+        <v>1.052982229625955</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045911432704256</v>
+        <v>1.039121460061962</v>
       </c>
       <c r="J8">
-        <v>1.032029863569756</v>
+        <v>1.042585758936189</v>
       </c>
       <c r="K8">
-        <v>1.038602135614388</v>
+        <v>1.046861758665472</v>
       </c>
       <c r="L8">
-        <v>1.026507490456154</v>
+        <v>1.039090500096389</v>
       </c>
       <c r="M8">
-        <v>1.039672769281526</v>
+        <v>1.055667120634471</v>
       </c>
       <c r="N8">
-        <v>1.014322887236711</v>
+        <v>1.018099355454323</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9998582419749115</v>
+        <v>1.03538897144332</v>
       </c>
       <c r="D9">
-        <v>1.019497174654452</v>
+        <v>1.042400858941688</v>
       </c>
       <c r="E9">
-        <v>1.006852897776317</v>
+        <v>1.034478992182175</v>
       </c>
       <c r="F9">
-        <v>1.018411324863935</v>
+        <v>1.050694266559379</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042559336337283</v>
+        <v>1.038558542829174</v>
       </c>
       <c r="J9">
-        <v>1.025416007076583</v>
+        <v>1.041192109963547</v>
       </c>
       <c r="K9">
-        <v>1.03228165008492</v>
+        <v>1.045542696708216</v>
       </c>
       <c r="L9">
-        <v>1.019835761408537</v>
+        <v>1.037646539679249</v>
       </c>
       <c r="M9">
-        <v>1.03121259023676</v>
+        <v>1.053809643238017</v>
       </c>
       <c r="N9">
-        <v>1.0120619845568</v>
+        <v>1.01762846246099</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9922519914620319</v>
+        <v>1.033915724323855</v>
       </c>
       <c r="D10">
-        <v>1.013720255807018</v>
+        <v>1.041234904030708</v>
       </c>
       <c r="E10">
-        <v>1.000814291851576</v>
+        <v>1.033228755124746</v>
       </c>
       <c r="F10">
-        <v>1.011130796820366</v>
+        <v>1.049173681501981</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040171449804165</v>
+        <v>1.038178252325725</v>
       </c>
       <c r="J10">
-        <v>1.020776424176433</v>
+        <v>1.040262029554822</v>
       </c>
       <c r="K10">
-        <v>1.027846128110252</v>
+        <v>1.044661902587894</v>
       </c>
       <c r="L10">
-        <v>1.01516885955557</v>
+        <v>1.036684284338336</v>
       </c>
       <c r="M10">
-        <v>1.025301948030925</v>
+        <v>1.0525728630632</v>
       </c>
       <c r="N10">
-        <v>1.010474624065414</v>
+        <v>1.017313767307285</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9888644365364209</v>
+        <v>1.033278318807507</v>
       </c>
       <c r="D11">
-        <v>1.011153709210792</v>
+        <v>1.040730528243643</v>
       </c>
       <c r="E11">
-        <v>0.9981341739624062</v>
+        <v>1.032688295775276</v>
       </c>
       <c r="F11">
-        <v>1.007897921328227</v>
+        <v>1.048516386047764</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039098484337747</v>
+        <v>1.038012399351212</v>
       </c>
       <c r="J11">
-        <v>1.018707919321474</v>
+        <v>1.039859072158302</v>
       </c>
       <c r="K11">
-        <v>1.02586830431169</v>
+        <v>1.044280183079952</v>
       </c>
       <c r="L11">
-        <v>1.013091363018032</v>
+        <v>1.036267719944407</v>
       </c>
       <c r="M11">
-        <v>1.022672415729311</v>
+        <v>1.052037701133741</v>
       </c>
       <c r="N11">
-        <v>1.009766670537659</v>
+        <v>1.01717732351935</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9875912243286586</v>
+        <v>1.033041636893176</v>
       </c>
       <c r="D12">
-        <v>1.010190092876007</v>
+        <v>1.040543255471946</v>
       </c>
       <c r="E12">
-        <v>0.9971283122981263</v>
+        <v>1.032487681758369</v>
       </c>
       <c r="F12">
-        <v>1.00668434575743</v>
+        <v>1.048272407815987</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03869383396396</v>
+        <v>1.037950616628536</v>
       </c>
       <c r="J12">
-        <v>1.017930191153143</v>
+        <v>1.03970936261741</v>
       </c>
       <c r="K12">
-        <v>1.025124636548179</v>
+        <v>1.044138346733439</v>
       </c>
       <c r="L12">
-        <v>1.0123107368902</v>
+        <v>1.036113005076226</v>
       </c>
       <c r="M12">
-        <v>1.021684595014874</v>
+        <v>1.051838975045857</v>
       </c>
       <c r="N12">
-        <v>1.009500459366869</v>
+        <v>1.017126615720902</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9878650214863082</v>
+        <v>1.03309240238637</v>
       </c>
       <c r="D13">
-        <v>1.010397265843246</v>
+        <v>1.040583422711009</v>
       </c>
       <c r="E13">
-        <v>0.9973445500952056</v>
+        <v>1.032530707943013</v>
       </c>
       <c r="F13">
-        <v>1.006945249666878</v>
+        <v>1.048324734238574</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038780913143289</v>
+        <v>1.037963877259379</v>
       </c>
       <c r="J13">
-        <v>1.018097449108095</v>
+        <v>1.039741477312666</v>
       </c>
       <c r="K13">
-        <v>1.025284570866579</v>
+        <v>1.044168773302816</v>
       </c>
       <c r="L13">
-        <v>1.01247859620225</v>
+        <v>1.036146191216032</v>
       </c>
       <c r="M13">
-        <v>1.021896997260379</v>
+        <v>1.05188159987648</v>
       </c>
       <c r="N13">
-        <v>1.009557711938853</v>
+        <v>1.017137493909402</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9887595016888483</v>
+        <v>1.033258752993427</v>
       </c>
       <c r="D14">
-        <v>1.01107426927435</v>
+        <v>1.04071504668412</v>
       </c>
       <c r="E14">
-        <v>0.9980512433621409</v>
+        <v>1.032671710163493</v>
       </c>
       <c r="F14">
-        <v>1.007797870747778</v>
+        <v>1.048496215245086</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039065161790639</v>
+        <v>1.038007295991352</v>
       </c>
       <c r="J14">
-        <v>1.018643826396707</v>
+        <v>1.039846697794045</v>
       </c>
       <c r="K14">
-        <v>1.025807018957603</v>
+        <v>1.044268459832475</v>
       </c>
       <c r="L14">
-        <v>1.013027021436176</v>
+        <v>1.036254930839785</v>
       </c>
       <c r="M14">
-        <v>1.02259099182117</v>
+        <v>1.052021273207264</v>
       </c>
       <c r="N14">
-        <v>1.009744732545419</v>
+        <v>1.017173132535496</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9893086180215107</v>
+        <v>1.033361257566014</v>
       </c>
       <c r="D15">
-        <v>1.011490014643824</v>
+        <v>1.040796154512095</v>
       </c>
       <c r="E15">
-        <v>0.9984852730306815</v>
+        <v>1.032758604428542</v>
       </c>
       <c r="F15">
-        <v>1.008321489566215</v>
+        <v>1.048601892987711</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039239480420702</v>
+        <v>1.038034024192143</v>
       </c>
       <c r="J15">
-        <v>1.018979208809054</v>
+        <v>1.039911523226998</v>
       </c>
       <c r="K15">
-        <v>1.026127708709045</v>
+        <v>1.044329873561764</v>
       </c>
       <c r="L15">
-        <v>1.013363724708491</v>
+        <v>1.036321931017378</v>
       </c>
       <c r="M15">
-        <v>1.023017097420904</v>
+        <v>1.052107338122935</v>
       </c>
       <c r="N15">
-        <v>1.009859527412096</v>
+        <v>1.017195087168121</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9924747647834039</v>
+        <v>1.033958037850206</v>
       </c>
       <c r="D16">
-        <v>1.013889175021559</v>
+        <v>1.041268388222959</v>
       </c>
       <c r="E16">
-        <v>1.000990741203313</v>
+        <v>1.03326464272897</v>
       </c>
       <c r="F16">
-        <v>1.011343603008494</v>
+        <v>1.049217327894983</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040241816908976</v>
+        <v>1.038189234519217</v>
       </c>
       <c r="J16">
-        <v>1.020912412085087</v>
+        <v>1.040288767807329</v>
       </c>
       <c r="K16">
-        <v>1.027976149120532</v>
+        <v>1.04468722917587</v>
       </c>
       <c r="L16">
-        <v>1.015305505301869</v>
+        <v>1.036711932497186</v>
       </c>
       <c r="M16">
-        <v>1.025474936544682</v>
+        <v>1.052608387920555</v>
       </c>
       <c r="N16">
-        <v>1.010521161821611</v>
+        <v>1.017322818896674</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9944350909329059</v>
+        <v>1.034332522136519</v>
       </c>
       <c r="D17">
-        <v>1.015376328683433</v>
+        <v>1.041564740074812</v>
       </c>
       <c r="E17">
-        <v>1.002544495220751</v>
+        <v>1.033582309403672</v>
       </c>
       <c r="F17">
-        <v>1.013217322649807</v>
+        <v>1.049603676708997</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040859948577096</v>
+        <v>1.038286276995608</v>
       </c>
       <c r="J17">
-        <v>1.022108812953103</v>
+        <v>1.040525343303769</v>
       </c>
       <c r="K17">
-        <v>1.029120021522845</v>
+        <v>1.044911301188603</v>
       </c>
       <c r="L17">
-        <v>1.016508056825586</v>
+        <v>1.036956597128663</v>
       </c>
       <c r="M17">
-        <v>1.026997506316017</v>
+        <v>1.052922783523098</v>
       </c>
       <c r="N17">
-        <v>1.010930566556563</v>
+        <v>1.017402894035805</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9955695035914776</v>
+        <v>1.034551002628969</v>
       </c>
       <c r="D18">
-        <v>1.016237514710715</v>
+        <v>1.041737644331968</v>
       </c>
       <c r="E18">
-        <v>1.003444504603407</v>
+        <v>1.033767685906066</v>
       </c>
       <c r="F18">
-        <v>1.014302525662143</v>
+        <v>1.049829136188021</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041216749284541</v>
+        <v>1.03834276589639</v>
       </c>
       <c r="J18">
-        <v>1.022800941010395</v>
+        <v>1.04066331188629</v>
       </c>
       <c r="K18">
-        <v>1.029781732539107</v>
+        <v>1.045041966721957</v>
       </c>
       <c r="L18">
-        <v>1.017204045118774</v>
+        <v>1.0370993153144</v>
       </c>
       <c r="M18">
-        <v>1.027878862784827</v>
+        <v>1.053106200989911</v>
       </c>
       <c r="N18">
-        <v>1.011167386824205</v>
+        <v>1.017449583243414</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9959548037394745</v>
+        <v>1.034625507314337</v>
       </c>
       <c r="D19">
-        <v>1.016530112340919</v>
+        <v>1.041796608191587</v>
       </c>
       <c r="E19">
-        <v>1.003750336621034</v>
+        <v>1.033830909206942</v>
       </c>
       <c r="F19">
-        <v>1.014671264347567</v>
+        <v>1.049906030456524</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04133778103775</v>
+        <v>1.038362007745367</v>
       </c>
       <c r="J19">
-        <v>1.023035983010079</v>
+        <v>1.040710351868288</v>
       </c>
       <c r="K19">
-        <v>1.030006439921292</v>
+        <v>1.0450865148594</v>
       </c>
       <c r="L19">
-        <v>1.017440449154274</v>
+        <v>1.037147980102527</v>
       </c>
       <c r="M19">
-        <v>1.02817825669408</v>
+        <v>1.053168747653805</v>
       </c>
       <c r="N19">
-        <v>1.011247805151777</v>
+        <v>1.017465500117384</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9942257042959209</v>
+        <v>1.034292338324809</v>
       </c>
       <c r="D20">
-        <v>1.01521742072199</v>
+        <v>1.041532939431398</v>
       </c>
       <c r="E20">
-        <v>1.002378444249636</v>
+        <v>1.033548217778093</v>
       </c>
       <c r="F20">
-        <v>1.013017092015554</v>
+        <v>1.049562213880809</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040794017980506</v>
+        <v>1.038275877079186</v>
       </c>
       <c r="J20">
-        <v>1.021981044461129</v>
+        <v>1.040499963251568</v>
       </c>
       <c r="K20">
-        <v>1.028997865683331</v>
+        <v>1.044887263673787</v>
       </c>
       <c r="L20">
-        <v>1.016379600114975</v>
+        <v>1.036930345945708</v>
       </c>
       <c r="M20">
-        <v>1.026834849246881</v>
+        <v>1.052889048137046</v>
       </c>
       <c r="N20">
-        <v>1.010886846997441</v>
+        <v>1.017394304514607</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9884965182485319</v>
+        <v>1.033209764702688</v>
       </c>
       <c r="D21">
-        <v>1.010875196834396</v>
+        <v>1.040676284628905</v>
       </c>
       <c r="E21">
-        <v>0.9978434298347271</v>
+        <v>1.032630184742098</v>
       </c>
       <c r="F21">
-        <v>1.007547152424002</v>
+        <v>1.048445713645329</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038981628178469</v>
+        <v>1.03799451515448</v>
       </c>
       <c r="J21">
-        <v>1.018483194969015</v>
+        <v>1.039815713895503</v>
       </c>
       <c r="K21">
-        <v>1.025653423421977</v>
+        <v>1.044239105972492</v>
       </c>
       <c r="L21">
-        <v>1.012865774607281</v>
+        <v>1.036222909290402</v>
       </c>
       <c r="M21">
-        <v>1.022386938620151</v>
+        <v>1.051980141314501</v>
       </c>
       <c r="N21">
-        <v>1.009689750479549</v>
+        <v>1.017162638577122</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9848075693202005</v>
+        <v>1.032529564405652</v>
       </c>
       <c r="D22">
-        <v>1.008085276858095</v>
+        <v>1.040138105414007</v>
       </c>
       <c r="E22">
-        <v>0.9949319367879849</v>
+        <v>1.03205377214291</v>
       </c>
       <c r="F22">
-        <v>1.004033899592936</v>
+        <v>1.047744713028087</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037806661532939</v>
+        <v>1.037816584754474</v>
       </c>
       <c r="J22">
-        <v>1.016229365410013</v>
+        <v>1.039385307351345</v>
       </c>
       <c r="K22">
-        <v>1.023498246600455</v>
+        <v>1.043831302003707</v>
       </c>
       <c r="L22">
-        <v>1.010604466038721</v>
+        <v>1.035778207038651</v>
       </c>
       <c r="M22">
-        <v>1.01952586548038</v>
+        <v>1.051409005105405</v>
       </c>
       <c r="N22">
-        <v>1.008918228501257</v>
+        <v>1.01701682785673</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9867716597532437</v>
+        <v>1.032890107920676</v>
       </c>
       <c r="D23">
-        <v>1.009570111787956</v>
+        <v>1.040423362898899</v>
       </c>
       <c r="E23">
-        <v>0.996481261232814</v>
+        <v>1.032359263968911</v>
       </c>
       <c r="F23">
-        <v>1.005903599259903</v>
+        <v>1.048116232753378</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038432979620077</v>
+        <v>1.037911006224966</v>
       </c>
       <c r="J23">
-        <v>1.017429496099213</v>
+        <v>1.039613491918788</v>
       </c>
       <c r="K23">
-        <v>1.024645860947634</v>
+        <v>1.044047513008483</v>
       </c>
       <c r="L23">
-        <v>1.011808312709719</v>
+        <v>1.036013943167879</v>
       </c>
       <c r="M23">
-        <v>1.021048881885126</v>
+        <v>1.051711743645609</v>
       </c>
       <c r="N23">
-        <v>1.009329066909409</v>
+        <v>1.017094139278891</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9943203448967998</v>
+        <v>1.034310495504709</v>
       </c>
       <c r="D24">
-        <v>1.015289243653654</v>
+        <v>1.041547308627475</v>
       </c>
       <c r="E24">
-        <v>1.002453494871037</v>
+        <v>1.033563622047828</v>
       </c>
       <c r="F24">
-        <v>1.013107591385544</v>
+        <v>1.049580948812179</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040823820734573</v>
+        <v>1.038280576707061</v>
       </c>
       <c r="J24">
-        <v>1.022038795163063</v>
+        <v>1.040511431472417</v>
       </c>
       <c r="K24">
-        <v>1.029053079585514</v>
+        <v>1.04489812529062</v>
       </c>
       <c r="L24">
-        <v>1.016437660951884</v>
+        <v>1.036942207696206</v>
       </c>
       <c r="M24">
-        <v>1.026908367741055</v>
+        <v>1.052904291595242</v>
       </c>
       <c r="N24">
-        <v>1.010906608087972</v>
+        <v>1.017398185802886</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002729020427103</v>
+        <v>1.035960740658548</v>
       </c>
       <c r="D25">
-        <v>1.021682497315934</v>
+        <v>1.042853433762743</v>
       </c>
       <c r="E25">
-        <v>1.009139599849902</v>
+        <v>1.034964617317231</v>
       </c>
       <c r="F25">
-        <v>1.021167140492089</v>
+        <v>1.051284932369591</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043452080322827</v>
+        <v>1.03870495598843</v>
       </c>
       <c r="J25">
-        <v>1.027164889899674</v>
+        <v>1.041552578261882</v>
       </c>
       <c r="K25">
-        <v>1.033953292915825</v>
+        <v>1.045883959859936</v>
       </c>
       <c r="L25">
-        <v>1.021597672941964</v>
+        <v>1.038019774287592</v>
       </c>
       <c r="M25">
-        <v>1.033445515762342</v>
+        <v>1.054289579107341</v>
       </c>
       <c r="N25">
-        <v>1.012660084418364</v>
+        <v>1.017750336275501</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037278529888334</v>
+        <v>1.009179166518331</v>
       </c>
       <c r="D2">
-        <v>1.043896643453357</v>
+        <v>1.026602245588375</v>
       </c>
       <c r="E2">
-        <v>1.036084749279061</v>
+        <v>1.014292931686042</v>
       </c>
       <c r="F2">
-        <v>1.052647421909903</v>
+        <v>1.02737553154326</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039039805171452</v>
+        <v>1.045438625049946</v>
       </c>
       <c r="J2">
-        <v>1.042382269688147</v>
+        <v>1.031088754145884</v>
       </c>
       <c r="K2">
-        <v>1.046669217456616</v>
+        <v>1.037703003545678</v>
       </c>
       <c r="L2">
-        <v>1.038879501990603</v>
+        <v>1.025556670755548</v>
       </c>
       <c r="M2">
-        <v>1.055395575432976</v>
+        <v>1.038466214115277</v>
       </c>
       <c r="N2">
-        <v>1.018030650475702</v>
+        <v>1.014001351413191</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038236254006643</v>
+        <v>1.013725673981626</v>
       </c>
       <c r="D3">
-        <v>1.0446549255685</v>
+        <v>1.030077927462654</v>
       </c>
       <c r="E3">
-        <v>1.03689961089894</v>
+        <v>1.017938535784318</v>
       </c>
       <c r="F3">
-        <v>1.05363866180943</v>
+        <v>1.031765896789532</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039280819455312</v>
+        <v>1.046821041278711</v>
       </c>
       <c r="J3">
-        <v>1.042984265356505</v>
+        <v>1.033849030498231</v>
       </c>
       <c r="K3">
-        <v>1.04723876573907</v>
+        <v>1.040339893338007</v>
       </c>
       <c r="L3">
-        <v>1.039503877975598</v>
+        <v>1.028346921541946</v>
       </c>
       <c r="M3">
-        <v>1.05619924513287</v>
+        <v>1.042007841210229</v>
       </c>
       <c r="N3">
-        <v>1.018233852474666</v>
+        <v>1.014944217042353</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038856374692977</v>
+        <v>1.016607858296338</v>
       </c>
       <c r="D4">
-        <v>1.045145957218835</v>
+        <v>1.032284594072538</v>
       </c>
       <c r="E4">
-        <v>1.037427589661962</v>
+        <v>1.020255398124341</v>
       </c>
       <c r="F4">
-        <v>1.054280957339708</v>
+        <v>1.034555456003476</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039435790063998</v>
+        <v>1.047688908084933</v>
       </c>
       <c r="J4">
-        <v>1.043373591488271</v>
+        <v>1.035596067280933</v>
       </c>
       <c r="K4">
-        <v>1.047607010653035</v>
+        <v>1.042008382009557</v>
       </c>
       <c r="L4">
-        <v>1.03990794948473</v>
+        <v>1.030115353555189</v>
       </c>
       <c r="M4">
-        <v>1.056719553776026</v>
+        <v>1.044253975431927</v>
       </c>
       <c r="N4">
-        <v>1.018365182562633</v>
+        <v>1.015540637579583</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039117170542377</v>
+        <v>1.017805739821744</v>
       </c>
       <c r="D5">
-        <v>1.045352474857227</v>
+        <v>1.033202466463643</v>
       </c>
       <c r="E5">
-        <v>1.037649720378461</v>
+        <v>1.021219668983125</v>
       </c>
       <c r="F5">
-        <v>1.054551191948855</v>
+        <v>1.035716333166099</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039500704189225</v>
+        <v>1.048047534413823</v>
       </c>
       <c r="J5">
-        <v>1.0435372141769</v>
+        <v>1.036321458943738</v>
       </c>
       <c r="K5">
-        <v>1.047761750282291</v>
+        <v>1.042701043527192</v>
       </c>
       <c r="L5">
-        <v>1.040077834204238</v>
+        <v>1.030850209438594</v>
       </c>
       <c r="M5">
-        <v>1.056938357653175</v>
+        <v>1.045187700868947</v>
       </c>
       <c r="N5">
-        <v>1.018420356208726</v>
+        <v>1.015788192648194</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039160964983603</v>
+        <v>1.018006075065677</v>
       </c>
       <c r="D6">
-        <v>1.045387155198258</v>
+        <v>1.033356015137306</v>
       </c>
       <c r="E6">
-        <v>1.037687026944672</v>
+        <v>1.021381012781068</v>
       </c>
       <c r="F6">
-        <v>1.054596578018245</v>
+        <v>1.035910566518565</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039511589731483</v>
+        <v>1.048107388684281</v>
       </c>
       <c r="J6">
-        <v>1.04356468418822</v>
+        <v>1.036442731994916</v>
       </c>
       <c r="K6">
-        <v>1.047787727585086</v>
+        <v>1.042816837639966</v>
       </c>
       <c r="L6">
-        <v>1.040106359334347</v>
+        <v>1.030973098862334</v>
       </c>
       <c r="M6">
-        <v>1.056975099633863</v>
+        <v>1.04534386877449</v>
       </c>
       <c r="N6">
-        <v>1.018429617895589</v>
+        <v>1.015829574398457</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038859859079327</v>
+        <v>1.016623917976309</v>
       </c>
       <c r="D7">
-        <v>1.045148716373645</v>
+        <v>1.032296896857325</v>
       </c>
       <c r="E7">
-        <v>1.037430557123156</v>
+        <v>1.020268320586574</v>
       </c>
       <c r="F7">
-        <v>1.054284567390079</v>
+        <v>1.034571013724807</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039436658375745</v>
+        <v>1.047693724326963</v>
       </c>
       <c r="J7">
-        <v>1.043375778020254</v>
+        <v>1.035605795241596</v>
       </c>
       <c r="K7">
-        <v>1.047609078569788</v>
+        <v>1.042017671505739</v>
       </c>
       <c r="L7">
-        <v>1.039910219442545</v>
+        <v>1.030125206143371</v>
       </c>
       <c r="M7">
-        <v>1.056722477185636</v>
+        <v>1.044266492914597</v>
       </c>
       <c r="N7">
-        <v>1.018365919943493</v>
+        <v>1.015543957796832</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037602112018745</v>
+        <v>1.010728356112809</v>
       </c>
       <c r="D8">
-        <v>1.044152830596516</v>
+        <v>1.027785833790188</v>
       </c>
       <c r="E8">
-        <v>1.036359988066714</v>
+        <v>1.0155339036176</v>
       </c>
       <c r="F8">
-        <v>1.052982229625955</v>
+        <v>1.028870162434564</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039121460061962</v>
+        <v>1.045911432704257</v>
       </c>
       <c r="J8">
-        <v>1.042585758936189</v>
+        <v>1.032029863569756</v>
       </c>
       <c r="K8">
-        <v>1.046861758665472</v>
+        <v>1.038602135614389</v>
       </c>
       <c r="L8">
-        <v>1.039090500096389</v>
+        <v>1.026507490456154</v>
       </c>
       <c r="M8">
-        <v>1.055667120634471</v>
+        <v>1.039672769281527</v>
       </c>
       <c r="N8">
-        <v>1.018099355454323</v>
+        <v>1.014322887236712</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03538897144332</v>
+        <v>0.9998582419749101</v>
       </c>
       <c r="D9">
-        <v>1.042400858941688</v>
+        <v>1.019497174654451</v>
       </c>
       <c r="E9">
-        <v>1.034478992182175</v>
+        <v>1.006852897776316</v>
       </c>
       <c r="F9">
-        <v>1.050694266559379</v>
+        <v>1.018411324863934</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038558542829174</v>
+        <v>1.042559336337282</v>
       </c>
       <c r="J9">
-        <v>1.041192109963547</v>
+        <v>1.025416007076582</v>
       </c>
       <c r="K9">
-        <v>1.045542696708216</v>
+        <v>1.032281650084919</v>
       </c>
       <c r="L9">
-        <v>1.037646539679249</v>
+        <v>1.019835761408536</v>
       </c>
       <c r="M9">
-        <v>1.053809643238017</v>
+        <v>1.031212590236759</v>
       </c>
       <c r="N9">
-        <v>1.01762846246099</v>
+        <v>1.0120619845568</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033915724323855</v>
+        <v>0.9922519914620305</v>
       </c>
       <c r="D10">
-        <v>1.041234904030708</v>
+        <v>1.013720255807017</v>
       </c>
       <c r="E10">
-        <v>1.033228755124746</v>
+        <v>1.000814291851575</v>
       </c>
       <c r="F10">
-        <v>1.049173681501981</v>
+        <v>1.011130796820365</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038178252325725</v>
+        <v>1.040171449804164</v>
       </c>
       <c r="J10">
-        <v>1.040262029554822</v>
+        <v>1.020776424176432</v>
       </c>
       <c r="K10">
-        <v>1.044661902587894</v>
+        <v>1.027846128110251</v>
       </c>
       <c r="L10">
-        <v>1.036684284338336</v>
+        <v>1.015168859555569</v>
       </c>
       <c r="M10">
-        <v>1.0525728630632</v>
+        <v>1.025301948030924</v>
       </c>
       <c r="N10">
-        <v>1.017313767307285</v>
+        <v>1.010474624065414</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033278318807507</v>
+        <v>0.9888644365364212</v>
       </c>
       <c r="D11">
-        <v>1.040730528243643</v>
+        <v>1.011153709210792</v>
       </c>
       <c r="E11">
-        <v>1.032688295775276</v>
+        <v>0.9981341739624063</v>
       </c>
       <c r="F11">
-        <v>1.048516386047764</v>
+        <v>1.007897921328227</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038012399351212</v>
+        <v>1.039098484337747</v>
       </c>
       <c r="J11">
-        <v>1.039859072158302</v>
+        <v>1.018707919321474</v>
       </c>
       <c r="K11">
-        <v>1.044280183079952</v>
+        <v>1.02586830431169</v>
       </c>
       <c r="L11">
-        <v>1.036267719944407</v>
+        <v>1.013091363018032</v>
       </c>
       <c r="M11">
-        <v>1.052037701133741</v>
+        <v>1.022672415729311</v>
       </c>
       <c r="N11">
-        <v>1.01717732351935</v>
+        <v>1.009766670537659</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033041636893176</v>
+        <v>0.9875912243286584</v>
       </c>
       <c r="D12">
-        <v>1.040543255471946</v>
+        <v>1.010190092876007</v>
       </c>
       <c r="E12">
-        <v>1.032487681758369</v>
+        <v>0.9971283122981259</v>
       </c>
       <c r="F12">
-        <v>1.048272407815987</v>
+        <v>1.00668434575743</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037950616628536</v>
+        <v>1.03869383396396</v>
       </c>
       <c r="J12">
-        <v>1.03970936261741</v>
+        <v>1.017930191153142</v>
       </c>
       <c r="K12">
-        <v>1.044138346733439</v>
+        <v>1.025124636548179</v>
       </c>
       <c r="L12">
-        <v>1.036113005076226</v>
+        <v>1.012310736890199</v>
       </c>
       <c r="M12">
-        <v>1.051838975045857</v>
+        <v>1.021684595014874</v>
       </c>
       <c r="N12">
-        <v>1.017126615720902</v>
+        <v>1.009500459366869</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03309240238637</v>
+        <v>0.9878650214863067</v>
       </c>
       <c r="D13">
-        <v>1.040583422711009</v>
+        <v>1.010397265843245</v>
       </c>
       <c r="E13">
-        <v>1.032530707943013</v>
+        <v>0.9973445500952045</v>
       </c>
       <c r="F13">
-        <v>1.048324734238574</v>
+        <v>1.006945249666877</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037963877259379</v>
+        <v>1.038780913143289</v>
       </c>
       <c r="J13">
-        <v>1.039741477312666</v>
+        <v>1.018097449108094</v>
       </c>
       <c r="K13">
-        <v>1.044168773302816</v>
+        <v>1.025284570866578</v>
       </c>
       <c r="L13">
-        <v>1.036146191216032</v>
+        <v>1.012478596202249</v>
       </c>
       <c r="M13">
-        <v>1.05188159987648</v>
+        <v>1.021896997260377</v>
       </c>
       <c r="N13">
-        <v>1.017137493909402</v>
+        <v>1.009557711938853</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033258752993427</v>
+        <v>0.9887595016888477</v>
       </c>
       <c r="D14">
-        <v>1.04071504668412</v>
+        <v>1.01107426927435</v>
       </c>
       <c r="E14">
-        <v>1.032671710163493</v>
+        <v>0.9980512433621402</v>
       </c>
       <c r="F14">
-        <v>1.048496215245086</v>
+        <v>1.007797870747778</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038007295991352</v>
+        <v>1.039065161790638</v>
       </c>
       <c r="J14">
-        <v>1.039846697794045</v>
+        <v>1.018643826396707</v>
       </c>
       <c r="K14">
-        <v>1.044268459832475</v>
+        <v>1.025807018957603</v>
       </c>
       <c r="L14">
-        <v>1.036254930839785</v>
+        <v>1.013027021436175</v>
       </c>
       <c r="M14">
-        <v>1.052021273207264</v>
+        <v>1.022590991821169</v>
       </c>
       <c r="N14">
-        <v>1.017173132535496</v>
+        <v>1.009744732545419</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033361257566014</v>
+        <v>0.9893086180215095</v>
       </c>
       <c r="D15">
-        <v>1.040796154512095</v>
+        <v>1.011490014643823</v>
       </c>
       <c r="E15">
-        <v>1.032758604428542</v>
+        <v>0.9984852730306801</v>
       </c>
       <c r="F15">
-        <v>1.048601892987711</v>
+        <v>1.008321489566214</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038034024192143</v>
+        <v>1.039239480420701</v>
       </c>
       <c r="J15">
-        <v>1.039911523226998</v>
+        <v>1.018979208809053</v>
       </c>
       <c r="K15">
-        <v>1.044329873561764</v>
+        <v>1.026127708709044</v>
       </c>
       <c r="L15">
-        <v>1.036321931017378</v>
+        <v>1.01336372470849</v>
       </c>
       <c r="M15">
-        <v>1.052107338122935</v>
+        <v>1.023017097420903</v>
       </c>
       <c r="N15">
-        <v>1.017195087168121</v>
+        <v>1.009859527412095</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033958037850206</v>
+        <v>0.9924747647834042</v>
       </c>
       <c r="D16">
-        <v>1.041268388222959</v>
+        <v>1.013889175021559</v>
       </c>
       <c r="E16">
-        <v>1.03326464272897</v>
+        <v>1.000990741203313</v>
       </c>
       <c r="F16">
-        <v>1.049217327894983</v>
+        <v>1.011343603008494</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038189234519217</v>
+        <v>1.040241816908976</v>
       </c>
       <c r="J16">
-        <v>1.040288767807329</v>
+        <v>1.020912412085087</v>
       </c>
       <c r="K16">
-        <v>1.04468722917587</v>
+        <v>1.027976149120532</v>
       </c>
       <c r="L16">
-        <v>1.036711932497186</v>
+        <v>1.015305505301869</v>
       </c>
       <c r="M16">
-        <v>1.052608387920555</v>
+        <v>1.025474936544682</v>
       </c>
       <c r="N16">
-        <v>1.017322818896674</v>
+        <v>1.010521161821611</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034332522136519</v>
+        <v>0.9944350909329049</v>
       </c>
       <c r="D17">
-        <v>1.041564740074812</v>
+        <v>1.015376328683432</v>
       </c>
       <c r="E17">
-        <v>1.033582309403672</v>
+        <v>1.00254449522075</v>
       </c>
       <c r="F17">
-        <v>1.049603676708997</v>
+        <v>1.013217322649806</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038286276995608</v>
+        <v>1.040859948577096</v>
       </c>
       <c r="J17">
-        <v>1.040525343303769</v>
+        <v>1.022108812953102</v>
       </c>
       <c r="K17">
-        <v>1.044911301188603</v>
+        <v>1.029120021522844</v>
       </c>
       <c r="L17">
-        <v>1.036956597128663</v>
+        <v>1.016508056825586</v>
       </c>
       <c r="M17">
-        <v>1.052922783523098</v>
+        <v>1.026997506316016</v>
       </c>
       <c r="N17">
-        <v>1.017402894035805</v>
+        <v>1.010930566556562</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034551002628969</v>
+        <v>0.995569503591478</v>
       </c>
       <c r="D18">
-        <v>1.041737644331968</v>
+        <v>1.016237514710716</v>
       </c>
       <c r="E18">
-        <v>1.033767685906066</v>
+        <v>1.003444504603408</v>
       </c>
       <c r="F18">
-        <v>1.049829136188021</v>
+        <v>1.014302525662144</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03834276589639</v>
+        <v>1.041216749284542</v>
       </c>
       <c r="J18">
-        <v>1.04066331188629</v>
+        <v>1.022800941010396</v>
       </c>
       <c r="K18">
-        <v>1.045041966721957</v>
+        <v>1.029781732539107</v>
       </c>
       <c r="L18">
-        <v>1.0370993153144</v>
+        <v>1.017204045118775</v>
       </c>
       <c r="M18">
-        <v>1.053106200989911</v>
+        <v>1.027878862784828</v>
       </c>
       <c r="N18">
-        <v>1.017449583243414</v>
+        <v>1.011167386824205</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034625507314337</v>
+        <v>0.9959548037394736</v>
       </c>
       <c r="D19">
-        <v>1.041796608191587</v>
+        <v>1.016530112340918</v>
       </c>
       <c r="E19">
-        <v>1.033830909206942</v>
+        <v>1.003750336621034</v>
       </c>
       <c r="F19">
-        <v>1.049906030456524</v>
+        <v>1.014671264347566</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038362007745367</v>
+        <v>1.04133778103775</v>
       </c>
       <c r="J19">
-        <v>1.040710351868288</v>
+        <v>1.023035983010078</v>
       </c>
       <c r="K19">
-        <v>1.0450865148594</v>
+        <v>1.030006439921291</v>
       </c>
       <c r="L19">
-        <v>1.037147980102527</v>
+        <v>1.017440449154273</v>
       </c>
       <c r="M19">
-        <v>1.053168747653805</v>
+        <v>1.028178256694078</v>
       </c>
       <c r="N19">
-        <v>1.017465500117384</v>
+        <v>1.011247805151777</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034292338324809</v>
+        <v>0.9942257042959209</v>
       </c>
       <c r="D20">
-        <v>1.041532939431398</v>
+        <v>1.01521742072199</v>
       </c>
       <c r="E20">
-        <v>1.033548217778093</v>
+        <v>1.002378444249636</v>
       </c>
       <c r="F20">
-        <v>1.049562213880809</v>
+        <v>1.013017092015554</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038275877079186</v>
+        <v>1.040794017980506</v>
       </c>
       <c r="J20">
-        <v>1.040499963251568</v>
+        <v>1.021981044461129</v>
       </c>
       <c r="K20">
-        <v>1.044887263673787</v>
+        <v>1.028997865683332</v>
       </c>
       <c r="L20">
-        <v>1.036930345945708</v>
+        <v>1.016379600114975</v>
       </c>
       <c r="M20">
-        <v>1.052889048137046</v>
+        <v>1.026834849246881</v>
       </c>
       <c r="N20">
-        <v>1.017394304514607</v>
+        <v>1.010886846997441</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033209764702688</v>
+        <v>0.9884965182485319</v>
       </c>
       <c r="D21">
-        <v>1.040676284628905</v>
+        <v>1.010875196834396</v>
       </c>
       <c r="E21">
-        <v>1.032630184742098</v>
+        <v>0.997843429834727</v>
       </c>
       <c r="F21">
-        <v>1.048445713645329</v>
+        <v>1.007547152424002</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03799451515448</v>
+        <v>1.038981628178469</v>
       </c>
       <c r="J21">
-        <v>1.039815713895503</v>
+        <v>1.018483194969015</v>
       </c>
       <c r="K21">
-        <v>1.044239105972492</v>
+        <v>1.025653423421977</v>
       </c>
       <c r="L21">
-        <v>1.036222909290402</v>
+        <v>1.012865774607281</v>
       </c>
       <c r="M21">
-        <v>1.051980141314501</v>
+        <v>1.02238693862015</v>
       </c>
       <c r="N21">
-        <v>1.017162638577122</v>
+        <v>1.009689750479549</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032529564405652</v>
+        <v>0.9848075693202</v>
       </c>
       <c r="D22">
-        <v>1.040138105414007</v>
+        <v>1.008085276858095</v>
       </c>
       <c r="E22">
-        <v>1.03205377214291</v>
+        <v>0.9949319367879842</v>
       </c>
       <c r="F22">
-        <v>1.047744713028087</v>
+        <v>1.004033899592936</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037816584754474</v>
+        <v>1.037806661532938</v>
       </c>
       <c r="J22">
-        <v>1.039385307351345</v>
+        <v>1.016229365410012</v>
       </c>
       <c r="K22">
-        <v>1.043831302003707</v>
+        <v>1.023498246600454</v>
       </c>
       <c r="L22">
-        <v>1.035778207038651</v>
+        <v>1.01060446603872</v>
       </c>
       <c r="M22">
-        <v>1.051409005105405</v>
+        <v>1.01952586548038</v>
       </c>
       <c r="N22">
-        <v>1.01701682785673</v>
+        <v>1.008918228501257</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032890107920676</v>
+        <v>0.9867716597532458</v>
       </c>
       <c r="D23">
-        <v>1.040423362898899</v>
+        <v>1.009570111787958</v>
       </c>
       <c r="E23">
-        <v>1.032359263968911</v>
+        <v>0.9964812612328161</v>
       </c>
       <c r="F23">
-        <v>1.048116232753378</v>
+        <v>1.005903599259905</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037911006224966</v>
+        <v>1.038432979620078</v>
       </c>
       <c r="J23">
-        <v>1.039613491918788</v>
+        <v>1.017429496099215</v>
       </c>
       <c r="K23">
-        <v>1.044047513008483</v>
+        <v>1.024645860947635</v>
       </c>
       <c r="L23">
-        <v>1.036013943167879</v>
+        <v>1.011808312709721</v>
       </c>
       <c r="M23">
-        <v>1.051711743645609</v>
+        <v>1.021048881885129</v>
       </c>
       <c r="N23">
-        <v>1.017094139278891</v>
+        <v>1.009329066909409</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034310495504709</v>
+        <v>0.9943203448968</v>
       </c>
       <c r="D24">
-        <v>1.041547308627475</v>
+        <v>1.015289243653654</v>
       </c>
       <c r="E24">
-        <v>1.033563622047828</v>
+        <v>1.002453494871037</v>
       </c>
       <c r="F24">
-        <v>1.049580948812179</v>
+        <v>1.013107591385544</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038280576707061</v>
+        <v>1.040823820734574</v>
       </c>
       <c r="J24">
-        <v>1.040511431472417</v>
+        <v>1.022038795163063</v>
       </c>
       <c r="K24">
-        <v>1.04489812529062</v>
+        <v>1.029053079585514</v>
       </c>
       <c r="L24">
-        <v>1.036942207696206</v>
+        <v>1.016437660951884</v>
       </c>
       <c r="M24">
-        <v>1.052904291595242</v>
+        <v>1.026908367741056</v>
       </c>
       <c r="N24">
-        <v>1.017398185802886</v>
+        <v>1.010906608087973</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035960740658548</v>
+        <v>1.002729020427102</v>
       </c>
       <c r="D25">
-        <v>1.042853433762743</v>
+        <v>1.021682497315934</v>
       </c>
       <c r="E25">
-        <v>1.034964617317231</v>
+        <v>1.009139599849901</v>
       </c>
       <c r="F25">
-        <v>1.051284932369591</v>
+        <v>1.021167140492089</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03870495598843</v>
+        <v>1.043452080322827</v>
       </c>
       <c r="J25">
-        <v>1.041552578261882</v>
+        <v>1.027164889899673</v>
       </c>
       <c r="K25">
-        <v>1.045883959859936</v>
+        <v>1.033953292915825</v>
       </c>
       <c r="L25">
-        <v>1.038019774287592</v>
+        <v>1.021597672941964</v>
       </c>
       <c r="M25">
-        <v>1.054289579107341</v>
+        <v>1.033445515762342</v>
       </c>
       <c r="N25">
-        <v>1.017750336275501</v>
+        <v>1.012660084418364</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009179166518331</v>
+        <v>1.008884534618139</v>
       </c>
       <c r="D2">
-        <v>1.026602245588375</v>
+        <v>1.025981700245599</v>
       </c>
       <c r="E2">
-        <v>1.014292931686042</v>
+        <v>1.014057756879259</v>
       </c>
       <c r="F2">
-        <v>1.02737553154326</v>
+        <v>1.026971231186428</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045438625049946</v>
+        <v>1.045575710702927</v>
       </c>
       <c r="J2">
-        <v>1.031088754145884</v>
+        <v>1.030802719626016</v>
       </c>
       <c r="K2">
-        <v>1.037703003545678</v>
+        <v>1.037090557242222</v>
       </c>
       <c r="L2">
-        <v>1.025556670755548</v>
+        <v>1.02532465818276</v>
       </c>
       <c r="M2">
-        <v>1.038466214115277</v>
+        <v>1.038067179144381</v>
       </c>
       <c r="N2">
-        <v>1.014001351413191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013953281669237</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.038700007032197</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.03729649964876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013725673981626</v>
+        <v>1.012740023742084</v>
       </c>
       <c r="D3">
-        <v>1.030077927462654</v>
+        <v>1.028527541254002</v>
       </c>
       <c r="E3">
-        <v>1.017938535784318</v>
+        <v>1.017104728366964</v>
       </c>
       <c r="F3">
-        <v>1.031765896789532</v>
+        <v>1.030039802760335</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046821041278711</v>
+        <v>1.046602796643139</v>
       </c>
       <c r="J3">
-        <v>1.033849030498231</v>
+        <v>1.032889306903298</v>
       </c>
       <c r="K3">
-        <v>1.040339893338007</v>
+        <v>1.038807968458354</v>
       </c>
       <c r="L3">
-        <v>1.028346921541946</v>
+        <v>1.027523330654551</v>
       </c>
       <c r="M3">
-        <v>1.042007841210229</v>
+        <v>1.040302221782112</v>
       </c>
       <c r="N3">
-        <v>1.014944217042353</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014672997921421</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.04046889567643</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038508194010715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016607858296338</v>
+        <v>1.015189506958084</v>
       </c>
       <c r="D4">
-        <v>1.032284594072538</v>
+        <v>1.030148852204787</v>
       </c>
       <c r="E4">
-        <v>1.020255398124341</v>
+        <v>1.019046135321401</v>
       </c>
       <c r="F4">
-        <v>1.034555456003476</v>
+        <v>1.031988671250282</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047688908084933</v>
+        <v>1.047246262248843</v>
       </c>
       <c r="J4">
-        <v>1.035596067280933</v>
+        <v>1.034212485813274</v>
       </c>
       <c r="K4">
-        <v>1.042008382009557</v>
+        <v>1.039896530289813</v>
       </c>
       <c r="L4">
-        <v>1.030115353555189</v>
+        <v>1.028919998874904</v>
       </c>
       <c r="M4">
-        <v>1.044253975431927</v>
+        <v>1.041715762081128</v>
       </c>
       <c r="N4">
-        <v>1.015540637579583</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015129250912944</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.041587617229172</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039278799660336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017805739821744</v>
+        <v>1.016212794288315</v>
       </c>
       <c r="D5">
-        <v>1.033202466463643</v>
+        <v>1.030829312019926</v>
       </c>
       <c r="E5">
-        <v>1.021219668983125</v>
+        <v>1.019858980584006</v>
       </c>
       <c r="F5">
-        <v>1.035716333166099</v>
+        <v>1.032800202840254</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048047534413823</v>
+        <v>1.047514460891821</v>
       </c>
       <c r="J5">
-        <v>1.036321458943738</v>
+        <v>1.034766390592246</v>
       </c>
       <c r="K5">
-        <v>1.042701043527192</v>
+        <v>1.040353724889885</v>
       </c>
       <c r="L5">
-        <v>1.030850209438594</v>
+        <v>1.029504747277625</v>
       </c>
       <c r="M5">
-        <v>1.045187700868947</v>
+        <v>1.042303148970878</v>
       </c>
       <c r="N5">
-        <v>1.015788192648194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015320665993341</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.04205249371996</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.039609249761111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018006075065677</v>
+        <v>1.016388912030575</v>
       </c>
       <c r="D6">
-        <v>1.033356015137306</v>
+        <v>1.030949208065354</v>
       </c>
       <c r="E6">
-        <v>1.021381012781068</v>
+        <v>1.019999559118722</v>
       </c>
       <c r="F6">
-        <v>1.035910566518565</v>
+        <v>1.032936902611876</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048107388684281</v>
+        <v>1.047562431508997</v>
       </c>
       <c r="J6">
-        <v>1.036442731994916</v>
+        <v>1.034863823359587</v>
       </c>
       <c r="K6">
-        <v>1.042816837639966</v>
+        <v>1.040436112244413</v>
       </c>
       <c r="L6">
-        <v>1.030973098862334</v>
+        <v>1.029607031910813</v>
       </c>
       <c r="M6">
-        <v>1.04534386877449</v>
+        <v>1.042402256163643</v>
       </c>
       <c r="N6">
-        <v>1.015829574398457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015354890951211</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.042130930245383</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.039676253283216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016623917976309</v>
+        <v>1.015216454058214</v>
       </c>
       <c r="D7">
-        <v>1.032296896857325</v>
+        <v>1.030174081240535</v>
       </c>
       <c r="E7">
-        <v>1.020268320586574</v>
+        <v>1.019069170882346</v>
       </c>
       <c r="F7">
-        <v>1.034571013724807</v>
+        <v>1.032002069610814</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047693724326963</v>
+        <v>1.047258556601672</v>
       </c>
       <c r="J7">
-        <v>1.035605795241596</v>
+        <v>1.034232819756688</v>
       </c>
       <c r="K7">
-        <v>1.042017671505739</v>
+        <v>1.039918592466652</v>
       </c>
       <c r="L7">
-        <v>1.030125206143371</v>
+        <v>1.028939843035827</v>
       </c>
       <c r="M7">
-        <v>1.044266492914597</v>
+        <v>1.041726133727578</v>
       </c>
       <c r="N7">
-        <v>1.015543957796832</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015137797570727</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.04159582567953</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039314523697276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010728356112809</v>
+        <v>1.010213753981607</v>
       </c>
       <c r="D8">
-        <v>1.027785833790188</v>
+        <v>1.026867665553951</v>
       </c>
       <c r="E8">
-        <v>1.0155339036176</v>
+        <v>1.015109197729076</v>
       </c>
       <c r="F8">
-        <v>1.028870162434564</v>
+        <v>1.02801921691293</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045911432704257</v>
+        <v>1.04593816151317</v>
       </c>
       <c r="J8">
-        <v>1.032029863569756</v>
+        <v>1.031529769279704</v>
       </c>
       <c r="K8">
-        <v>1.038602135614389</v>
+        <v>1.037695591994569</v>
       </c>
       <c r="L8">
-        <v>1.026507490456154</v>
+        <v>1.026088322026329</v>
       </c>
       <c r="M8">
-        <v>1.039672769281527</v>
+        <v>1.038832568083427</v>
       </c>
       <c r="N8">
-        <v>1.014322887236712</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014206091326908</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.039305762321259</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037747249599881</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9998582419749101</v>
+        <v>1.001014507213463</v>
       </c>
       <c r="D9">
-        <v>1.019497174654451</v>
+        <v>1.020808457106372</v>
       </c>
       <c r="E9">
-        <v>1.006852897776316</v>
+        <v>1.007870570449433</v>
       </c>
       <c r="F9">
-        <v>1.018411324863934</v>
+        <v>1.020704058411857</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042559336337282</v>
+        <v>1.043431184672365</v>
       </c>
       <c r="J9">
-        <v>1.025416007076582</v>
+        <v>1.026531491409594</v>
       </c>
       <c r="K9">
-        <v>1.032281650084919</v>
+        <v>1.033572717620482</v>
       </c>
       <c r="L9">
-        <v>1.019835761408536</v>
+        <v>1.020837230850911</v>
       </c>
       <c r="M9">
-        <v>1.031212590236759</v>
+        <v>1.033469925921898</v>
       </c>
       <c r="N9">
-        <v>1.0120619845568</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012479655085247</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.035061570943041</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034828909008475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9922519914620305</v>
+        <v>0.9946844145612331</v>
       </c>
       <c r="D10">
-        <v>1.013720255807017</v>
+        <v>1.016687829451256</v>
       </c>
       <c r="E10">
-        <v>1.000814291851575</v>
+        <v>1.002931603577388</v>
       </c>
       <c r="F10">
-        <v>1.011130796820365</v>
+        <v>1.01616719845564</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040171449804164</v>
+        <v>1.041735935029706</v>
       </c>
       <c r="J10">
-        <v>1.020776424176432</v>
+        <v>1.023110530046008</v>
       </c>
       <c r="K10">
-        <v>1.027846128110251</v>
+        <v>1.030762178112774</v>
       </c>
       <c r="L10">
-        <v>1.015168859555569</v>
+        <v>1.017248127986954</v>
       </c>
       <c r="M10">
-        <v>1.025301948030924</v>
+        <v>1.030250558259006</v>
       </c>
       <c r="N10">
-        <v>1.010474624065414</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.01130429429621</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.032565443374499</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032858530768563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9888644365364212</v>
+        <v>0.9923865037744489</v>
       </c>
       <c r="D11">
-        <v>1.011153709210792</v>
+        <v>1.015372283234848</v>
       </c>
       <c r="E11">
-        <v>0.9981341739624063</v>
+        <v>1.001214081563867</v>
       </c>
       <c r="F11">
-        <v>1.007897921328227</v>
+        <v>1.018426715870714</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039098484337747</v>
+        <v>1.041678507266942</v>
       </c>
       <c r="J11">
-        <v>1.018707919321474</v>
+        <v>1.022079479298349</v>
       </c>
       <c r="K11">
-        <v>1.02586830431169</v>
+        <v>1.030010008969766</v>
       </c>
       <c r="L11">
-        <v>1.013091363018032</v>
+        <v>1.016113138347001</v>
       </c>
       <c r="M11">
-        <v>1.022672415729311</v>
+        <v>1.033009301307474</v>
       </c>
       <c r="N11">
-        <v>1.009766670537659</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011004660529063</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.035186558314479</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.032359669431265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9875912243286584</v>
+        <v>0.9916512955387785</v>
       </c>
       <c r="D12">
-        <v>1.010190092876007</v>
+        <v>1.015000451130992</v>
       </c>
       <c r="E12">
-        <v>0.9971283122981259</v>
+        <v>1.000690515864368</v>
       </c>
       <c r="F12">
-        <v>1.00668434575743</v>
+        <v>1.020599318128534</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03869383396396</v>
+        <v>1.041842648607972</v>
       </c>
       <c r="J12">
-        <v>1.017930191153142</v>
+        <v>1.021813239039794</v>
       </c>
       <c r="K12">
-        <v>1.025124636548179</v>
+        <v>1.029845800430339</v>
       </c>
       <c r="L12">
-        <v>1.012310736890199</v>
+        <v>1.01580449862652</v>
       </c>
       <c r="M12">
-        <v>1.021684595014874</v>
+        <v>1.035342229893424</v>
       </c>
       <c r="N12">
-        <v>1.009500459366869</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010956969119254</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.037358747974946</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.032243567914645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9878650214863067</v>
+        <v>0.9920866413521914</v>
       </c>
       <c r="D13">
-        <v>1.010397265843245</v>
+        <v>1.015349231843691</v>
       </c>
       <c r="E13">
-        <v>0.9973445500952045</v>
+        <v>1.001063935010448</v>
       </c>
       <c r="F13">
-        <v>1.006945249666877</v>
+        <v>1.022888010649735</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038780913143289</v>
+        <v>1.042204594070061</v>
       </c>
       <c r="J13">
-        <v>1.018097449108094</v>
+        <v>1.022135864633281</v>
       </c>
       <c r="K13">
-        <v>1.025284570866578</v>
+        <v>1.030145089667539</v>
       </c>
       <c r="L13">
-        <v>1.012478596202249</v>
+        <v>1.016126814546557</v>
       </c>
       <c r="M13">
-        <v>1.021896997260377</v>
+        <v>1.037546860329765</v>
       </c>
       <c r="N13">
-        <v>1.009557711938853</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011108257394753</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039378638267411</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.032452675179188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9887595016888477</v>
+        <v>0.9929156274286626</v>
       </c>
       <c r="D14">
-        <v>1.01107426927435</v>
+        <v>1.015914088504118</v>
       </c>
       <c r="E14">
-        <v>0.9980512433621402</v>
+        <v>1.001726521977013</v>
       </c>
       <c r="F14">
-        <v>1.007797870747778</v>
+        <v>1.024485286538015</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039065161790638</v>
+        <v>1.042535608879269</v>
       </c>
       <c r="J14">
-        <v>1.018643826396707</v>
+        <v>1.022622203527086</v>
       </c>
       <c r="K14">
-        <v>1.025807018957603</v>
+        <v>1.030558585611287</v>
       </c>
       <c r="L14">
-        <v>1.013027021436175</v>
+        <v>1.016632878130419</v>
       </c>
       <c r="M14">
-        <v>1.022590991821169</v>
+        <v>1.038976144895483</v>
       </c>
       <c r="N14">
-        <v>1.009744732545419</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011302442544045</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.040681701581637</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032746461780136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9893086180215095</v>
+        <v>0.993384889517085</v>
       </c>
       <c r="D15">
-        <v>1.011490014643823</v>
+        <v>1.016223757585904</v>
       </c>
       <c r="E15">
-        <v>0.9984852730306801</v>
+        <v>1.002094814722124</v>
       </c>
       <c r="F15">
-        <v>1.008321489566214</v>
+        <v>1.024991258878738</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039239480420701</v>
+        <v>1.042678216059589</v>
       </c>
       <c r="J15">
-        <v>1.018979208809053</v>
+        <v>1.022882705937166</v>
       </c>
       <c r="K15">
-        <v>1.026127708709044</v>
+        <v>1.030775803358154</v>
       </c>
       <c r="L15">
-        <v>1.01336372470849</v>
+        <v>1.016905625169051</v>
       </c>
       <c r="M15">
-        <v>1.023017097420903</v>
+        <v>1.039387381325099</v>
       </c>
       <c r="N15">
-        <v>1.009859527412095</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011398286056144</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.041044253016247</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.032905933328981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9924747647834042</v>
+        <v>0.995967946355239</v>
       </c>
       <c r="D16">
-        <v>1.013889175021559</v>
+        <v>1.017890112337175</v>
       </c>
       <c r="E16">
-        <v>1.000990741203313</v>
+        <v>1.004096287384941</v>
       </c>
       <c r="F16">
-        <v>1.011343603008494</v>
+        <v>1.02648603093937</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040241816908976</v>
+        <v>1.043328648426394</v>
       </c>
       <c r="J16">
-        <v>1.020912412085087</v>
+        <v>1.024265155740988</v>
       </c>
       <c r="K16">
-        <v>1.027976149120532</v>
+        <v>1.031907945336954</v>
       </c>
       <c r="L16">
-        <v>1.015305505301869</v>
+        <v>1.018355512331473</v>
       </c>
       <c r="M16">
-        <v>1.025474936544682</v>
+        <v>1.040357666862002</v>
       </c>
       <c r="N16">
-        <v>1.010521161821611</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011865867865712</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041772477222665</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.033709578376657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,81 +1228,105 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9944350909329049</v>
+        <v>0.9975252701233398</v>
       </c>
       <c r="D17">
-        <v>1.015376328683432</v>
+        <v>1.018882900585663</v>
       </c>
       <c r="E17">
-        <v>1.00254449522075</v>
+        <v>1.005294782144595</v>
       </c>
       <c r="F17">
-        <v>1.013217322649806</v>
+        <v>1.026822409018294</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040859948577096</v>
+        <v>1.043662522011511</v>
       </c>
       <c r="J17">
-        <v>1.022108812953102</v>
+        <v>1.025078881854149</v>
       </c>
       <c r="K17">
-        <v>1.029120021522844</v>
+        <v>1.032567751129054</v>
       </c>
       <c r="L17">
-        <v>1.016508056825586</v>
+        <v>1.019210607215547</v>
       </c>
       <c r="M17">
-        <v>1.026997506316016</v>
+        <v>1.040375939384638</v>
       </c>
       <c r="N17">
-        <v>1.010930566556562</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012125392357233</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041657955350875</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.034178682187079</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>0.995569503591478</v>
+        <v>0.9983123326535556</v>
       </c>
       <c r="D18">
-        <v>1.016237514710716</v>
+        <v>1.019344563516003</v>
       </c>
       <c r="E18">
-        <v>1.003444504603408</v>
+        <v>1.005880677027906</v>
       </c>
       <c r="F18">
-        <v>1.014302525662144</v>
+        <v>1.025882902682622</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041216749284542</v>
+        <v>1.04369563263181</v>
       </c>
       <c r="J18">
-        <v>1.022800941010396</v>
+        <v>1.025439249994634</v>
       </c>
       <c r="K18">
-        <v>1.029781732539107</v>
+        <v>1.032837534870463</v>
       </c>
       <c r="L18">
-        <v>1.017204045118775</v>
+        <v>1.019598668560586</v>
       </c>
       <c r="M18">
-        <v>1.027878862784828</v>
+        <v>1.039269334750876</v>
       </c>
       <c r="N18">
-        <v>1.011167386824205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012214711544642</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040545452324887</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034357760484259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9959548037394736</v>
+        <v>0.9983738366461988</v>
       </c>
       <c r="D19">
-        <v>1.016530112340918</v>
+        <v>1.01930055044399</v>
       </c>
       <c r="E19">
-        <v>1.003750336621034</v>
+        <v>1.005888945063053</v>
       </c>
       <c r="F19">
-        <v>1.014671264347566</v>
+        <v>1.023533012902919</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04133778103775</v>
+        <v>1.043406497714652</v>
       </c>
       <c r="J19">
-        <v>1.023035983010078</v>
+        <v>1.025363432127663</v>
       </c>
       <c r="K19">
-        <v>1.030006439921291</v>
+        <v>1.032731441862016</v>
       </c>
       <c r="L19">
-        <v>1.017440449154273</v>
+        <v>1.019542793805499</v>
       </c>
       <c r="M19">
-        <v>1.028178256694078</v>
+        <v>1.036895100130808</v>
       </c>
       <c r="N19">
-        <v>1.011247805151777</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012147175415558</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038342116842394</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034289160989676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9942257042959209</v>
+        <v>0.9963615770353252</v>
       </c>
       <c r="D20">
-        <v>1.01521742072199</v>
+        <v>1.017797059650859</v>
       </c>
       <c r="E20">
-        <v>1.002378444249636</v>
+        <v>1.004242967505448</v>
       </c>
       <c r="F20">
-        <v>1.013017092015554</v>
+        <v>1.017371564427686</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040794017980506</v>
+        <v>1.042204573467608</v>
       </c>
       <c r="J20">
-        <v>1.021981044461129</v>
+        <v>1.024033477871555</v>
       </c>
       <c r="K20">
-        <v>1.028997865683332</v>
+        <v>1.031534025047165</v>
       </c>
       <c r="L20">
-        <v>1.016379600114975</v>
+        <v>1.018211617500725</v>
       </c>
       <c r="M20">
-        <v>1.026834849246881</v>
+        <v>1.031115681923295</v>
       </c>
       <c r="N20">
-        <v>1.010886846997441</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011626311321002</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.033239477832073</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.033446471377694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9884965182485319</v>
+        <v>0.9915001374994591</v>
       </c>
       <c r="D21">
-        <v>1.010875196834396</v>
+        <v>1.014603157993174</v>
       </c>
       <c r="E21">
-        <v>0.997843429834727</v>
+        <v>1.000448521977218</v>
       </c>
       <c r="F21">
-        <v>1.007547152424002</v>
+        <v>1.01311562722043</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038981628178469</v>
+        <v>1.040770722590564</v>
       </c>
       <c r="J21">
-        <v>1.018483194969015</v>
+        <v>1.021357583807974</v>
       </c>
       <c r="K21">
-        <v>1.025653423421977</v>
+        <v>1.029313051808119</v>
       </c>
       <c r="L21">
-        <v>1.012865774607281</v>
+        <v>1.015421401951977</v>
       </c>
       <c r="M21">
-        <v>1.02238693862015</v>
+        <v>1.027852708655443</v>
       </c>
       <c r="N21">
-        <v>1.009689750479549</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010696584482957</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.030615872160457</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.031879393101595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9848075693202</v>
+        <v>0.9883980320170319</v>
       </c>
       <c r="D22">
-        <v>1.008085276858095</v>
+        <v>1.012574871192236</v>
       </c>
       <c r="E22">
-        <v>0.9949319367879842</v>
+        <v>0.9980371129806412</v>
       </c>
       <c r="F22">
-        <v>1.004033899592936</v>
+        <v>1.010658567044896</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037806661532938</v>
+        <v>1.039878107407062</v>
       </c>
       <c r="J22">
-        <v>1.016229365410012</v>
+        <v>1.01965603035243</v>
       </c>
       <c r="K22">
-        <v>1.023498246600454</v>
+        <v>1.027901266718878</v>
       </c>
       <c r="L22">
-        <v>1.01060446603872</v>
+        <v>1.013647555593968</v>
       </c>
       <c r="M22">
-        <v>1.01952586548038</v>
+        <v>1.026021792015502</v>
       </c>
       <c r="N22">
-        <v>1.008918228501257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010106426003552</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.029166802652031</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.030867633865805</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9867716597532458</v>
+        <v>0.9900358448086284</v>
       </c>
       <c r="D23">
-        <v>1.009570111787958</v>
+        <v>1.0136385774094</v>
       </c>
       <c r="E23">
-        <v>0.9964812612328161</v>
+        <v>0.9993076179897832</v>
       </c>
       <c r="F23">
-        <v>1.005903599259905</v>
+        <v>1.011963446121135</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038432979620078</v>
+        <v>1.04034560004925</v>
       </c>
       <c r="J23">
-        <v>1.017429496099215</v>
+        <v>1.02054929092567</v>
       </c>
       <c r="K23">
-        <v>1.024645860947635</v>
+        <v>1.028637938679636</v>
       </c>
       <c r="L23">
-        <v>1.011808312709721</v>
+        <v>1.014579673747389</v>
       </c>
       <c r="M23">
-        <v>1.021048881885129</v>
+        <v>1.026994161859962</v>
       </c>
       <c r="N23">
-        <v>1.009329066909409</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010414525315243</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.029936380115168</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.031378820292378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9943203448968</v>
+        <v>0.9963703475048268</v>
       </c>
       <c r="D24">
-        <v>1.015289243653654</v>
+        <v>1.017775169442952</v>
       </c>
       <c r="E24">
-        <v>1.002453494871037</v>
+        <v>1.004240562266507</v>
       </c>
       <c r="F24">
-        <v>1.013107591385544</v>
+        <v>1.016998792746577</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040823820734574</v>
+        <v>1.042142526475543</v>
       </c>
       <c r="J24">
-        <v>1.022038795163063</v>
+        <v>1.024008837404839</v>
       </c>
       <c r="K24">
-        <v>1.029053079585514</v>
+        <v>1.031497161761517</v>
       </c>
       <c r="L24">
-        <v>1.016437660951884</v>
+        <v>1.018193615888191</v>
       </c>
       <c r="M24">
-        <v>1.026908367741056</v>
+        <v>1.030733824870962</v>
       </c>
       <c r="N24">
-        <v>1.010906608087973</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011610507519436</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.032896110582885</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033392912550156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002729020427102</v>
+        <v>1.003459541156443</v>
       </c>
       <c r="D25">
-        <v>1.021682497315934</v>
+        <v>1.022426271809382</v>
       </c>
       <c r="E25">
-        <v>1.009139599849901</v>
+        <v>1.009791786592937</v>
       </c>
       <c r="F25">
-        <v>1.021167140492089</v>
+        <v>1.022635778280934</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043452080322827</v>
+        <v>1.044113707155123</v>
       </c>
       <c r="J25">
-        <v>1.027164889899673</v>
+        <v>1.027871036234936</v>
       </c>
       <c r="K25">
-        <v>1.033953292915825</v>
+        <v>1.034686145361372</v>
       </c>
       <c r="L25">
-        <v>1.021597672941964</v>
+        <v>1.022239975829396</v>
       </c>
       <c r="M25">
-        <v>1.033445515762342</v>
+        <v>1.034892578949841</v>
       </c>
       <c r="N25">
-        <v>1.012660084418364</v>
+        <v>1.012945132955576</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.036187513112847</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.03564482820928</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008884534618139</v>
+        <v>1.008571395163262</v>
       </c>
       <c r="D2">
-        <v>1.025981700245599</v>
+        <v>1.025256802436493</v>
       </c>
       <c r="E2">
-        <v>1.014057756879259</v>
+        <v>1.013806037842183</v>
       </c>
       <c r="F2">
-        <v>1.026971231186428</v>
+        <v>1.026891280901765</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045575710702927</v>
+        <v>1.045303533585702</v>
       </c>
       <c r="J2">
-        <v>1.030802719626016</v>
+        <v>1.03049872515781</v>
       </c>
       <c r="K2">
-        <v>1.037090557242222</v>
+        <v>1.03637513598296</v>
       </c>
       <c r="L2">
-        <v>1.02532465818276</v>
+        <v>1.025076325881801</v>
       </c>
       <c r="M2">
-        <v>1.038067179144381</v>
+        <v>1.037988270703259</v>
       </c>
       <c r="N2">
-        <v>1.013953281669237</v>
+        <v>1.015140665649177</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.038700007032197</v>
+        <v>1.03863755613252</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03729649964876</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036799422487664</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021685002569978</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012740023742084</v>
+        <v>1.012232446583978</v>
       </c>
       <c r="D3">
-        <v>1.028527541254002</v>
+        <v>1.027579284106814</v>
       </c>
       <c r="E3">
-        <v>1.017104728366964</v>
+        <v>1.01668159137044</v>
       </c>
       <c r="F3">
-        <v>1.030039802760335</v>
+        <v>1.029926993660427</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046602796643139</v>
+        <v>1.046215809417641</v>
       </c>
       <c r="J3">
-        <v>1.032889306903298</v>
+        <v>1.032395107831103</v>
       </c>
       <c r="K3">
-        <v>1.038807968458354</v>
+        <v>1.037871036796835</v>
       </c>
       <c r="L3">
-        <v>1.027523330654551</v>
+        <v>1.027105386271823</v>
       </c>
       <c r="M3">
-        <v>1.040302221782112</v>
+        <v>1.040190753763494</v>
       </c>
       <c r="N3">
-        <v>1.014672997921421</v>
+        <v>1.015658704699677</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04046889567643</v>
+        <v>1.040380676204201</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038508194010715</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037854211480752</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021991307064511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015189506958084</v>
+        <v>1.014559892949341</v>
       </c>
       <c r="D4">
-        <v>1.030148852204787</v>
+        <v>1.029059649509283</v>
       </c>
       <c r="E4">
-        <v>1.019046135321401</v>
+        <v>1.018515288845403</v>
       </c>
       <c r="F4">
-        <v>1.031988671250282</v>
+        <v>1.03185538459568</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047246262248843</v>
+        <v>1.046786843592939</v>
       </c>
       <c r="J4">
-        <v>1.034212485813274</v>
+        <v>1.033598348293228</v>
       </c>
       <c r="K4">
-        <v>1.039896530289813</v>
+        <v>1.038819558306565</v>
       </c>
       <c r="L4">
-        <v>1.028919998874904</v>
+        <v>1.028395270719454</v>
       </c>
       <c r="M4">
-        <v>1.041715762081128</v>
+        <v>1.041583963845132</v>
       </c>
       <c r="N4">
-        <v>1.015129250912944</v>
+        <v>1.015987381446877</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.041587617229172</v>
+        <v>1.041483307911759</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039278799660336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038525877923965</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022183100817908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016212794288315</v>
+        <v>1.015532446400956</v>
       </c>
       <c r="D5">
-        <v>1.030829312019926</v>
+        <v>1.029681419075768</v>
       </c>
       <c r="E5">
-        <v>1.019858980584006</v>
+        <v>1.019283320098773</v>
       </c>
       <c r="F5">
-        <v>1.032800202840254</v>
+        <v>1.032658435864547</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047514460891821</v>
+        <v>1.047024852528575</v>
       </c>
       <c r="J5">
-        <v>1.034766390592246</v>
+        <v>1.034102268666778</v>
       </c>
       <c r="K5">
-        <v>1.040353724889885</v>
+        <v>1.039218381176445</v>
       </c>
       <c r="L5">
-        <v>1.029504747277625</v>
+        <v>1.028935543558895</v>
       </c>
       <c r="M5">
-        <v>1.042303148970878</v>
+        <v>1.042162922750453</v>
       </c>
       <c r="N5">
-        <v>1.015320665993341</v>
+        <v>1.016125371382153</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.04205249371996</v>
+        <v>1.041941514298252</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039609249761111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038815765762377</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022263709675609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016388912030575</v>
+        <v>1.015699737507093</v>
       </c>
       <c r="D6">
-        <v>1.030949208065354</v>
+        <v>1.029791186808336</v>
       </c>
       <c r="E6">
-        <v>1.019999559118722</v>
+        <v>1.019416085516695</v>
       </c>
       <c r="F6">
-        <v>1.032936902611876</v>
+        <v>1.03279366213952</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047562431508997</v>
+        <v>1.047067572342665</v>
       </c>
       <c r="J6">
-        <v>1.034863823359587</v>
+        <v>1.034191001082122</v>
       </c>
       <c r="K6">
-        <v>1.040436112244413</v>
+        <v>1.039290693347951</v>
       </c>
       <c r="L6">
-        <v>1.029607031910813</v>
+        <v>1.029030072487953</v>
       </c>
       <c r="M6">
-        <v>1.042402256163643</v>
+        <v>1.042260565306155</v>
       </c>
       <c r="N6">
-        <v>1.015354890951211</v>
+        <v>1.016150087629223</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042130930245383</v>
+        <v>1.042018791676085</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039676253283216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038876515056872</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022278966132627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015216454058214</v>
+        <v>1.014594506636978</v>
       </c>
       <c r="D7">
-        <v>1.030174081240535</v>
+        <v>1.029089976799414</v>
       </c>
       <c r="E7">
-        <v>1.019069170882346</v>
+        <v>1.018545297656984</v>
       </c>
       <c r="F7">
-        <v>1.032002069610814</v>
+        <v>1.031869808094361</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047258556601672</v>
+        <v>1.046802658826002</v>
       </c>
       <c r="J7">
-        <v>1.034232819756688</v>
+        <v>1.033626153551022</v>
       </c>
       <c r="K7">
-        <v>1.039918592466652</v>
+        <v>1.038846656621148</v>
       </c>
       <c r="L7">
-        <v>1.028939843035827</v>
+        <v>1.028422005352672</v>
       </c>
       <c r="M7">
-        <v>1.041726133727578</v>
+        <v>1.041595348640755</v>
       </c>
       <c r="N7">
-        <v>1.015137797570727</v>
+        <v>1.016022255985318</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.04159582567953</v>
+        <v>1.04149231820184</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039314523697276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038567163772638</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02219119872794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010213753981607</v>
+        <v>1.009861553798144</v>
       </c>
       <c r="D8">
-        <v>1.026867665553951</v>
+        <v>1.026086300620636</v>
       </c>
       <c r="E8">
-        <v>1.015109197729076</v>
+        <v>1.014823872910804</v>
       </c>
       <c r="F8">
-        <v>1.02801921691293</v>
+        <v>1.027931852027458</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04593816151317</v>
+        <v>1.045639960763905</v>
       </c>
       <c r="J8">
-        <v>1.031529769279704</v>
+        <v>1.031187510096074</v>
       </c>
       <c r="K8">
-        <v>1.037695591994569</v>
+        <v>1.036924140116996</v>
       </c>
       <c r="L8">
-        <v>1.026088322026329</v>
+        <v>1.025806720629638</v>
       </c>
       <c r="M8">
-        <v>1.038832568083427</v>
+        <v>1.038746307552968</v>
       </c>
       <c r="N8">
-        <v>1.014206091326908</v>
+        <v>1.015409838066927</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.039305762321259</v>
+        <v>1.039237492778397</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037747249599881</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037212821094442</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021802657313244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001014507213463</v>
+        <v>1.001140395059666</v>
       </c>
       <c r="D9">
-        <v>1.020808457106372</v>
+        <v>1.020569379031189</v>
       </c>
       <c r="E9">
-        <v>1.007870570449433</v>
+        <v>1.008006061588695</v>
       </c>
       <c r="F9">
-        <v>1.020704058411857</v>
+        <v>1.020698466590452</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043431184672365</v>
+        <v>1.043412453114307</v>
       </c>
       <c r="J9">
-        <v>1.026531491409594</v>
+        <v>1.026652947208323</v>
       </c>
       <c r="K9">
-        <v>1.033572717620482</v>
+        <v>1.033337320263893</v>
       </c>
       <c r="L9">
-        <v>1.020837230850911</v>
+        <v>1.020970567882603</v>
       </c>
       <c r="M9">
-        <v>1.033469925921898</v>
+        <v>1.033464420186536</v>
       </c>
       <c r="N9">
-        <v>1.012479655085247</v>
+        <v>1.01417962064022</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.035061570943041</v>
+        <v>1.035057213489432</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034828909008475</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034673235244826</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021053006048979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9946844145612331</v>
+        <v>0.9951864235866891</v>
       </c>
       <c r="D10">
-        <v>1.016687829451256</v>
+        <v>1.016854065330224</v>
       </c>
       <c r="E10">
-        <v>1.002931603577388</v>
+        <v>1.003398068555121</v>
       </c>
       <c r="F10">
-        <v>1.01616719845564</v>
+        <v>1.016225793098901</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041735935029706</v>
+        <v>1.041930116970949</v>
       </c>
       <c r="J10">
-        <v>1.023110530046008</v>
+        <v>1.023592332948829</v>
       </c>
       <c r="K10">
-        <v>1.030762178112774</v>
+        <v>1.03092553927599</v>
       </c>
       <c r="L10">
-        <v>1.017248127986954</v>
+        <v>1.017706239675923</v>
       </c>
       <c r="M10">
-        <v>1.030250558259006</v>
+        <v>1.030308138142767</v>
       </c>
       <c r="N10">
-        <v>1.01130429429621</v>
+        <v>1.013466331741285</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.032565443374499</v>
+        <v>1.032611011617445</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032858530768563</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032986488127558</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02054653655623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9923865037744489</v>
+        <v>0.9930582085229006</v>
       </c>
       <c r="D11">
-        <v>1.015372283234848</v>
+        <v>1.015700242688403</v>
       </c>
       <c r="E11">
-        <v>1.001214081563867</v>
+        <v>1.001828330432483</v>
       </c>
       <c r="F11">
-        <v>1.018426715870714</v>
+        <v>1.018509966103964</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041678507266942</v>
+        <v>1.041959213157836</v>
       </c>
       <c r="J11">
-        <v>1.022079479298349</v>
+        <v>1.022722653028121</v>
       </c>
       <c r="K11">
-        <v>1.030010008969766</v>
+        <v>1.030332027250373</v>
       </c>
       <c r="L11">
-        <v>1.016113138347001</v>
+        <v>1.016715849290593</v>
       </c>
       <c r="M11">
-        <v>1.033009301307474</v>
+        <v>1.033091054677928</v>
       </c>
       <c r="N11">
-        <v>1.011004660529063</v>
+        <v>1.013498886891091</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035186558314479</v>
+        <v>1.035251224265533</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032359669431265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032603014136762</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020471942965762</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9916512955387785</v>
+        <v>0.9923731061088964</v>
       </c>
       <c r="D12">
-        <v>1.015000451130992</v>
+        <v>1.015373845666513</v>
       </c>
       <c r="E12">
-        <v>1.000690515864368</v>
+        <v>1.001346489608675</v>
       </c>
       <c r="F12">
-        <v>1.020599318128534</v>
+        <v>1.020687991955888</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041842648607972</v>
+        <v>1.042145744670315</v>
       </c>
       <c r="J12">
-        <v>1.021813239039794</v>
+        <v>1.022503794365727</v>
       </c>
       <c r="K12">
-        <v>1.029845800430339</v>
+        <v>1.030212317484542</v>
       </c>
       <c r="L12">
-        <v>1.01580449862652</v>
+        <v>1.016447938388908</v>
       </c>
       <c r="M12">
-        <v>1.035342229893424</v>
+        <v>1.035429293094905</v>
       </c>
       <c r="N12">
-        <v>1.010956969119254</v>
+        <v>1.013571700610429</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037358747974946</v>
+        <v>1.037427590550748</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032243567914645</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032518376736537</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02047984188567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9920866413521914</v>
+        <v>0.9927540550574213</v>
       </c>
       <c r="D13">
-        <v>1.015349231843691</v>
+        <v>1.015669732421505</v>
       </c>
       <c r="E13">
-        <v>1.001063935010448</v>
+        <v>1.001668718177454</v>
       </c>
       <c r="F13">
-        <v>1.022888010649735</v>
+        <v>1.022966138157776</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042204594070061</v>
+        <v>1.042474851936077</v>
       </c>
       <c r="J13">
-        <v>1.022135864633281</v>
+        <v>1.022774518281291</v>
       </c>
       <c r="K13">
-        <v>1.030145089667539</v>
+        <v>1.030459711624141</v>
       </c>
       <c r="L13">
-        <v>1.016126814546557</v>
+        <v>1.016720091144888</v>
       </c>
       <c r="M13">
-        <v>1.037546860329765</v>
+        <v>1.037623581704739</v>
       </c>
       <c r="N13">
-        <v>1.011108257394753</v>
+        <v>1.013648768961402</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039378638267411</v>
+        <v>1.03943928816102</v>
       </c>
       <c r="Q13">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R13">
-        <v>1.032452675179188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032690546604837</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020556279374256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9929156274286626</v>
+        <v>0.9934988874454695</v>
       </c>
       <c r="D14">
-        <v>1.015914088504118</v>
+        <v>1.016154404582247</v>
       </c>
       <c r="E14">
-        <v>1.001726521977013</v>
+        <v>1.002254710044132</v>
       </c>
       <c r="F14">
-        <v>1.024485286538015</v>
+        <v>1.024549341041455</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042535608879269</v>
+        <v>1.042758822741479</v>
       </c>
       <c r="J14">
-        <v>1.022622203527086</v>
+        <v>1.023180688297749</v>
       </c>
       <c r="K14">
-        <v>1.030558585611287</v>
+        <v>1.030794548093079</v>
       </c>
       <c r="L14">
-        <v>1.016632878130419</v>
+        <v>1.017151143955037</v>
       </c>
       <c r="M14">
-        <v>1.038976144895483</v>
+        <v>1.039039063776469</v>
       </c>
       <c r="N14">
-        <v>1.011302442544045</v>
+        <v>1.013704739704432</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040681701581637</v>
+        <v>1.040731433634459</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032746461780136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03292885116981</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020639877235764</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.993384889517085</v>
+        <v>0.9939246052975577</v>
       </c>
       <c r="D15">
-        <v>1.016223757585904</v>
+        <v>1.016422474714225</v>
       </c>
       <c r="E15">
-        <v>1.002094814722124</v>
+        <v>1.002583990563116</v>
       </c>
       <c r="F15">
-        <v>1.024991258878738</v>
+        <v>1.025048422222141</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042678216059589</v>
+        <v>1.042877785723177</v>
       </c>
       <c r="J15">
-        <v>1.022882705937166</v>
+        <v>1.023399696892371</v>
       </c>
       <c r="K15">
-        <v>1.030775803358154</v>
+        <v>1.030970947740455</v>
       </c>
       <c r="L15">
-        <v>1.016905625169051</v>
+        <v>1.017385682964496</v>
       </c>
       <c r="M15">
-        <v>1.039387381325099</v>
+        <v>1.039443539405852</v>
       </c>
       <c r="N15">
-        <v>1.011398286056144</v>
+        <v>1.013726188361405</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041044253016247</v>
+        <v>1.041088640068009</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032905933328981</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033060030062015</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020679625896614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.995967946355239</v>
+        <v>0.9962954754233998</v>
       </c>
       <c r="D16">
-        <v>1.017890112337175</v>
+        <v>1.01788174961296</v>
       </c>
       <c r="E16">
-        <v>1.004096287384941</v>
+        <v>1.004398349662538</v>
       </c>
       <c r="F16">
-        <v>1.02648603093937</v>
+        <v>1.026510732531824</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043328648426394</v>
+        <v>1.043415078367987</v>
       </c>
       <c r="J16">
-        <v>1.024265155740988</v>
+        <v>1.024579588548808</v>
       </c>
       <c r="K16">
-        <v>1.031907945336954</v>
+        <v>1.031899726398016</v>
       </c>
       <c r="L16">
-        <v>1.018355512331473</v>
+        <v>1.018652196357542</v>
       </c>
       <c r="M16">
-        <v>1.040357666862002</v>
+        <v>1.040381952886256</v>
       </c>
       <c r="N16">
-        <v>1.011865867865712</v>
+        <v>1.013832790710317</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041772477222665</v>
+        <v>1.041791673313144</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033709578376657</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033720185302483</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020868523649471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,105 +1369,123 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9975252701233398</v>
+        <v>0.9977445193974015</v>
       </c>
       <c r="D17">
-        <v>1.018882900585663</v>
+        <v>1.018764800721927</v>
       </c>
       <c r="E17">
-        <v>1.005294782144595</v>
+        <v>1.005502578395415</v>
       </c>
       <c r="F17">
-        <v>1.026822409018294</v>
+        <v>1.026830655934761</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043662522011511</v>
+        <v>1.043691318368033</v>
       </c>
       <c r="J17">
-        <v>1.025078881854149</v>
+        <v>1.025289649176631</v>
       </c>
       <c r="K17">
-        <v>1.032567751129054</v>
+        <v>1.032451624555277</v>
       </c>
       <c r="L17">
-        <v>1.019210607215547</v>
+        <v>1.019414810487487</v>
       </c>
       <c r="M17">
-        <v>1.040375939384638</v>
+        <v>1.040384051253695</v>
       </c>
       <c r="N17">
-        <v>1.012125392357233</v>
+        <v>1.013917190187018</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041657955350875</v>
+        <v>1.0416643677465</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034178682187079</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034113239344965</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020973110573255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9983123326535556</v>
+        <v>0.9984922863416649</v>
       </c>
       <c r="D18">
-        <v>1.019344563516003</v>
+        <v>1.019184263884243</v>
       </c>
       <c r="E18">
-        <v>1.005880677027906</v>
+        <v>1.006055917048276</v>
       </c>
       <c r="F18">
-        <v>1.025882902682622</v>
+        <v>1.025885532494797</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04369563263181</v>
+        <v>1.043704748415943</v>
       </c>
       <c r="J18">
-        <v>1.025439249994634</v>
+        <v>1.025612374539129</v>
       </c>
       <c r="K18">
-        <v>1.032837534870463</v>
+        <v>1.032679869327896</v>
       </c>
       <c r="L18">
-        <v>1.019598668560586</v>
+        <v>1.019770929873843</v>
       </c>
       <c r="M18">
-        <v>1.039269334750876</v>
+        <v>1.039271922062168</v>
       </c>
       <c r="N18">
-        <v>1.012214711544642</v>
+        <v>1.013940149361755</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040545452324887</v>
+        <v>1.04054749800723</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034357760484259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034261812844665</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021000047621507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9983738366461988</v>
+        <v>0.9985714960347163</v>
       </c>
       <c r="D19">
-        <v>1.01930055044399</v>
+        <v>1.019157040167501</v>
       </c>
       <c r="E19">
-        <v>1.005888945063053</v>
+        <v>1.006082275629799</v>
       </c>
       <c r="F19">
-        <v>1.023533012902919</v>
+        <v>1.023539283314265</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043406497714652</v>
+        <v>1.043427950315134</v>
       </c>
       <c r="J19">
-        <v>1.025363432127663</v>
+        <v>1.02555363581908</v>
       </c>
       <c r="K19">
-        <v>1.032731441862016</v>
+        <v>1.032590277407043</v>
       </c>
       <c r="L19">
-        <v>1.019542793805499</v>
+        <v>1.019732855923433</v>
       </c>
       <c r="M19">
-        <v>1.036895100130808</v>
+        <v>1.036901269150356</v>
       </c>
       <c r="N19">
-        <v>1.012147175415558</v>
+        <v>1.013884405164126</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038342116842394</v>
+        <v>1.038346996030873</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034289160989676</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034205504080214</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020952591165538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9963615770353252</v>
+        <v>0.9967357465149083</v>
       </c>
       <c r="D20">
-        <v>1.017797059650859</v>
+        <v>1.017835443114248</v>
       </c>
       <c r="E20">
-        <v>1.004242967505448</v>
+        <v>1.004595886172081</v>
       </c>
       <c r="F20">
-        <v>1.017371564427686</v>
+        <v>1.017408838830023</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042204573467608</v>
+        <v>1.042328463982622</v>
       </c>
       <c r="J20">
-        <v>1.024033477871555</v>
+        <v>1.024393082175792</v>
       </c>
       <c r="K20">
-        <v>1.031534025047165</v>
+        <v>1.031571763706536</v>
       </c>
       <c r="L20">
-        <v>1.018211617500725</v>
+        <v>1.018558401005309</v>
       </c>
       <c r="M20">
-        <v>1.031115681923295</v>
+        <v>1.031152329476282</v>
       </c>
       <c r="N20">
-        <v>1.011626311321002</v>
+        <v>1.013587689279174</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.033239477832073</v>
+        <v>1.033268480751517</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033446471377694</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033489699080739</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020685713860914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9915001374994591</v>
+        <v>0.9923017344417284</v>
       </c>
       <c r="D21">
-        <v>1.014603157993174</v>
+        <v>1.015056640721282</v>
       </c>
       <c r="E21">
-        <v>1.000448521977218</v>
+        <v>1.001182751863102</v>
       </c>
       <c r="F21">
-        <v>1.01311562722043</v>
+        <v>1.013224230850177</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040770722590564</v>
+        <v>1.041127159200941</v>
       </c>
       <c r="J21">
-        <v>1.021357583807974</v>
+        <v>1.022124880682652</v>
       </c>
       <c r="K21">
-        <v>1.029313051808119</v>
+        <v>1.029758266852805</v>
       </c>
       <c r="L21">
-        <v>1.015421401951977</v>
+        <v>1.016141751240838</v>
       </c>
       <c r="M21">
-        <v>1.027852708655443</v>
+        <v>1.027959323817605</v>
       </c>
       <c r="N21">
-        <v>1.010696584482957</v>
+        <v>1.013388712915271</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.030615872160457</v>
+        <v>1.0307002520861</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031879393101595</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032211056093733</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020302615427312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9883980320170319</v>
+        <v>0.9894717215640532</v>
       </c>
       <c r="D22">
-        <v>1.012574871192236</v>
+        <v>1.013292514402942</v>
       </c>
       <c r="E22">
-        <v>0.9980371129806412</v>
+        <v>0.9990142179251995</v>
       </c>
       <c r="F22">
-        <v>1.010658567044896</v>
+        <v>1.010813378152492</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039878107407062</v>
+        <v>1.040382746581999</v>
       </c>
       <c r="J22">
-        <v>1.01965603035243</v>
+        <v>1.020681068849128</v>
       </c>
       <c r="K22">
-        <v>1.027901266718878</v>
+        <v>1.028605164467626</v>
       </c>
       <c r="L22">
-        <v>1.013647555593968</v>
+        <v>1.014605228678135</v>
       </c>
       <c r="M22">
-        <v>1.026021792015502</v>
+        <v>1.026173621018033</v>
       </c>
       <c r="N22">
-        <v>1.010106426003552</v>
+        <v>1.013255758902924</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029166802652031</v>
+        <v>1.029286967046346</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.030867633865805</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031380905466115</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020058050153537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9900358448086284</v>
+        <v>0.9909505347874854</v>
       </c>
       <c r="D23">
-        <v>1.0136385774094</v>
+        <v>1.014205212643545</v>
       </c>
       <c r="E23">
-        <v>0.9993076179897832</v>
+        <v>1.000142361622447</v>
       </c>
       <c r="F23">
-        <v>1.011963446121135</v>
+        <v>1.012091442999433</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04034560004925</v>
+        <v>1.040764352131199</v>
       </c>
       <c r="J23">
-        <v>1.02054929092567</v>
+        <v>1.021423763750483</v>
       </c>
       <c r="K23">
-        <v>1.028637938679636</v>
+        <v>1.029193998442843</v>
       </c>
       <c r="L23">
-        <v>1.014579673747389</v>
+        <v>1.015398252709683</v>
       </c>
       <c r="M23">
-        <v>1.026994161859962</v>
+        <v>1.027119758159484</v>
       </c>
       <c r="N23">
-        <v>1.010414525315243</v>
+        <v>1.013278411365748</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029936380115168</v>
+        <v>1.030035782643435</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031378820292378</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031786621763768</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020179994617459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9963703475048268</v>
+        <v>0.99674722748183</v>
       </c>
       <c r="D24">
-        <v>1.017775169442952</v>
+        <v>1.017816236170196</v>
       </c>
       <c r="E24">
-        <v>1.004240562266507</v>
+        <v>1.004596230074962</v>
       </c>
       <c r="F24">
-        <v>1.016998792746577</v>
+        <v>1.017036734954228</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042142526475543</v>
+        <v>1.042268377465564</v>
       </c>
       <c r="J24">
-        <v>1.024008837404839</v>
+        <v>1.024371067741767</v>
       </c>
       <c r="K24">
-        <v>1.031497161761517</v>
+        <v>1.031537539457644</v>
       </c>
       <c r="L24">
-        <v>1.018193615888191</v>
+        <v>1.018543108689212</v>
       </c>
       <c r="M24">
-        <v>1.030733824870962</v>
+        <v>1.03077112921528</v>
       </c>
       <c r="N24">
-        <v>1.011610507519436</v>
+        <v>1.013572557007261</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.032896110582885</v>
+        <v>1.032925634785433</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033392912550156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033435338222058</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020671455347038</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003459541156443</v>
+        <v>1.003444624277503</v>
       </c>
       <c r="D25">
-        <v>1.022426271809382</v>
+        <v>1.022033352984273</v>
       </c>
       <c r="E25">
-        <v>1.009791786592937</v>
+        <v>1.009803034373903</v>
       </c>
       <c r="F25">
-        <v>1.022635778280934</v>
+        <v>1.022606220768115</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044113707155123</v>
+        <v>1.04401419480131</v>
       </c>
       <c r="J25">
-        <v>1.027871036234936</v>
+        <v>1.027856616575511</v>
       </c>
       <c r="K25">
-        <v>1.034686145361372</v>
+        <v>1.034298993886273</v>
       </c>
       <c r="L25">
-        <v>1.022239975829396</v>
+        <v>1.02225105329352</v>
       </c>
       <c r="M25">
-        <v>1.034892578949841</v>
+        <v>1.034863454867511</v>
       </c>
       <c r="N25">
-        <v>1.012945132955576</v>
+        <v>1.014477357374905</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.036187513112847</v>
+        <v>1.036164463215026</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03564482820928</v>
+        <v>1.035384654035894</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021258067124919</v>
       </c>
     </row>
   </sheetData>
